--- a/Output Data/Crpo/Common_folder/Performance/Performance_testing.xlsx
+++ b/Output Data/Crpo/Common_folder/Performance/Performance_testing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="AMSIN_NON_EU" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="155">
   <si>
     <t xml:space="preserve">Run Date</t>
   </si>
@@ -193,6 +193,66 @@
     <t xml:space="preserve">11:57:AM</t>
   </si>
   <si>
+    <t xml:space="preserve">2020-07-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:52:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:53:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:55:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:47:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:03:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:06:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:20:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:24:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:25:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:01:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:03:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:06:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:45:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:47:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:49:AM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:41:PM</t>
   </si>
   <si>
@@ -244,9 +304,6 @@
     <t xml:space="preserve">10:30:AM</t>
   </si>
   <si>
-    <t xml:space="preserve">10:47:AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">11:40:AM</t>
   </si>
   <si>
@@ -256,6 +313,36 @@
     <t xml:space="preserve">12:04:PM</t>
   </si>
   <si>
+    <t xml:space="preserve">08:26:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:34:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:47:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:45:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:01:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:04:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:58:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:04:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:08:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:00:PM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:43:PM</t>
   </si>
   <si>
@@ -268,9 +355,6 @@
     <t xml:space="preserve">08:40:AM</t>
   </si>
   <si>
-    <t xml:space="preserve">08:52:AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">11:31:AM</t>
   </si>
   <si>
@@ -322,12 +406,33 @@
     <t xml:space="preserve">12:24:PM</t>
   </si>
   <si>
+    <t xml:space="preserve">08:33:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:46:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:48:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02:16:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:05:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:26:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:04:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:46:AM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:44:PM</t>
   </si>
   <si>
-    <t xml:space="preserve">08:53:AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">11:32:AM</t>
   </si>
   <si>
@@ -352,18 +457,12 @@
     <t xml:space="preserve">04:48:PM</t>
   </si>
   <si>
-    <t xml:space="preserve">07:26:AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">07:40:AM</t>
   </si>
   <si>
     <t xml:space="preserve">07:49:AM</t>
   </si>
   <si>
-    <t xml:space="preserve">10:49:AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">10:51:AM</t>
   </si>
   <si>
@@ -377,6 +476,18 @@
   </si>
   <si>
     <t xml:space="preserve">12:41:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:30:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02:13:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:07:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:48:AM</t>
   </si>
 </sst>
 </file>
@@ -585,8 +696,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F48" activeCellId="0" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1519,6 +1630,351 @@
       </c>
       <c r="G40" s="1" t="n">
         <v>0.8301892</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>0.6970636</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>0.7560248</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>1.0677468</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>1.04298</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>1.7086616</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>1.1335438</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>1.3447588</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>1.3786784</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>1.1246994</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>0.603143</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>0.859495</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>0.5353868</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>1.0007868</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>1.932121</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>1.5519822</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>0.9799876</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>0.882955</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>1.243534</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>1.7065556</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <v>0.744271</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>0.7894934</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>1.5566398</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>1.6964016</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>1.6774242</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <v>1.6617968</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>0.723385</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>0.649583</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>1.0368912</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>1.548416</v>
+      </c>
+      <c r="G46" s="1" t="n">
+        <v>0.6376878</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>1.3154154</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>1.0691104</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>1.3835996</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>2.1018882</v>
+      </c>
+      <c r="G47" s="1" t="n">
+        <v>1.1256312</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>1.0656754</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>0.732949</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>0.979966</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>1.7450508</v>
+      </c>
+      <c r="G48" s="1" t="n">
+        <v>0.8892084</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>1.133399</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>1.2192206</v>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>1.0804794</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>1.6307256</v>
+      </c>
+      <c r="G49" s="1" t="n">
+        <v>1.0424772</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>1.4079638</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>1.3678576</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>1.5746124</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>1.9403692</v>
+      </c>
+      <c r="G50" s="1" t="n">
+        <v>1.3990678</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>1.438895</v>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>1.3485682</v>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>1.2471514</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>1.7966524</v>
+      </c>
+      <c r="G51" s="1" t="n">
+        <v>1.2158014</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>1.4429276</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>1.3262304</v>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>1.5125068</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>1.9190502</v>
+      </c>
+      <c r="G52" s="1" t="n">
+        <v>1.130747</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>1.0745438</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>0.846375</v>
+      </c>
+      <c r="E53" s="1" t="n">
+        <v>0.8096276</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <v>1.5468486</v>
+      </c>
+      <c r="G53" s="1" t="n">
+        <v>0.634675</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>0.8623898</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>0.9240942</v>
+      </c>
+      <c r="E54" s="1" t="n">
+        <v>1.2087328</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <v>1.4984644</v>
+      </c>
+      <c r="G54" s="1" t="n">
+        <v>0.7129542</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>0.700015</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>0.6618318</v>
+      </c>
+      <c r="E55" s="1" t="n">
+        <v>0.7205964</v>
+      </c>
+      <c r="F55" s="1" t="n">
+        <v>1.3900236</v>
+      </c>
+      <c r="G55" s="1" t="n">
+        <v>1.173701</v>
       </c>
     </row>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1546,8 +2002,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F58" activeCellId="0" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1590,7 +2046,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>2.0220664</v>
@@ -1613,7 +2069,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>2.4586498</v>
@@ -1659,7 +2115,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>2.1296676</v>
@@ -1682,7 +2138,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>2.0261682</v>
@@ -1728,7 +2184,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>2.1709282</v>
@@ -1751,7 +2207,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>2.1589454</v>
@@ -1774,7 +2230,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>2.0390428</v>
@@ -1820,7 +2276,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>1.9875636</v>
@@ -1889,7 +2345,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>2.1964826</v>
@@ -1935,7 +2391,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>2.0752022</v>
@@ -2096,7 +2552,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>2.6861386</v>
@@ -2142,7 +2598,7 @@
         <v>35</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>2.330873</v>
@@ -2165,7 +2621,7 @@
         <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>2.4523078</v>
@@ -2188,7 +2644,7 @@
         <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>2.3690538</v>
@@ -2211,7 +2667,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>2.031089</v>
@@ -2234,7 +2690,7 @@
         <v>42</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>2.3269536</v>
@@ -2280,7 +2736,7 @@
         <v>46</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>1.9277496</v>
@@ -2326,7 +2782,7 @@
         <v>46</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C34" s="1" t="n">
         <v>2.1495374</v>
@@ -2372,7 +2828,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C36" s="1" t="n">
         <v>2.1296676</v>
@@ -2395,7 +2851,7 @@
         <v>49</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>2.0261682</v>
@@ -2418,7 +2874,7 @@
         <v>52</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>2.138844</v>
@@ -2441,7 +2897,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>2.569399</v>
@@ -2464,7 +2920,7 @@
         <v>52</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>2.2719068</v>
@@ -2480,6 +2936,351 @@
       </c>
       <c r="G40" s="1" t="n">
         <v>1.5332564</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>2.4505342</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>1.042875</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>1.5228736</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>1.637505</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>2.0395252</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>2.5803136</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>1.1525966</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>1.2568084</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>1.4718878</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>1.3662118</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>2.245899</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>1.3721928</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>2.0071962</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>2.6444904</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>2.925483</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>2.4560934</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>1.8522784</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>1.4691932</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>2.6753028</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <v>1.6150922</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>2.0923624</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>1.9639236</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>2.5498536</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>3.2592844</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <v>3.6203564</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>2.7843442</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>2.5435242</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>1.2745902</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>1.5364352</v>
+      </c>
+      <c r="G46" s="1" t="n">
+        <v>1.3409988</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>2.5149182</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>2.4649174</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>2.0088952</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>2.5897514</v>
+      </c>
+      <c r="G47" s="1" t="n">
+        <v>1.8753574</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>3.1230162</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>2.1433064</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>2.0445056</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>2.461969</v>
+      </c>
+      <c r="G48" s="1" t="n">
+        <v>1.60999</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>3.6995458</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>3.0789918</v>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>2.7491362</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>3.5113496</v>
+      </c>
+      <c r="G49" s="1" t="n">
+        <v>3.0269358</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>2.7353538</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>4.9824328</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>2.1457102</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>2.6571934</v>
+      </c>
+      <c r="G50" s="1" t="n">
+        <v>2.2269784</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>3.3092548</v>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>1.706787</v>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>1.7146822</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>2.3946932</v>
+      </c>
+      <c r="G51" s="1" t="n">
+        <v>1.8803928</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>2.6670216</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>1.6500214</v>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>1.9757692</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>2.2888126</v>
+      </c>
+      <c r="G52" s="1" t="n">
+        <v>1.9202404</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>2.9713202</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>1.7983304</v>
+      </c>
+      <c r="E53" s="1" t="n">
+        <v>1.2820992</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <v>2.1533724</v>
+      </c>
+      <c r="G53" s="1" t="n">
+        <v>1.6825578</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>3.0476272</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>1.5129136</v>
+      </c>
+      <c r="E54" s="1" t="n">
+        <v>1.5282142</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <v>2.3836784</v>
+      </c>
+      <c r="G54" s="1" t="n">
+        <v>2.381404</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>2.9359362</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>1.3257866</v>
+      </c>
+      <c r="E55" s="1" t="n">
+        <v>1.3950442</v>
+      </c>
+      <c r="F55" s="1" t="n">
+        <v>3.84098</v>
+      </c>
+      <c r="G55" s="1" t="n">
+        <v>2.3995594</v>
       </c>
     </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2504,8 +3305,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2548,7 +3349,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>0.7804054</v>
@@ -2571,7 +3372,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>0.7779802</v>
@@ -2594,7 +3395,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>0.7043458</v>
@@ -2617,7 +3418,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>0.7145706</v>
@@ -2640,7 +3441,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>0.7079038</v>
@@ -2686,7 +3487,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>0.6280168</v>
@@ -2732,7 +3533,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>0.7373706</v>
@@ -2778,7 +3579,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>0.7234852</v>
@@ -2870,7 +3671,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>0.3510038</v>
@@ -2893,7 +3694,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>0.5421752</v>
@@ -2916,7 +3717,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>0.5591408</v>
@@ -2939,7 +3740,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>0.5551518</v>
@@ -3031,7 +3832,7 @@
         <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>0.9795414</v>
@@ -3054,7 +3855,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>3.7305486</v>
@@ -3077,7 +3878,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>2.3842444</v>
@@ -3100,7 +3901,7 @@
         <v>35</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>2.139728</v>
@@ -3123,7 +3924,7 @@
         <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>0.7112716</v>
@@ -3146,7 +3947,7 @@
         <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>0.67812</v>
@@ -3169,7 +3970,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>0.6440876</v>
@@ -3192,7 +3993,7 @@
         <v>42</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>0.712753</v>
@@ -3215,7 +4016,7 @@
         <v>42</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>0.630812</v>
@@ -3261,7 +4062,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>0.7013216</v>
@@ -3330,7 +4131,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="C36" s="1" t="n">
         <v>0.7043458</v>
@@ -3353,7 +4154,7 @@
         <v>49</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>0.7145706</v>
@@ -3371,12 +4172,12 @@
         <v>0.8505872</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>1.2584274</v>
@@ -3394,12 +4195,12 @@
         <v>1.5028426</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>1.3856258</v>
@@ -3417,12 +4218,12 @@
         <v>1.4899634</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>1.1413118</v>
@@ -3438,6 +4239,351 @@
       </c>
       <c r="G40" s="1" t="n">
         <v>1.3298936</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>2.0516946</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>0.6588846</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>1.0691976</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>1.6938252</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>0.7502852</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>0.7008908</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>1.2031492</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>0.909146</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>1.3324972</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>0.694964</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>0.616032</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>1.208539</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>1.4483286</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>1.0033406</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>1.7004658</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>0.7883284</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>0.8488018</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>0.9406866</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>1.81406</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <v>1.0965244</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>0.7723322</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>1.0240904</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>1.4109304</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>1.4156856</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <v>1.4840598</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>0.6814198</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>0.7304676</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>1.188399</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>1.2337578</v>
+      </c>
+      <c r="G46" s="1" t="n">
+        <v>0.7197916</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>1.5693422</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>1.4045678</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>1.7329052</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>2.0550814</v>
+      </c>
+      <c r="G47" s="1" t="n">
+        <v>1.5513804</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>0.8541094</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>1.7543964</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>1.180485</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>1.8072072</v>
+      </c>
+      <c r="G48" s="1" t="n">
+        <v>1.1996712</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>1.1405132</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>1.3899558</v>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>1.0793592</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>1.6971584</v>
+      </c>
+      <c r="G49" s="1" t="n">
+        <v>1.2584038</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>1.3281992</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>1.3057804</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>1.3971618</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>2.173212</v>
+      </c>
+      <c r="G50" s="1" t="n">
+        <v>1.2047634</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>1.4049502</v>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>1.467166</v>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>1.3060224</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>2.1109256</v>
+      </c>
+      <c r="G51" s="1" t="n">
+        <v>1.423003</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>1.7486656</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>1.2543238</v>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>1.3643512</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>1.9119414</v>
+      </c>
+      <c r="G52" s="1" t="n">
+        <v>1.2552182</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>0.9897652</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>1.0006046</v>
+      </c>
+      <c r="E53" s="1" t="n">
+        <v>1.1250342</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <v>1.5080312</v>
+      </c>
+      <c r="G53" s="1" t="n">
+        <v>1.2397706</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>1.3823074</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>1.2121392</v>
+      </c>
+      <c r="E54" s="1" t="n">
+        <v>0.9635322</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <v>1.5839516</v>
+      </c>
+      <c r="G54" s="1" t="n">
+        <v>0.80599</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>0.8482162</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>0.7807444</v>
+      </c>
+      <c r="E55" s="1" t="n">
+        <v>0.8527402</v>
+      </c>
+      <c r="F55" s="1" t="n">
+        <v>1.8729324</v>
+      </c>
+      <c r="G55" s="1" t="n">
+        <v>1.1046286</v>
       </c>
     </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3462,8 +4608,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F42" activeCellId="0" sqref="F42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E56" activeCellId="0" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3506,7 +4652,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>3.4656902</v>
@@ -3529,7 +4675,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>4.0852622</v>
@@ -3552,7 +4698,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>2.9817282</v>
@@ -3575,7 +4721,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>3.2355116</v>
@@ -3598,7 +4744,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>3.372143</v>
@@ -3644,7 +4790,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>3.7434734</v>
@@ -3667,7 +4813,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>3.5561424</v>
@@ -3690,7 +4836,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>3.2355472</v>
@@ -3713,7 +4859,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>3.8741284</v>
@@ -3736,7 +4882,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>3.5923944</v>
@@ -3805,7 +4951,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>3.0850886</v>
@@ -3828,7 +4974,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>4.2818632</v>
@@ -3851,7 +4997,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>3.5103138</v>
@@ -3874,7 +5020,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>3.5907182</v>
@@ -3897,7 +5043,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>2.8087598</v>
@@ -3920,7 +5066,7 @@
         <v>31</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>3.0989676</v>
@@ -3943,7 +5089,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>2.9089418</v>
@@ -4012,7 +5158,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>3.6907394</v>
@@ -4058,7 +5204,7 @@
         <v>35</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>3.822524</v>
@@ -4081,7 +5227,7 @@
         <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>3.2866498</v>
@@ -4104,7 +5250,7 @@
         <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>3.8178666</v>
@@ -4127,7 +5273,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>3.567202</v>
@@ -4150,7 +5296,7 @@
         <v>42</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>3.0702744</v>
@@ -4173,7 +5319,7 @@
         <v>42</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>3.1279612</v>
@@ -4196,7 +5342,7 @@
         <v>46</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>3.2541312</v>
@@ -4219,7 +5365,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>3.6235082</v>
@@ -4242,7 +5388,7 @@
         <v>46</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="C34" s="1" t="n">
         <v>2.9263998</v>
@@ -4265,7 +5411,7 @@
         <v>49</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="C35" s="1" t="n">
         <v>2.9817282</v>
@@ -4288,7 +5434,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="C36" s="1" t="n">
         <v>3.2355116</v>
@@ -4311,7 +5457,7 @@
         <v>49</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>3.362143</v>
@@ -4329,12 +5475,12 @@
         <v>1.6462792</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>4.4183598</v>
@@ -4352,12 +5498,12 @@
         <v>2.5824826</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>4.2271066</v>
@@ -4375,12 +5521,12 @@
         <v>2.794734</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>4.3486802</v>
@@ -4396,6 +5542,351 @@
       </c>
       <c r="G40" s="1" t="n">
         <v>2.0522316</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>4.4582382</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>2.5344732</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>1.9240982</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>3.0292468</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>1.4922734</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>3.6324914</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>1.8784468</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>1.7077038</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>2.230174</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>1.5030494</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>4.2748656</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>1.9875758</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>3.065287</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>3.0610684</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>1.8075572</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>3.8775138</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>2.1703518</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>1.5257254</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>2.5003062</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <v>1.3192684</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>4.2457576</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>2.99625</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>2.683612</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>3.6294886</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <v>1.1652728</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>3.8538836</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>1.4523142</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>1.8353244</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>2.4091576</v>
+      </c>
+      <c r="G46" s="1" t="n">
+        <v>1.4433536</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>4.134913</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>3.0570432</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>2.0829702</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>2.7429282</v>
+      </c>
+      <c r="G47" s="1" t="n">
+        <v>1.8446484</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>4.0352438</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>2.0000954</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>1.6569432</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>2.9944184</v>
+      </c>
+      <c r="G48" s="1" t="n">
+        <v>2.2772718</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>4.4015426</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>2.8833052</v>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>1.8347464</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>2.7400396</v>
+      </c>
+      <c r="G49" s="1" t="n">
+        <v>1.9019046</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>4.6767688</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>3.1910382</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>2.2192556</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>3.5660182</v>
+      </c>
+      <c r="G50" s="1" t="n">
+        <v>1.9421864</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>4.7661336</v>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>1.9789006</v>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>2.1269262</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>2.6525292</v>
+      </c>
+      <c r="G51" s="1" t="n">
+        <v>1.905948</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>4.1553188</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>2.2690102</v>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>2.5550744</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>3.1044548</v>
+      </c>
+      <c r="G52" s="1" t="n">
+        <v>2.0475476</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>4.4161086</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>3.1587048</v>
+      </c>
+      <c r="E53" s="1" t="n">
+        <v>2.9025804</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <v>3.0468496</v>
+      </c>
+      <c r="G53" s="1" t="n">
+        <v>1.8015668</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>3.9109934</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>1.9643416</v>
+      </c>
+      <c r="E54" s="1" t="n">
+        <v>2.3939418</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <v>2.6715282</v>
+      </c>
+      <c r="G54" s="1" t="n">
+        <v>1.6758802</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>3.9109934</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>1.9643416</v>
+      </c>
+      <c r="E55" s="1" t="n">
+        <v>2.3939418</v>
+      </c>
+      <c r="F55" s="1" t="n">
+        <v>2.6715282</v>
+      </c>
+      <c r="G55" s="1" t="n">
+        <v>1.6758802</v>
       </c>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Output Data/Crpo/Common_folder/Performance/Performance_testing.xlsx
+++ b/Output Data/Crpo/Common_folder/Performance/Performance_testing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="AMSIN_NON_EU" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="211">
   <si>
     <t xml:space="preserve">Run Date</t>
   </si>
@@ -365,6 +365,18 @@
   </si>
   <si>
     <t xml:space="preserve">08:46:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:08:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:16:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:22:AM</t>
   </si>
   <si>
     <t xml:space="preserve">07:41:PM</t>
@@ -852,8 +864,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C82" activeCellId="0" sqref="C82"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A89" activeCellId="0" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2754,7 +2766,7 @@
         <v>1.0374682</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>110</v>
       </c>
@@ -2777,7 +2789,7 @@
         <v>0.3897554</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>110</v>
       </c>
@@ -2800,7 +2812,7 @@
         <v>0.3941732</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>110</v>
       </c>
@@ -2823,6 +2835,76 @@
         <v>0.4909732</v>
       </c>
     </row>
+    <row r="86" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>0.3796308</v>
+      </c>
+      <c r="D86" s="1" t="n">
+        <v>0.3087778</v>
+      </c>
+      <c r="E86" s="1" t="n">
+        <v>0.3566184</v>
+      </c>
+      <c r="F86" s="1" t="n">
+        <v>0.9447432</v>
+      </c>
+      <c r="G86" s="1" t="n">
+        <v>0.3191322</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>0.352177</v>
+      </c>
+      <c r="D87" s="1" t="n">
+        <v>0.2920096</v>
+      </c>
+      <c r="E87" s="1" t="n">
+        <v>0.3292926</v>
+      </c>
+      <c r="F87" s="1" t="n">
+        <v>0.9486302</v>
+      </c>
+      <c r="G87" s="1" t="n">
+        <v>0.3229826</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C88" s="1" t="n">
+        <v>0.3734102</v>
+      </c>
+      <c r="D88" s="1" t="n">
+        <v>0.3207986</v>
+      </c>
+      <c r="E88" s="1" t="n">
+        <v>0.3029934</v>
+      </c>
+      <c r="F88" s="1" t="n">
+        <v>0.9122862</v>
+      </c>
+      <c r="G88" s="1" t="n">
+        <v>0.3085204</v>
+      </c>
+    </row>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2852,7 +2934,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D88" activeCellId="0" sqref="D88"/>
+      <selection pane="topLeft" activeCell="A89" activeCellId="0" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2895,7 +2977,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>2.0220664</v>
@@ -2918,7 +3000,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>2.4586498</v>
@@ -2964,7 +3046,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>2.1296676</v>
@@ -2987,7 +3069,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>2.0261682</v>
@@ -3033,7 +3115,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>2.1709282</v>
@@ -3056,7 +3138,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>2.1589454</v>
@@ -3079,7 +3161,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>2.0390428</v>
@@ -3125,7 +3207,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>1.9875636</v>
@@ -3194,7 +3276,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>2.1964826</v>
@@ -3240,7 +3322,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>2.0752022</v>
@@ -3401,7 +3483,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>2.6861386</v>
@@ -3447,7 +3529,7 @@
         <v>35</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>2.330873</v>
@@ -3470,7 +3552,7 @@
         <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>2.4523078</v>
@@ -3493,7 +3575,7 @@
         <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>2.3690538</v>
@@ -3516,7 +3598,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>2.031089</v>
@@ -3539,7 +3621,7 @@
         <v>42</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>2.3269536</v>
@@ -3585,7 +3667,7 @@
         <v>46</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>1.9277496</v>
@@ -3677,7 +3759,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C36" s="1" t="n">
         <v>2.1296676</v>
@@ -3700,7 +3782,7 @@
         <v>49</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>2.0261682</v>
@@ -3723,7 +3805,7 @@
         <v>52</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>2.138844</v>
@@ -3746,7 +3828,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>2.569399</v>
@@ -3769,7 +3851,7 @@
         <v>52</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>2.2719068</v>
@@ -3792,7 +3874,7 @@
         <v>56</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C41" s="1" t="n">
         <v>2.4505342</v>
@@ -3815,7 +3897,7 @@
         <v>56</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C42" s="1" t="n">
         <v>2.5803136</v>
@@ -3861,7 +3943,7 @@
         <v>60</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>2.4560934</v>
@@ -3884,7 +3966,7 @@
         <v>60</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>2.0923624</v>
@@ -3907,7 +3989,7 @@
         <v>60</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>2.7843442</v>
@@ -3930,7 +4012,7 @@
         <v>64</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>2.5149182</v>
@@ -4160,7 +4242,7 @@
         <v>76</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C57" s="1" t="n">
         <v>2.9062288</v>
@@ -4344,7 +4426,7 @@
         <v>87</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C65" s="1" t="n">
         <v>2.0647184</v>
@@ -4367,7 +4449,7 @@
         <v>87</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C66" s="1" t="n">
         <v>3.3981744</v>
@@ -4390,7 +4472,7 @@
         <v>87</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C67" s="1" t="n">
         <v>2.0062282</v>
@@ -4413,7 +4495,7 @@
         <v>91</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C68" s="1" t="n">
         <v>5.4740242</v>
@@ -4436,7 +4518,7 @@
         <v>91</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C69" s="1" t="n">
         <v>5.0492016</v>
@@ -4528,7 +4610,7 @@
         <v>95</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C73" s="1" t="n">
         <v>2.2478822</v>
@@ -4574,7 +4656,7 @@
         <v>99</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C75" s="1" t="n">
         <v>2.7314032</v>
@@ -4597,7 +4679,7 @@
         <v>99</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C76" s="1" t="n">
         <v>2.7375454</v>
@@ -4666,7 +4748,7 @@
         <v>103</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C79" s="1" t="n">
         <v>2.5848074</v>
@@ -4753,12 +4835,12 @@
         <v>1.800036</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C83" s="1" t="n">
         <v>2.0692152</v>
@@ -4776,7 +4858,7 @@
         <v>1.2030752</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>110</v>
       </c>
@@ -4799,7 +4881,7 @@
         <v>0.9982632</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>110</v>
       </c>
@@ -4822,6 +4904,76 @@
         <v>1.1969472</v>
       </c>
     </row>
+    <row r="86" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>1.8947846</v>
+      </c>
+      <c r="D86" s="1" t="n">
+        <v>6.4301004</v>
+      </c>
+      <c r="E86" s="1" t="n">
+        <v>4.8651428</v>
+      </c>
+      <c r="F86" s="1" t="n">
+        <v>4.891026</v>
+      </c>
+      <c r="G86" s="1" t="n">
+        <v>3.3867444</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>1.8616348</v>
+      </c>
+      <c r="D87" s="1" t="n">
+        <v>4.1445452</v>
+      </c>
+      <c r="E87" s="1" t="n">
+        <v>4.7047672</v>
+      </c>
+      <c r="F87" s="1" t="n">
+        <v>4.3936958</v>
+      </c>
+      <c r="G87" s="1" t="n">
+        <v>3.3588782</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C88" s="1" t="n">
+        <v>1.9251046</v>
+      </c>
+      <c r="D88" s="1" t="n">
+        <v>3.9349204</v>
+      </c>
+      <c r="E88" s="1" t="n">
+        <v>6.735708</v>
+      </c>
+      <c r="F88" s="1" t="n">
+        <v>4.4488258</v>
+      </c>
+      <c r="G88" s="1" t="n">
+        <v>3.6421794</v>
+      </c>
+    </row>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4849,7 +5001,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C80" activeCellId="0" sqref="C80"/>
+      <selection pane="topLeft" activeCell="A89" activeCellId="0" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4892,7 +5044,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>0.7804054</v>
@@ -4915,7 +5067,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>0.7779802</v>
@@ -4938,7 +5090,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>0.7043458</v>
@@ -4961,7 +5113,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>0.7145706</v>
@@ -5030,7 +5182,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>0.6280168</v>
@@ -5076,7 +5228,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>0.7373706</v>
@@ -5122,7 +5274,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>0.7234852</v>
@@ -5214,7 +5366,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>0.3510038</v>
@@ -5237,7 +5389,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>0.5421752</v>
@@ -5260,7 +5412,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>0.5591408</v>
@@ -5283,7 +5435,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>0.5551518</v>
@@ -5375,7 +5527,7 @@
         <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>0.9795414</v>
@@ -5398,7 +5550,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>3.7305486</v>
@@ -5421,7 +5573,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>2.3842444</v>
@@ -5444,7 +5596,7 @@
         <v>35</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>2.139728</v>
@@ -5467,7 +5619,7 @@
         <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>0.7112716</v>
@@ -5490,7 +5642,7 @@
         <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>0.67812</v>
@@ -5513,7 +5665,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>0.6440876</v>
@@ -5536,7 +5688,7 @@
         <v>42</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>0.712753</v>
@@ -5559,7 +5711,7 @@
         <v>42</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>0.630812</v>
@@ -5605,7 +5757,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>0.7013216</v>
@@ -5674,7 +5826,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C36" s="1" t="n">
         <v>0.7043458</v>
@@ -5697,7 +5849,7 @@
         <v>49</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>0.7145706</v>
@@ -5720,7 +5872,7 @@
         <v>52</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>1.2584274</v>
@@ -5743,7 +5895,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>1.3856258</v>
@@ -5766,7 +5918,7 @@
         <v>52</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>1.1413118</v>
@@ -5789,7 +5941,7 @@
         <v>56</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C41" s="1" t="n">
         <v>2.0516946</v>
@@ -5858,7 +6010,7 @@
         <v>60</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>0.7883284</v>
@@ -5904,7 +6056,7 @@
         <v>60</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>0.6814198</v>
@@ -5927,7 +6079,7 @@
         <v>64</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>1.5693422</v>
@@ -6019,7 +6171,7 @@
         <v>68</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C51" s="1" t="n">
         <v>1.4049502</v>
@@ -6065,7 +6217,7 @@
         <v>72</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C53" s="1" t="n">
         <v>0.9897652</v>
@@ -6134,7 +6286,7 @@
         <v>76</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C56" s="1" t="n">
         <v>1.2353042</v>
@@ -6180,7 +6332,7 @@
         <v>76</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C58" s="1" t="n">
         <v>1.2364662</v>
@@ -6226,7 +6378,7 @@
         <v>80</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C60" s="1" t="n">
         <v>1.1438926</v>
@@ -6249,7 +6401,7 @@
         <v>80</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C61" s="1" t="n">
         <v>0.6579276</v>
@@ -6341,7 +6493,7 @@
         <v>87</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C65" s="1" t="n">
         <v>1.8978822</v>
@@ -6364,7 +6516,7 @@
         <v>87</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C66" s="1" t="n">
         <v>1.1060998</v>
@@ -6387,7 +6539,7 @@
         <v>87</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C67" s="1" t="n">
         <v>1.6069744</v>
@@ -6410,7 +6562,7 @@
         <v>91</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C68" s="1" t="n">
         <v>1.6301784</v>
@@ -6433,7 +6585,7 @@
         <v>91</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C69" s="1" t="n">
         <v>1.5682082</v>
@@ -6456,7 +6608,7 @@
         <v>91</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C70" s="1" t="n">
         <v>1.4442308</v>
@@ -6525,7 +6677,7 @@
         <v>95</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C73" s="1" t="n">
         <v>1.4236492</v>
@@ -6594,7 +6746,7 @@
         <v>99</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C76" s="1" t="n">
         <v>1.1822766</v>
@@ -6663,7 +6815,7 @@
         <v>103</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C79" s="1" t="n">
         <v>1.573159</v>
@@ -6750,12 +6902,12 @@
         <v>1.6958602</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C83" s="1" t="n">
         <v>1.0064424</v>
@@ -6773,7 +6925,7 @@
         <v>1.1290368</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>110</v>
       </c>
@@ -6796,7 +6948,7 @@
         <v>1.017412</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>110</v>
       </c>
@@ -6819,6 +6971,76 @@
         <v>1.1153826</v>
       </c>
     </row>
+    <row r="86" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>1.2164698</v>
+      </c>
+      <c r="D86" s="1" t="n">
+        <v>1.4856796</v>
+      </c>
+      <c r="E86" s="1" t="n">
+        <v>1.5779796</v>
+      </c>
+      <c r="F86" s="1" t="n">
+        <v>2.1005958</v>
+      </c>
+      <c r="G86" s="1" t="n">
+        <v>1.1410646</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>1.1936726</v>
+      </c>
+      <c r="D87" s="1" t="n">
+        <v>1.5988684</v>
+      </c>
+      <c r="E87" s="1" t="n">
+        <v>1.8436184</v>
+      </c>
+      <c r="F87" s="1" t="n">
+        <v>2.3451834</v>
+      </c>
+      <c r="G87" s="1" t="n">
+        <v>1.1566356</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C88" s="1" t="n">
+        <v>1.1215588</v>
+      </c>
+      <c r="D88" s="1" t="n">
+        <v>1.5316854</v>
+      </c>
+      <c r="E88" s="1" t="n">
+        <v>1.442876</v>
+      </c>
+      <c r="F88" s="1" t="n">
+        <v>2.217594</v>
+      </c>
+      <c r="G88" s="1" t="n">
+        <v>1.393354</v>
+      </c>
+    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -6841,8 +7063,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F82" activeCellId="0" sqref="F82"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A89" activeCellId="0" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6885,7 +7107,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>3.4656902</v>
@@ -6908,7 +7130,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>4.0852622</v>
@@ -6931,7 +7153,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>2.9817282</v>
@@ -6954,7 +7176,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>3.2355116</v>
@@ -7023,7 +7245,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>3.7434734</v>
@@ -7046,7 +7268,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>3.5561424</v>
@@ -7069,7 +7291,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>3.2355472</v>
@@ -7092,7 +7314,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>3.8741284</v>
@@ -7115,7 +7337,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>3.5923944</v>
@@ -7184,7 +7406,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>3.0850886</v>
@@ -7207,7 +7429,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>4.2818632</v>
@@ -7230,7 +7452,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>3.5103138</v>
@@ -7253,7 +7475,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>3.5907182</v>
@@ -7276,7 +7498,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>2.8087598</v>
@@ -7299,7 +7521,7 @@
         <v>31</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>3.0989676</v>
@@ -7322,7 +7544,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>2.9089418</v>
@@ -7391,7 +7613,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>3.6907394</v>
@@ -7437,7 +7659,7 @@
         <v>35</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>3.822524</v>
@@ -7460,7 +7682,7 @@
         <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>3.2866498</v>
@@ -7483,7 +7705,7 @@
         <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>3.8178666</v>
@@ -7529,7 +7751,7 @@
         <v>42</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>3.0702744</v>
@@ -7552,7 +7774,7 @@
         <v>42</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>3.1279612</v>
@@ -7598,7 +7820,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>3.6235082</v>
@@ -7621,7 +7843,7 @@
         <v>46</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C34" s="1" t="n">
         <v>2.9263998</v>
@@ -7644,7 +7866,7 @@
         <v>49</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C35" s="1" t="n">
         <v>2.9817282</v>
@@ -7667,7 +7889,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C36" s="1" t="n">
         <v>3.2355116</v>
@@ -7713,7 +7935,7 @@
         <v>52</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>4.4183598</v>
@@ -7736,7 +7958,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>4.2271066</v>
@@ -7759,7 +7981,7 @@
         <v>52</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>4.3486802</v>
@@ -7805,7 +8027,7 @@
         <v>56</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C42" s="1" t="n">
         <v>3.6324914</v>
@@ -7851,7 +8073,7 @@
         <v>60</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>3.8775138</v>
@@ -7897,7 +8119,7 @@
         <v>60</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>3.8538836</v>
@@ -7920,7 +8142,7 @@
         <v>64</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>4.134913</v>
@@ -8012,7 +8234,7 @@
         <v>68</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C51" s="1" t="n">
         <v>4.7661336</v>
@@ -8035,7 +8257,7 @@
         <v>68</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C52" s="1" t="n">
         <v>4.1553188</v>
@@ -8058,7 +8280,7 @@
         <v>72</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C53" s="1" t="n">
         <v>4.4161086</v>
@@ -8081,7 +8303,7 @@
         <v>72</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C54" s="1" t="n">
         <v>3.9109934</v>
@@ -8104,7 +8326,7 @@
         <v>72</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C55" s="1" t="n">
         <v>3.9109934</v>
@@ -8127,7 +8349,7 @@
         <v>76</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C56" s="1" t="n">
         <v>3.4861618</v>
@@ -8173,7 +8395,7 @@
         <v>76</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C58" s="1" t="n">
         <v>3.52287</v>
@@ -8334,7 +8556,7 @@
         <v>87</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C65" s="1" t="n">
         <v>3.2117386</v>
@@ -8357,7 +8579,7 @@
         <v>87</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C66" s="1" t="n">
         <v>4.0686228</v>
@@ -8380,7 +8602,7 @@
         <v>87</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C67" s="1" t="n">
         <v>3.0381616</v>
@@ -8403,7 +8625,7 @@
         <v>91</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C68" s="1" t="n">
         <v>3.9888114</v>
@@ -8426,7 +8648,7 @@
         <v>91</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C69" s="1" t="n">
         <v>4.1137066</v>
@@ -8449,7 +8671,7 @@
         <v>91</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C70" s="1" t="n">
         <v>4.983335</v>
@@ -8518,7 +8740,7 @@
         <v>95</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C73" s="1" t="n">
         <v>3.9020584</v>
@@ -8587,7 +8809,7 @@
         <v>99</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C76" s="1" t="n">
         <v>4.5492628</v>
@@ -8656,7 +8878,7 @@
         <v>103</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C79" s="1" t="n">
         <v>4.5622134</v>
@@ -8743,12 +8965,12 @@
         <v>1.5110712</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C83" s="1" t="n">
         <v>3.860828</v>
@@ -8766,7 +8988,7 @@
         <v>1.0072452</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>110</v>
       </c>
@@ -8789,7 +9011,7 @@
         <v>0.9810854</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>110</v>
       </c>
@@ -8812,6 +9034,76 @@
         <v>1.0018626</v>
       </c>
     </row>
+    <row r="86" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>4.958017</v>
+      </c>
+      <c r="D86" s="1" t="n">
+        <v>1.5075092</v>
+      </c>
+      <c r="E86" s="1" t="n">
+        <v>0.9055122</v>
+      </c>
+      <c r="F86" s="1" t="n">
+        <v>1.9502298</v>
+      </c>
+      <c r="G86" s="1" t="n">
+        <v>1.17239</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>4.4462374</v>
+      </c>
+      <c r="D87" s="1" t="n">
+        <v>0.8155476</v>
+      </c>
+      <c r="E87" s="1" t="n">
+        <v>0.8887352</v>
+      </c>
+      <c r="F87" s="1" t="n">
+        <v>1.4640536</v>
+      </c>
+      <c r="G87" s="1" t="n">
+        <v>0.9791652</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C88" s="1" t="n">
+        <v>4.219337</v>
+      </c>
+      <c r="D88" s="1" t="n">
+        <v>0.7881876</v>
+      </c>
+      <c r="E88" s="1" t="n">
+        <v>0.9163358</v>
+      </c>
+      <c r="F88" s="1" t="n">
+        <v>1.3426984</v>
+      </c>
+      <c r="G88" s="1" t="n">
+        <v>0.9735228</v>
+      </c>
+    </row>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Output Data/Crpo/Common_folder/Performance/Performance_testing.xlsx
+++ b/Output Data/Crpo/Common_folder/Performance/Performance_testing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="AMSIN_NON_EU" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="265">
   <si>
     <t xml:space="preserve">Run Date</t>
   </si>
@@ -457,6 +457,54 @@
     <t xml:space="preserve">07:23:AM</t>
   </si>
   <si>
+    <t xml:space="preserve">2021-02-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:13:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:16:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:18:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02:20:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02:22:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02:23:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:13:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:14:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:16:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:44:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:46:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:49:AM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:41:PM</t>
   </si>
   <si>
@@ -481,9 +529,6 @@
     <t xml:space="preserve">10:43:AM</t>
   </si>
   <si>
-    <t xml:space="preserve">07:46:AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">12:38:PM</t>
   </si>
   <si>
@@ -565,6 +610,18 @@
     <t xml:space="preserve">07:22:AM</t>
   </si>
   <si>
+    <t xml:space="preserve">09:20:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02:19:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02:24:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:12:PM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:43:PM</t>
   </si>
   <si>
@@ -676,9 +733,6 @@
     <t xml:space="preserve">12:18:PM</t>
   </si>
   <si>
-    <t xml:space="preserve">07:49:AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">07:53:AM</t>
   </si>
   <si>
@@ -697,6 +751,9 @@
     <t xml:space="preserve">08:51:AM</t>
   </si>
   <si>
+    <t xml:space="preserve">09:19:AM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:44:PM</t>
   </si>
   <si>
@@ -755,6 +812,12 @@
   </si>
   <si>
     <t xml:space="preserve">03:55:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02:25:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:19:PM</t>
   </si>
 </sst>
 </file>
@@ -969,8 +1032,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A113" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="127:127 B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3492,7 +3555,7 @@
         <v>0.5523088</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
         <v>138</v>
       </c>
@@ -3515,7 +3578,7 @@
         <v>1.4874608</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
         <v>138</v>
       </c>
@@ -3538,7 +3601,7 @@
         <v>1.3791604</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
         <v>138</v>
       </c>
@@ -3561,7 +3624,7 @@
         <v>1.2814424</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
         <v>140</v>
       </c>
@@ -3584,7 +3647,7 @@
         <v>0.54674</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
         <v>140</v>
       </c>
@@ -3607,7 +3670,7 @@
         <v>0.6116528</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
         <v>140</v>
       </c>
@@ -3628,6 +3691,282 @@
       </c>
       <c r="G115" s="4" t="n">
         <v>0.5043394</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C116" s="4" t="n">
+        <v>0.809183</v>
+      </c>
+      <c r="D116" s="4" t="n">
+        <v>0.9333968</v>
+      </c>
+      <c r="E116" s="4" t="n">
+        <v>0.5753842</v>
+      </c>
+      <c r="F116" s="4" t="n">
+        <v>1.3000796</v>
+      </c>
+      <c r="G116" s="4" t="n">
+        <v>0.5495302</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C117" s="4" t="n">
+        <v>0.6960294</v>
+      </c>
+      <c r="D117" s="4" t="n">
+        <v>0.583398</v>
+      </c>
+      <c r="E117" s="4" t="n">
+        <v>0.4964454</v>
+      </c>
+      <c r="F117" s="4" t="n">
+        <v>3.677224</v>
+      </c>
+      <c r="G117" s="4" t="n">
+        <v>0.6296426</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C118" s="4" t="n">
+        <v>0.7090524</v>
+      </c>
+      <c r="D118" s="4" t="n">
+        <v>0.5657738</v>
+      </c>
+      <c r="E118" s="4" t="n">
+        <v>0.6534514</v>
+      </c>
+      <c r="F118" s="4" t="n">
+        <v>1.4058256</v>
+      </c>
+      <c r="G118" s="4" t="n">
+        <v>0.685226</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C119" s="4" t="n">
+        <v>0.535599</v>
+      </c>
+      <c r="D119" s="4" t="n">
+        <v>0.5101196</v>
+      </c>
+      <c r="E119" s="4" t="n">
+        <v>0.5541256</v>
+      </c>
+      <c r="F119" s="4" t="n">
+        <v>1.4218732</v>
+      </c>
+      <c r="G119" s="4" t="n">
+        <v>0.5053244</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C120" s="4" t="n">
+        <v>0.6985058</v>
+      </c>
+      <c r="D120" s="4" t="n">
+        <v>0.6638636</v>
+      </c>
+      <c r="E120" s="4" t="n">
+        <v>0.5358948</v>
+      </c>
+      <c r="F120" s="4" t="n">
+        <v>1.3696804</v>
+      </c>
+      <c r="G120" s="4" t="n">
+        <v>0.5162764</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C121" s="4" t="n">
+        <v>0.7176242</v>
+      </c>
+      <c r="D121" s="4" t="n">
+        <v>0.6925446</v>
+      </c>
+      <c r="E121" s="4" t="n">
+        <v>0.559884</v>
+      </c>
+      <c r="F121" s="4" t="n">
+        <v>1.3930956</v>
+      </c>
+      <c r="G121" s="4" t="n">
+        <v>0.565576</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C122" s="4" t="n">
+        <v>0.7684588</v>
+      </c>
+      <c r="D122" s="4" t="n">
+        <v>0.650311</v>
+      </c>
+      <c r="E122" s="4" t="n">
+        <v>0.6599258</v>
+      </c>
+      <c r="F122" s="4" t="n">
+        <v>1.4837902</v>
+      </c>
+      <c r="G122" s="4" t="n">
+        <v>0.6990002</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C123" s="4" t="n">
+        <v>0.6443748</v>
+      </c>
+      <c r="D123" s="4" t="n">
+        <v>0.7027854</v>
+      </c>
+      <c r="E123" s="4" t="n">
+        <v>1.0580366</v>
+      </c>
+      <c r="F123" s="4" t="n">
+        <v>2.6178524</v>
+      </c>
+      <c r="G123" s="4" t="n">
+        <v>0.812823</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C124" s="4" t="n">
+        <v>0.7871676</v>
+      </c>
+      <c r="D124" s="4" t="n">
+        <v>0.643827</v>
+      </c>
+      <c r="E124" s="4" t="n">
+        <v>0.7988852</v>
+      </c>
+      <c r="F124" s="4" t="n">
+        <v>1.563497</v>
+      </c>
+      <c r="G124" s="4" t="n">
+        <v>0.672591</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C125" s="4" t="n">
+        <v>0.6922436</v>
+      </c>
+      <c r="D125" s="4" t="n">
+        <v>0.7150514</v>
+      </c>
+      <c r="E125" s="4" t="n">
+        <v>0.5568226</v>
+      </c>
+      <c r="F125" s="4" t="n">
+        <v>1.4143334</v>
+      </c>
+      <c r="G125" s="4" t="n">
+        <v>0.722484</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C126" s="4" t="n">
+        <v>0.6227758</v>
+      </c>
+      <c r="D126" s="4" t="n">
+        <v>0.597914</v>
+      </c>
+      <c r="E126" s="4" t="n">
+        <v>0.5631542</v>
+      </c>
+      <c r="F126" s="4" t="n">
+        <v>1.5104212</v>
+      </c>
+      <c r="G126" s="4" t="n">
+        <v>0.643026</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C127" s="4" t="n">
+        <v>0.5865706</v>
+      </c>
+      <c r="D127" s="4" t="n">
+        <v>0.5707738</v>
+      </c>
+      <c r="E127" s="4" t="n">
+        <v>0.5357412</v>
+      </c>
+      <c r="F127" s="4" t="n">
+        <v>1.6436042</v>
+      </c>
+      <c r="G127" s="4" t="n">
+        <v>0.6461234</v>
       </c>
     </row>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3658,8 +3997,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G113" activeCellId="0" sqref="G113"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A117" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F120" activeCellId="1" sqref="127:127 F120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3702,7 +4041,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>2.0220664</v>
@@ -3725,7 +4064,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>2.4586498</v>
@@ -3771,7 +4110,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>2.1296676</v>
@@ -3840,7 +4179,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>2.1709282</v>
@@ -3863,7 +4202,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>2.1589454</v>
@@ -3886,7 +4225,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>2.0390428</v>
@@ -3932,7 +4271,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>1.9875636</v>
@@ -4001,7 +4340,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>2.1964826</v>
@@ -4047,7 +4386,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C17" s="4" t="n">
         <v>2.0752022</v>
@@ -4208,7 +4547,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>2.6861386</v>
@@ -4254,7 +4593,7 @@
         <v>35</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C26" s="4" t="n">
         <v>2.330873</v>
@@ -4277,7 +4616,7 @@
         <v>35</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="C27" s="4" t="n">
         <v>2.4523078</v>
@@ -4300,7 +4639,7 @@
         <v>35</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="C28" s="4" t="n">
         <v>2.3690538</v>
@@ -4346,7 +4685,7 @@
         <v>42</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>2.3269536</v>
@@ -4392,7 +4731,7 @@
         <v>46</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="C32" s="4" t="n">
         <v>1.9277496</v>
@@ -4484,7 +4823,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>2.1296676</v>
@@ -4530,7 +4869,7 @@
         <v>52</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>2.138844</v>
@@ -4553,7 +4892,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="C39" s="4" t="n">
         <v>2.569399</v>
@@ -4576,7 +4915,7 @@
         <v>52</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C40" s="4" t="n">
         <v>2.2719068</v>
@@ -4599,7 +4938,7 @@
         <v>56</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="C41" s="4" t="n">
         <v>2.4505342</v>
@@ -4622,7 +4961,7 @@
         <v>56</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C42" s="4" t="n">
         <v>2.5803136</v>
@@ -4668,7 +5007,7 @@
         <v>60</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C44" s="4" t="n">
         <v>2.4560934</v>
@@ -4691,7 +5030,7 @@
         <v>60</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C45" s="4" t="n">
         <v>2.0923624</v>
@@ -4714,7 +5053,7 @@
         <v>60</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="C46" s="4" t="n">
         <v>2.7843442</v>
@@ -4967,7 +5306,7 @@
         <v>76</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C57" s="4" t="n">
         <v>2.9062288</v>
@@ -5151,7 +5490,7 @@
         <v>87</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="C65" s="4" t="n">
         <v>2.0647184</v>
@@ -5174,7 +5513,7 @@
         <v>87</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="C66" s="4" t="n">
         <v>3.3981744</v>
@@ -5197,7 +5536,7 @@
         <v>87</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="C67" s="4" t="n">
         <v>2.0062282</v>
@@ -5220,7 +5559,7 @@
         <v>91</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C68" s="4" t="n">
         <v>5.4740242</v>
@@ -5243,7 +5582,7 @@
         <v>91</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="C69" s="4" t="n">
         <v>5.0492016</v>
@@ -5381,7 +5720,7 @@
         <v>99</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C75" s="4" t="n">
         <v>2.7314032</v>
@@ -5404,7 +5743,7 @@
         <v>99</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="C76" s="4" t="n">
         <v>2.7375454</v>
@@ -5473,7 +5812,7 @@
         <v>103</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="C79" s="4" t="n">
         <v>2.5848074</v>
@@ -5680,7 +6019,7 @@
         <v>114</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="C88" s="4" t="n">
         <v>1.9251046</v>
@@ -5703,7 +6042,7 @@
         <v>118</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="C89" s="4" t="n">
         <v>2.1296676</v>
@@ -5772,7 +6111,7 @@
         <v>122</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="C92" s="4" t="n">
         <v>2.543308</v>
@@ -5795,7 +6134,7 @@
         <v>122</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="C93" s="4" t="n">
         <v>2.6339666</v>
@@ -5818,7 +6157,7 @@
         <v>122</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="C94" s="4" t="n">
         <v>2.4568346</v>
@@ -5956,7 +6295,7 @@
         <v>127</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C100" s="4" t="n">
         <v>2.403287</v>
@@ -6002,7 +6341,7 @@
         <v>130</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="C102" s="4" t="n">
         <v>3.021798</v>
@@ -6071,7 +6410,7 @@
         <v>134</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="C105" s="4" t="n">
         <v>2.1870164</v>
@@ -6117,7 +6456,7 @@
         <v>135</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C107" s="4" t="n">
         <v>2.208845</v>
@@ -6181,7 +6520,7 @@
         <v>0.979227</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
         <v>138</v>
       </c>
@@ -6204,7 +6543,7 @@
         <v>2.451662</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
         <v>138</v>
       </c>
@@ -6227,7 +6566,7 @@
         <v>2.2264532</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
         <v>138</v>
       </c>
@@ -6250,7 +6589,7 @@
         <v>2.308374</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
         <v>140</v>
       </c>
@@ -6273,7 +6612,7 @@
         <v>1.1261774</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
         <v>140</v>
       </c>
@@ -6296,12 +6635,12 @@
         <v>1.0972762</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
         <v>140</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C115" s="4" t="n">
         <v>2.1219888</v>
@@ -6317,6 +6656,282 @@
       </c>
       <c r="G115" s="4" t="n">
         <v>1.0068614</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C116" s="4" t="n">
+        <v>2.3290526</v>
+      </c>
+      <c r="D116" s="4" t="n">
+        <v>3.8963448</v>
+      </c>
+      <c r="E116" s="4" t="n">
+        <v>1.406634</v>
+      </c>
+      <c r="F116" s="4" t="n">
+        <v>2.3490116</v>
+      </c>
+      <c r="G116" s="4" t="n">
+        <v>1.2004406</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C117" s="4" t="n">
+        <v>2.2562324</v>
+      </c>
+      <c r="D117" s="4" t="n">
+        <v>1.1256858</v>
+      </c>
+      <c r="E117" s="4" t="n">
+        <v>1.2405908</v>
+      </c>
+      <c r="F117" s="4" t="n">
+        <v>2.130574</v>
+      </c>
+      <c r="G117" s="4" t="n">
+        <v>1.0800272</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C118" s="4" t="n">
+        <v>2.4562324</v>
+      </c>
+      <c r="D118" s="4" t="n">
+        <v>1.156858</v>
+      </c>
+      <c r="E118" s="4" t="n">
+        <v>1.205968</v>
+      </c>
+      <c r="F118" s="4" t="n">
+        <v>2.120564</v>
+      </c>
+      <c r="G118" s="4" t="n">
+        <v>1.200252</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C119" s="4" t="n">
+        <v>2.5949094</v>
+      </c>
+      <c r="D119" s="4" t="n">
+        <v>3.742439</v>
+      </c>
+      <c r="E119" s="4" t="n">
+        <v>1.3506474</v>
+      </c>
+      <c r="F119" s="4" t="n">
+        <v>2.3362566</v>
+      </c>
+      <c r="G119" s="4" t="n">
+        <v>1.151784</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C120" s="4" t="n">
+        <v>2.0148352</v>
+      </c>
+      <c r="D120" s="4" t="n">
+        <v>1.0925312</v>
+      </c>
+      <c r="E120" s="4" t="n">
+        <v>1.1598882</v>
+      </c>
+      <c r="F120" s="4" t="n">
+        <v>2.0468968</v>
+      </c>
+      <c r="G120" s="4" t="n">
+        <v>1.1705808</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C121" s="4" t="n">
+        <v>1.9941926</v>
+      </c>
+      <c r="D121" s="4" t="n">
+        <v>1.1790746</v>
+      </c>
+      <c r="E121" s="4" t="n">
+        <v>1.1689302</v>
+      </c>
+      <c r="F121" s="4" t="n">
+        <v>2.3232624</v>
+      </c>
+      <c r="G121" s="4" t="n">
+        <v>3.2686154</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C122" s="4" t="n">
+        <v>2.4594108</v>
+      </c>
+      <c r="D122" s="4" t="n">
+        <v>3.9116662</v>
+      </c>
+      <c r="E122" s="4" t="n">
+        <v>1.4917474</v>
+      </c>
+      <c r="F122" s="4" t="n">
+        <v>2.5057182</v>
+      </c>
+      <c r="G122" s="4" t="n">
+        <v>1.2630424</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C123" s="4" t="n">
+        <v>2.3001484</v>
+      </c>
+      <c r="D123" s="4" t="n">
+        <v>1.2931846</v>
+      </c>
+      <c r="E123" s="4" t="n">
+        <v>1.3434434</v>
+      </c>
+      <c r="F123" s="4" t="n">
+        <v>2.3658658</v>
+      </c>
+      <c r="G123" s="4" t="n">
+        <v>1.2383004</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C124" s="4" t="n">
+        <v>2.426281</v>
+      </c>
+      <c r="D124" s="4" t="n">
+        <v>4.7213112</v>
+      </c>
+      <c r="E124" s="4" t="n">
+        <v>1.3969412</v>
+      </c>
+      <c r="F124" s="4" t="n">
+        <v>2.5182908</v>
+      </c>
+      <c r="G124" s="4" t="n">
+        <v>1.3497206</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C125" s="4" t="n">
+        <v>2.0343828</v>
+      </c>
+      <c r="D125" s="4" t="n">
+        <v>3.7897796</v>
+      </c>
+      <c r="E125" s="4" t="n">
+        <v>1.4402118</v>
+      </c>
+      <c r="F125" s="4" t="n">
+        <v>2.444522</v>
+      </c>
+      <c r="G125" s="4" t="n">
+        <v>1.1209586</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C126" s="4" t="n">
+        <v>2.103657</v>
+      </c>
+      <c r="D126" s="4" t="n">
+        <v>1.4591422</v>
+      </c>
+      <c r="E126" s="4" t="n">
+        <v>1.2765984</v>
+      </c>
+      <c r="F126" s="4" t="n">
+        <v>2.1483914</v>
+      </c>
+      <c r="G126" s="4" t="n">
+        <v>1.172806</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C127" s="4" t="n">
+        <v>2.2297076</v>
+      </c>
+      <c r="D127" s="4" t="n">
+        <v>1.1706382</v>
+      </c>
+      <c r="E127" s="4" t="n">
+        <v>1.230461</v>
+      </c>
+      <c r="F127" s="4" t="n">
+        <v>2.3234192</v>
+      </c>
+      <c r="G127" s="4" t="n">
+        <v>1.1346302</v>
       </c>
     </row>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -6346,8 +6961,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A102" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D109" activeCellId="0" sqref="D109"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D109" activeCellId="1" sqref="127:127 D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6390,7 +7005,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>0.7804054</v>
@@ -6413,7 +7028,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>0.7779802</v>
@@ -6436,7 +7051,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>0.7043458</v>
@@ -6459,7 +7074,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>0.7145706</v>
@@ -6528,7 +7143,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>0.6280168</v>
@@ -6574,7 +7189,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>0.7373706</v>
@@ -6620,7 +7235,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>0.7234852</v>
@@ -6712,7 +7327,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>0.3510038</v>
@@ -6735,7 +7350,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C17" s="4" t="n">
         <v>0.5421752</v>
@@ -6758,7 +7373,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="C18" s="4" t="n">
         <v>0.5591408</v>
@@ -6781,7 +7396,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="C19" s="4" t="n">
         <v>0.5551518</v>
@@ -6873,7 +7488,7 @@
         <v>35</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="C23" s="4" t="n">
         <v>0.9795414</v>
@@ -6896,7 +7511,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>3.7305486</v>
@@ -6919,7 +7534,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="C25" s="4" t="n">
         <v>2.3842444</v>
@@ -6942,7 +7557,7 @@
         <v>35</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="C26" s="4" t="n">
         <v>2.139728</v>
@@ -6965,7 +7580,7 @@
         <v>35</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="C27" s="4" t="n">
         <v>0.7112716</v>
@@ -6988,7 +7603,7 @@
         <v>35</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="C28" s="4" t="n">
         <v>0.67812</v>
@@ -7034,7 +7649,7 @@
         <v>42</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>0.712753</v>
@@ -7057,7 +7672,7 @@
         <v>42</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="C31" s="4" t="n">
         <v>0.630812</v>
@@ -7103,7 +7718,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="C33" s="4" t="n">
         <v>0.7013216</v>
@@ -7172,7 +7787,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>0.7043458</v>
@@ -7195,7 +7810,7 @@
         <v>49</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="C37" s="4" t="n">
         <v>0.7145706</v>
@@ -7218,7 +7833,7 @@
         <v>52</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>1.2584274</v>
@@ -7241,7 +7856,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="C39" s="4" t="n">
         <v>1.3856258</v>
@@ -7264,7 +7879,7 @@
         <v>52</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="C40" s="4" t="n">
         <v>1.1413118</v>
@@ -7287,7 +7902,7 @@
         <v>56</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="C41" s="4" t="n">
         <v>2.0516946</v>
@@ -7356,7 +7971,7 @@
         <v>60</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="C44" s="4" t="n">
         <v>0.7883284</v>
@@ -7402,7 +8017,7 @@
         <v>60</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="C46" s="4" t="n">
         <v>0.6814198</v>
@@ -7517,7 +8132,7 @@
         <v>68</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="C51" s="4" t="n">
         <v>1.4049502</v>
@@ -7563,7 +8178,7 @@
         <v>72</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="C53" s="4" t="n">
         <v>0.9897652</v>
@@ -7632,7 +8247,7 @@
         <v>76</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="C56" s="4" t="n">
         <v>1.2353042</v>
@@ -7678,7 +8293,7 @@
         <v>76</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="C58" s="4" t="n">
         <v>1.2364662</v>
@@ -7724,7 +8339,7 @@
         <v>80</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="C60" s="4" t="n">
         <v>1.1438926</v>
@@ -7747,7 +8362,7 @@
         <v>80</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="C61" s="4" t="n">
         <v>0.6579276</v>
@@ -7839,7 +8454,7 @@
         <v>87</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="C65" s="4" t="n">
         <v>1.8978822</v>
@@ -7862,7 +8477,7 @@
         <v>87</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="C66" s="4" t="n">
         <v>1.1060998</v>
@@ -7885,7 +8500,7 @@
         <v>87</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="C67" s="4" t="n">
         <v>1.6069744</v>
@@ -7908,7 +8523,7 @@
         <v>91</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="C68" s="4" t="n">
         <v>1.6301784</v>
@@ -7931,7 +8546,7 @@
         <v>91</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="C69" s="4" t="n">
         <v>1.5682082</v>
@@ -7954,7 +8569,7 @@
         <v>91</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="C70" s="4" t="n">
         <v>1.4442308</v>
@@ -8092,7 +8707,7 @@
         <v>99</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C76" s="4" t="n">
         <v>1.1822766</v>
@@ -8161,7 +8776,7 @@
         <v>103</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C79" s="4" t="n">
         <v>1.573159</v>
@@ -8253,7 +8868,7 @@
         <v>110</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="C83" s="4" t="n">
         <v>1.0064424</v>
@@ -8460,7 +9075,7 @@
         <v>122</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="C92" s="4" t="n">
         <v>1.5482428</v>
@@ -8483,7 +9098,7 @@
         <v>122</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="C93" s="4" t="n">
         <v>1.8137892</v>
@@ -8506,7 +9121,7 @@
         <v>122</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="C94" s="4" t="n">
         <v>1.6058992</v>
@@ -8529,7 +9144,7 @@
         <v>123</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="C95" s="4" t="n">
         <v>1.305882</v>
@@ -8575,7 +9190,7 @@
         <v>123</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="C97" s="4" t="n">
         <v>1.4182292</v>
@@ -8667,7 +9282,7 @@
         <v>130</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="C101" s="4" t="n">
         <v>1.2684794</v>
@@ -8759,7 +9374,7 @@
         <v>134</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="C105" s="4" t="n">
         <v>0.606726</v>
@@ -8805,7 +9420,7 @@
         <v>135</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="C107" s="4" t="n">
         <v>1.295247</v>
@@ -8828,7 +9443,7 @@
         <v>135</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="C108" s="4" t="n">
         <v>1.22489</v>
@@ -8851,7 +9466,7 @@
         <v>135</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="C109" s="4" t="n">
         <v>1.1823422</v>
@@ -8869,12 +9484,12 @@
         <v>1.294694</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
         <v>138</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="C110" s="4" t="n">
         <v>1.1176918</v>
@@ -8892,7 +9507,7 @@
         <v>1.223688</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
         <v>138</v>
       </c>
@@ -8915,7 +9530,7 @@
         <v>1.4283492</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
         <v>138</v>
       </c>
@@ -8938,7 +9553,7 @@
         <v>1.3205608</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
         <v>140</v>
       </c>
@@ -8961,12 +9576,12 @@
         <v>0.8266632</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
         <v>140</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C114" s="4" t="n">
         <v>0.5937896</v>
@@ -8984,7 +9599,7 @@
         <v>0.6733412</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
         <v>140</v>
       </c>
@@ -9005,6 +9620,282 @@
       </c>
       <c r="G115" s="4" t="n">
         <v>0.6327592</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C116" s="4" t="n">
+        <v>0.6257974</v>
+      </c>
+      <c r="D116" s="4" t="n">
+        <v>0.8024842</v>
+      </c>
+      <c r="E116" s="4" t="n">
+        <v>1.351921</v>
+      </c>
+      <c r="F116" s="4" t="n">
+        <v>1.6086032</v>
+      </c>
+      <c r="G116" s="4" t="n">
+        <v>0.661852</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C117" s="4" t="n">
+        <v>0.5636324</v>
+      </c>
+      <c r="D117" s="4" t="n">
+        <v>2.946463</v>
+      </c>
+      <c r="E117" s="4" t="n">
+        <v>0.7096274</v>
+      </c>
+      <c r="F117" s="4" t="n">
+        <v>1.4021492</v>
+      </c>
+      <c r="G117" s="4" t="n">
+        <v>0.683747</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C118" s="4" t="n">
+        <v>0.6148816</v>
+      </c>
+      <c r="D118" s="4" t="n">
+        <v>0.7301186</v>
+      </c>
+      <c r="E118" s="4" t="n">
+        <v>0.6993684</v>
+      </c>
+      <c r="F118" s="4" t="n">
+        <v>1.3787188</v>
+      </c>
+      <c r="G118" s="4" t="n">
+        <v>0.8201428</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C119" s="4" t="n">
+        <v>0.8084102</v>
+      </c>
+      <c r="D119" s="4" t="n">
+        <v>0.781978</v>
+      </c>
+      <c r="E119" s="4" t="n">
+        <v>0.7749378</v>
+      </c>
+      <c r="F119" s="4" t="n">
+        <v>1.2962526</v>
+      </c>
+      <c r="G119" s="4" t="n">
+        <v>0.6460216</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C120" s="4" t="n">
+        <v>0.6780972</v>
+      </c>
+      <c r="D120" s="4" t="n">
+        <v>0.8027514</v>
+      </c>
+      <c r="E120" s="4" t="n">
+        <v>0.7368156</v>
+      </c>
+      <c r="F120" s="4" t="n">
+        <v>1.3863972</v>
+      </c>
+      <c r="G120" s="4" t="n">
+        <v>0.748697</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C121" s="4" t="n">
+        <v>0.5689302</v>
+      </c>
+      <c r="D121" s="4" t="n">
+        <v>0.7644222</v>
+      </c>
+      <c r="E121" s="4" t="n">
+        <v>0.7696366</v>
+      </c>
+      <c r="F121" s="4" t="n">
+        <v>1.4721788</v>
+      </c>
+      <c r="G121" s="4" t="n">
+        <v>0.9162552</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C122" s="4" t="n">
+        <v>1.0674126</v>
+      </c>
+      <c r="D122" s="4" t="n">
+        <v>1.3308</v>
+      </c>
+      <c r="E122" s="4" t="n">
+        <v>1.3737196</v>
+      </c>
+      <c r="F122" s="4" t="n">
+        <v>2.0970562</v>
+      </c>
+      <c r="G122" s="4" t="n">
+        <v>1.261324</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C123" s="4" t="n">
+        <v>1.0486638</v>
+      </c>
+      <c r="D123" s="4" t="n">
+        <v>2.8252044</v>
+      </c>
+      <c r="E123" s="4" t="n">
+        <v>1.5230716</v>
+      </c>
+      <c r="F123" s="4" t="n">
+        <v>2.0135886</v>
+      </c>
+      <c r="G123" s="4" t="n">
+        <v>1.6916426</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C124" s="4" t="n">
+        <v>1.086944</v>
+      </c>
+      <c r="D124" s="4" t="n">
+        <v>1.295828</v>
+      </c>
+      <c r="E124" s="4" t="n">
+        <v>1.4946798</v>
+      </c>
+      <c r="F124" s="4" t="n">
+        <v>2.1279958</v>
+      </c>
+      <c r="G124" s="4" t="n">
+        <v>1.3292072</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C125" s="4" t="n">
+        <v>0.7197022</v>
+      </c>
+      <c r="D125" s="4" t="n">
+        <v>0.9799596</v>
+      </c>
+      <c r="E125" s="4" t="n">
+        <v>0.82926</v>
+      </c>
+      <c r="F125" s="4" t="n">
+        <v>1.5863342</v>
+      </c>
+      <c r="G125" s="4" t="n">
+        <v>0.9186484</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C126" s="4" t="n">
+        <v>0.6197108</v>
+      </c>
+      <c r="D126" s="4" t="n">
+        <v>0.7760292</v>
+      </c>
+      <c r="E126" s="4" t="n">
+        <v>0.804785</v>
+      </c>
+      <c r="F126" s="4" t="n">
+        <v>1.5094612</v>
+      </c>
+      <c r="G126" s="4" t="n">
+        <v>0.8360762</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C127" s="4" t="n">
+        <v>0.6199604</v>
+      </c>
+      <c r="D127" s="4" t="n">
+        <v>0.756557</v>
+      </c>
+      <c r="E127" s="4" t="n">
+        <v>0.8969664</v>
+      </c>
+      <c r="F127" s="4" t="n">
+        <v>1.77522</v>
+      </c>
+      <c r="G127" s="4" t="n">
+        <v>0.9508644</v>
       </c>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -9030,8 +9921,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A102" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C117" activeCellId="0" sqref="C117"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A111" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A127" activeCellId="0" sqref="127:127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9074,7 +9965,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>3.4656902</v>
@@ -9097,7 +9988,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>4.0852622</v>
@@ -9120,7 +10011,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>2.9817282</v>
@@ -9143,7 +10034,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>3.2355116</v>
@@ -9212,7 +10103,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>3.7434734</v>
@@ -9235,7 +10126,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>3.5561424</v>
@@ -9258,7 +10149,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>3.2355472</v>
@@ -9281,7 +10172,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>3.8741284</v>
@@ -9304,7 +10195,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>3.5923944</v>
@@ -9373,7 +10264,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>3.0850886</v>
@@ -9396,7 +10287,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>4.2818632</v>
@@ -9419,7 +10310,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C17" s="4" t="n">
         <v>3.5103138</v>
@@ -9442,7 +10333,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="C18" s="4" t="n">
         <v>3.5907182</v>
@@ -9465,7 +10356,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="C19" s="4" t="n">
         <v>2.8087598</v>
@@ -9488,7 +10379,7 @@
         <v>31</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="C20" s="4" t="n">
         <v>3.0989676</v>
@@ -9511,7 +10402,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="C21" s="4" t="n">
         <v>2.9089418</v>
@@ -9580,7 +10471,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>3.6907394</v>
@@ -9626,7 +10517,7 @@
         <v>35</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="C26" s="4" t="n">
         <v>3.822524</v>
@@ -9649,7 +10540,7 @@
         <v>35</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="C27" s="4" t="n">
         <v>3.2866498</v>
@@ -9672,7 +10563,7 @@
         <v>35</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="C28" s="4" t="n">
         <v>3.8178666</v>
@@ -9718,7 +10609,7 @@
         <v>42</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>3.0702744</v>
@@ -9741,7 +10632,7 @@
         <v>42</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="C31" s="4" t="n">
         <v>3.1279612</v>
@@ -9787,7 +10678,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="C33" s="4" t="n">
         <v>3.6235082</v>
@@ -9810,7 +10701,7 @@
         <v>46</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="C34" s="4" t="n">
         <v>2.9263998</v>
@@ -9833,7 +10724,7 @@
         <v>49</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="C35" s="4" t="n">
         <v>2.9817282</v>
@@ -9856,7 +10747,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>3.2355116</v>
@@ -9902,7 +10793,7 @@
         <v>52</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>4.4183598</v>
@@ -9925,7 +10816,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="C39" s="4" t="n">
         <v>4.2271066</v>
@@ -9948,7 +10839,7 @@
         <v>52</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="C40" s="4" t="n">
         <v>4.3486802</v>
@@ -9994,7 +10885,7 @@
         <v>56</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="C42" s="4" t="n">
         <v>3.6324914</v>
@@ -10040,7 +10931,7 @@
         <v>60</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="C44" s="4" t="n">
         <v>3.8775138</v>
@@ -10086,7 +10977,7 @@
         <v>60</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="C46" s="4" t="n">
         <v>3.8538836</v>
@@ -10201,7 +11092,7 @@
         <v>68</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="C51" s="4" t="n">
         <v>4.7661336</v>
@@ -10224,7 +11115,7 @@
         <v>68</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C52" s="4" t="n">
         <v>4.1553188</v>
@@ -10247,7 +11138,7 @@
         <v>72</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="C53" s="4" t="n">
         <v>4.4161086</v>
@@ -10270,7 +11161,7 @@
         <v>72</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="C54" s="4" t="n">
         <v>3.9109934</v>
@@ -10293,7 +11184,7 @@
         <v>72</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="C55" s="4" t="n">
         <v>3.9109934</v>
@@ -10316,7 +11207,7 @@
         <v>76</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="C56" s="4" t="n">
         <v>3.4861618</v>
@@ -10362,7 +11253,7 @@
         <v>76</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="C58" s="4" t="n">
         <v>3.52287</v>
@@ -10523,7 +11414,7 @@
         <v>87</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="C65" s="4" t="n">
         <v>3.2117386</v>
@@ -10546,7 +11437,7 @@
         <v>87</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="C66" s="4" t="n">
         <v>4.0686228</v>
@@ -10569,7 +11460,7 @@
         <v>87</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="C67" s="4" t="n">
         <v>3.0381616</v>
@@ -10592,7 +11483,7 @@
         <v>91</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="C68" s="4" t="n">
         <v>3.9888114</v>
@@ -10615,7 +11506,7 @@
         <v>91</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="C69" s="4" t="n">
         <v>4.1137066</v>
@@ -10638,7 +11529,7 @@
         <v>91</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="C70" s="4" t="n">
         <v>4.983335</v>
@@ -10776,7 +11667,7 @@
         <v>99</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="C76" s="4" t="n">
         <v>4.5492628</v>
@@ -10845,7 +11736,7 @@
         <v>103</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="C79" s="4" t="n">
         <v>4.5622134</v>
@@ -10937,7 +11828,7 @@
         <v>110</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="C83" s="4" t="n">
         <v>3.860828</v>
@@ -11121,7 +12012,7 @@
         <v>118</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="C91" s="4" t="n">
         <v>3.8848404</v>
@@ -11167,7 +12058,7 @@
         <v>122</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="C93" s="4" t="n">
         <v>4.559301</v>
@@ -11213,7 +12104,7 @@
         <v>123</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="C95" s="4" t="n">
         <v>3.720101</v>
@@ -11259,7 +12150,7 @@
         <v>123</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="C97" s="4" t="n">
         <v>3.7013772</v>
@@ -11328,7 +12219,7 @@
         <v>127</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="C100" s="4" t="n">
         <v>4.1470936</v>
@@ -11351,7 +12242,7 @@
         <v>130</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="C101" s="4" t="n">
         <v>4.5941812</v>
@@ -11397,7 +12288,7 @@
         <v>130</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="C103" s="4" t="n">
         <v>4.2355866</v>
@@ -11443,7 +12334,7 @@
         <v>134</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="C105" s="4" t="n">
         <v>3.7619086</v>
@@ -11489,7 +12380,7 @@
         <v>135</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="C107" s="4" t="n">
         <v>3.9397008</v>
@@ -11512,7 +12403,7 @@
         <v>135</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="C108" s="4" t="n">
         <v>3.8446282</v>
@@ -11535,7 +12426,7 @@
         <v>135</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="C109" s="4" t="n">
         <v>3.6811188</v>
@@ -11553,12 +12444,12 @@
         <v>1.8786048</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
         <v>138</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="C110" s="4" t="n">
         <v>4.0021732</v>
@@ -11576,7 +12467,7 @@
         <v>2.044639</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
         <v>138</v>
       </c>
@@ -11599,7 +12490,7 @@
         <v>2.0026626</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
         <v>138</v>
       </c>
@@ -11622,7 +12513,7 @@
         <v>2.2362378</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
         <v>140</v>
       </c>
@@ -11645,7 +12536,7 @@
         <v>1.0965118</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
         <v>140</v>
       </c>
@@ -11689,6 +12580,282 @@
       </c>
       <c r="G115" s="4" t="n">
         <v>2.6566656</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C116" s="4" t="n">
+        <v>3.6724544</v>
+      </c>
+      <c r="D116" s="4" t="n">
+        <v>2.4014178</v>
+      </c>
+      <c r="E116" s="4" t="n">
+        <v>1.6610472</v>
+      </c>
+      <c r="F116" s="4" t="n">
+        <v>2.4856604</v>
+      </c>
+      <c r="G116" s="4" t="n">
+        <v>1.390813</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C117" s="4" t="n">
+        <v>3.9349018</v>
+      </c>
+      <c r="D117" s="4" t="n">
+        <v>1.6071996</v>
+      </c>
+      <c r="E117" s="4" t="n">
+        <v>1.7491442</v>
+      </c>
+      <c r="F117" s="4" t="n">
+        <v>2.7623446</v>
+      </c>
+      <c r="G117" s="4" t="n">
+        <v>1.4508176</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C118" s="4" t="n">
+        <v>3.7854794</v>
+      </c>
+      <c r="D118" s="4" t="n">
+        <v>1.8815332</v>
+      </c>
+      <c r="E118" s="4" t="n">
+        <v>1.7512158</v>
+      </c>
+      <c r="F118" s="4" t="n">
+        <v>2.9255958</v>
+      </c>
+      <c r="G118" s="4" t="n">
+        <v>1.0352886</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C119" s="4" t="n">
+        <v>4.0520074</v>
+      </c>
+      <c r="D119" s="4" t="n">
+        <v>2.5138624</v>
+      </c>
+      <c r="E119" s="4" t="n">
+        <v>5.7244108</v>
+      </c>
+      <c r="F119" s="4" t="n">
+        <v>7.0855886</v>
+      </c>
+      <c r="G119" s="4" t="n">
+        <v>1.187051</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C120" s="4" t="n">
+        <v>4.0731762</v>
+      </c>
+      <c r="D120" s="4" t="n">
+        <v>1.6316388</v>
+      </c>
+      <c r="E120" s="4" t="n">
+        <v>1.8969006</v>
+      </c>
+      <c r="F120" s="4" t="n">
+        <v>2.3379128</v>
+      </c>
+      <c r="G120" s="4" t="n">
+        <v>1.160484</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C121" s="4" t="n">
+        <v>3.7466574</v>
+      </c>
+      <c r="D121" s="4" t="n">
+        <v>1.3694122</v>
+      </c>
+      <c r="E121" s="4" t="n">
+        <v>1.5519594</v>
+      </c>
+      <c r="F121" s="4" t="n">
+        <v>2.5452296</v>
+      </c>
+      <c r="G121" s="4" t="n">
+        <v>1.3065656</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C122" s="4" t="n">
+        <v>4.3859274</v>
+      </c>
+      <c r="D122" s="4" t="n">
+        <v>2.7055608</v>
+      </c>
+      <c r="E122" s="4" t="n">
+        <v>2.2043442</v>
+      </c>
+      <c r="F122" s="4" t="n">
+        <v>3.6149228</v>
+      </c>
+      <c r="G122" s="4" t="n">
+        <v>3.2013158</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C123" s="4" t="n">
+        <v>4.1373178</v>
+      </c>
+      <c r="D123" s="4" t="n">
+        <v>2.2097034</v>
+      </c>
+      <c r="E123" s="4" t="n">
+        <v>2.0135616</v>
+      </c>
+      <c r="F123" s="4" t="n">
+        <v>3.3800898</v>
+      </c>
+      <c r="G123" s="4" t="n">
+        <v>1.711659</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C124" s="4" t="n">
+        <v>3.986907</v>
+      </c>
+      <c r="D124" s="4" t="n">
+        <v>2.4328986</v>
+      </c>
+      <c r="E124" s="4" t="n">
+        <v>2.6158812</v>
+      </c>
+      <c r="F124" s="4" t="n">
+        <v>3.3358576</v>
+      </c>
+      <c r="G124" s="4" t="n">
+        <v>1.9736106</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C125" s="4" t="n">
+        <v>3.64082</v>
+      </c>
+      <c r="D125" s="4" t="n">
+        <v>2.3146822</v>
+      </c>
+      <c r="E125" s="4" t="n">
+        <v>1.688344</v>
+      </c>
+      <c r="F125" s="4" t="n">
+        <v>3.0171088</v>
+      </c>
+      <c r="G125" s="4" t="n">
+        <v>1.6750746</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C126" s="4" t="n">
+        <v>3.6994948</v>
+      </c>
+      <c r="D126" s="4" t="n">
+        <v>1.757806</v>
+      </c>
+      <c r="E126" s="4" t="n">
+        <v>1.773838</v>
+      </c>
+      <c r="F126" s="4" t="n">
+        <v>2.9424002</v>
+      </c>
+      <c r="G126" s="4" t="n">
+        <v>1.6971936</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C127" s="4" t="n">
+        <v>3.2168624</v>
+      </c>
+      <c r="D127" s="4" t="n">
+        <v>1.7367816</v>
+      </c>
+      <c r="E127" s="4" t="n">
+        <v>1.7134172</v>
+      </c>
+      <c r="F127" s="4" t="n">
+        <v>2.8474092</v>
+      </c>
+      <c r="G127" s="4" t="n">
+        <v>1.4834408</v>
       </c>
     </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Output Data/Crpo/Common_folder/Performance/Performance_testing.xlsx
+++ b/Output Data/Crpo/Common_folder/Performance/Performance_testing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="AMSIN_NON_EU" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2896" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2920" uniqueCount="615">
   <si>
     <t xml:space="preserve">Run Number</t>
   </si>
@@ -1235,6 +1235,9 @@
   </si>
   <si>
     <t xml:space="preserve">03:23:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-29</t>
   </si>
   <si>
     <t xml:space="preserve">07:41:PM</t>
@@ -2079,7 +2082,7 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A334" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A338" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H358" activeCellId="0" sqref="H358"/>
     </sheetView>
   </sheetViews>
@@ -11777,7 +11780,7 @@
       <c r="I356" s="1"/>
       <c r="J356" s="1"/>
     </row>
-    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="n">
         <v>355</v>
       </c>
@@ -11805,7 +11808,7 @@
       <c r="I357" s="1"/>
       <c r="J357" s="1"/>
     </row>
-    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="n">
         <v>356</v>
       </c>
@@ -11833,7 +11836,7 @@
       <c r="I358" s="1"/>
       <c r="J358" s="1"/>
     </row>
-    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="n">
         <v>357</v>
       </c>
@@ -11860,6 +11863,90 @@
       </c>
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
+    </row>
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D360" s="1" t="n">
+        <v>0.4385838</v>
+      </c>
+      <c r="E360" s="1" t="n">
+        <v>0.4040462</v>
+      </c>
+      <c r="F360" s="1" t="n">
+        <v>0.3881864</v>
+      </c>
+      <c r="G360" s="1" t="n">
+        <v>1.8563688</v>
+      </c>
+      <c r="H360" s="1" t="n">
+        <v>0.4606374</v>
+      </c>
+      <c r="I360" s="1"/>
+      <c r="J360" s="1"/>
+    </row>
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D361" s="1" t="n">
+        <v>0.452218</v>
+      </c>
+      <c r="E361" s="1" t="n">
+        <v>0.4851798</v>
+      </c>
+      <c r="F361" s="1" t="n">
+        <v>0.4092462</v>
+      </c>
+      <c r="G361" s="1" t="n">
+        <v>1.5060068</v>
+      </c>
+      <c r="H361" s="1" t="n">
+        <v>0.4519288</v>
+      </c>
+      <c r="I361" s="1"/>
+      <c r="J361" s="1"/>
+    </row>
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D362" s="1" t="n">
+        <v>0.4406264</v>
+      </c>
+      <c r="E362" s="1" t="n">
+        <v>0.5096558</v>
+      </c>
+      <c r="F362" s="1" t="n">
+        <v>0.5569344</v>
+      </c>
+      <c r="G362" s="1" t="n">
+        <v>1.9599664</v>
+      </c>
+      <c r="H362" s="1" t="n">
+        <v>0.5158456</v>
+      </c>
+      <c r="I362" s="1"/>
+      <c r="J362" s="1"/>
     </row>
     <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -11901,7 +11988,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A339" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G362" activeCellId="0" sqref="G362"/>
+      <selection pane="topLeft" activeCell="E363" activeCellId="0" sqref="E363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11952,7 +12039,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>2.0220664</v>
@@ -11978,7 +12065,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>2.4586498</v>
@@ -12134,7 +12221,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>2.1589454</v>
@@ -12160,7 +12247,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>2.0390428</v>
@@ -12212,7 +12299,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>1.9875636</v>
@@ -12290,7 +12377,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>2.1964826</v>
@@ -12524,7 +12611,7 @@
         <v>36</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>2.6861386</v>
@@ -12576,7 +12663,7 @@
         <v>36</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>2.330873</v>
@@ -12602,7 +12689,7 @@
         <v>36</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>2.4523078</v>
@@ -12628,7 +12715,7 @@
         <v>36</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>2.3690538</v>
@@ -12680,7 +12767,7 @@
         <v>43</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>2.3269536</v>
@@ -12914,7 +13001,7 @@
         <v>53</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>2.569399</v>
@@ -12940,7 +13027,7 @@
         <v>53</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>2.2719068</v>
@@ -12992,7 +13079,7 @@
         <v>57</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>2.5803136</v>
@@ -13044,7 +13131,7 @@
         <v>61</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>2.4560934</v>
@@ -13096,7 +13183,7 @@
         <v>61</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>2.7843442</v>
@@ -13382,7 +13469,7 @@
         <v>77</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D57" s="1" t="n">
         <v>2.9062288</v>
@@ -13668,7 +13755,7 @@
         <v>92</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D68" s="1" t="n">
         <v>5.4740242</v>
@@ -13694,7 +13781,7 @@
         <v>92</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D69" s="1" t="n">
         <v>5.0492016</v>
@@ -13850,7 +13937,7 @@
         <v>100</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D75" s="1" t="n">
         <v>2.7314032</v>
@@ -13876,7 +13963,7 @@
         <v>100</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D76" s="1" t="n">
         <v>2.7375454</v>
@@ -14188,7 +14275,7 @@
         <v>115</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D88" s="1" t="n">
         <v>1.9251046</v>
@@ -14318,7 +14405,7 @@
         <v>123</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D93" s="1" t="n">
         <v>2.6339666</v>
@@ -14344,7 +14431,7 @@
         <v>123</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D94" s="1" t="n">
         <v>2.4568346</v>
@@ -14500,7 +14587,7 @@
         <v>128</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D100" s="1" t="n">
         <v>2.403287</v>
@@ -14682,7 +14769,7 @@
         <v>136</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D107" s="1" t="n">
         <v>2.208845</v>
@@ -14890,7 +14977,7 @@
         <v>141</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D115" s="1" t="n">
         <v>2.1219888</v>
@@ -14994,7 +15081,7 @@
         <v>149</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D119" s="1" t="n">
         <v>2.5949094</v>
@@ -15046,7 +15133,7 @@
         <v>149</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D121" s="1" t="n">
         <v>1.9941926</v>
@@ -15072,7 +15159,7 @@
         <v>153</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D122" s="1" t="n">
         <v>2.4594108</v>
@@ -15280,7 +15367,7 @@
         <v>161</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D130" s="1" t="n">
         <v>1.9619838</v>
@@ -15358,7 +15445,7 @@
         <v>166</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D133" s="1" t="n">
         <v>1.8671148</v>
@@ -15730,7 +15817,7 @@
         <v>181</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D147" s="1" t="n">
         <v>3.166509</v>
@@ -15758,7 +15845,7 @@
         <v>181</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D148" s="1" t="n">
         <v>3.119118</v>
@@ -15786,7 +15873,7 @@
         <v>181</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D149" s="1" t="n">
         <v>2.901321</v>
@@ -16290,7 +16377,7 @@
         <v>204</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D167" s="1" t="n">
         <v>1.8280256</v>
@@ -16402,7 +16489,7 @@
         <v>208</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D171" s="1" t="n">
         <v>3.5371194</v>
@@ -16486,7 +16573,7 @@
         <v>212</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D174" s="1" t="n">
         <v>1.8331202</v>
@@ -16542,7 +16629,7 @@
         <v>212</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D176" s="1" t="n">
         <v>1.8676058</v>
@@ -16570,7 +16657,7 @@
         <v>212</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D177" s="1" t="n">
         <v>1.8565564</v>
@@ -16598,7 +16685,7 @@
         <v>212</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D178" s="1" t="n">
         <v>1.971548</v>
@@ -16626,7 +16713,7 @@
         <v>212</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D179" s="1" t="n">
         <v>1.8706844</v>
@@ -16682,7 +16769,7 @@
         <v>223</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D181" s="1" t="n">
         <v>5.40063</v>
@@ -16710,7 +16797,7 @@
         <v>224</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D182" s="1" t="n">
         <v>5.4141288</v>
@@ -16738,7 +16825,7 @@
         <v>224</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D183" s="1" t="n">
         <v>3.5907054</v>
@@ -16766,7 +16853,7 @@
         <v>224</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D184" s="1" t="n">
         <v>5.850038</v>
@@ -16906,7 +16993,7 @@
         <v>231</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D189" s="1" t="n">
         <v>3.4026254</v>
@@ -16934,7 +17021,7 @@
         <v>231</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D190" s="1" t="n">
         <v>4.1027616</v>
@@ -17018,7 +17105,7 @@
         <v>235</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D193" s="1" t="n">
         <v>3.3968766</v>
@@ -17074,7 +17161,7 @@
         <v>238</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D195" s="1" t="n">
         <v>3.509683</v>
@@ -17130,7 +17217,7 @@
         <v>242</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D197" s="1" t="n">
         <v>2.5360378</v>
@@ -17158,7 +17245,7 @@
         <v>242</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D198" s="1" t="n">
         <v>3.464471</v>
@@ -17242,7 +17329,7 @@
         <v>245</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D201" s="1" t="n">
         <v>3.7638234</v>
@@ -17270,7 +17357,7 @@
         <v>245</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D202" s="1" t="n">
         <v>3.3836568</v>
@@ -17466,7 +17553,7 @@
         <v>259</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D209" s="1" t="n">
         <v>3.5728318</v>
@@ -17656,7 +17743,7 @@
         <v>263</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D216" s="1" t="n">
         <v>4.0429436</v>
@@ -17768,7 +17855,7 @@
         <v>267</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D220" s="1" t="n">
         <v>0.8299536</v>
@@ -17852,7 +17939,7 @@
         <v>271</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D223" s="1" t="n">
         <v>1.1506692</v>
@@ -18020,7 +18107,7 @@
         <v>278</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D229" s="1" t="n">
         <v>1.5232918</v>
@@ -18048,7 +18135,7 @@
         <v>278</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D230" s="1" t="n">
         <v>0.994806</v>
@@ -18076,7 +18163,7 @@
         <v>281</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D231" s="1" t="n">
         <v>1.552873</v>
@@ -18104,7 +18191,7 @@
         <v>281</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D232" s="1" t="n">
         <v>1.2558504</v>
@@ -18132,7 +18219,7 @@
         <v>281</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D233" s="1" t="n">
         <v>1.0213794</v>
@@ -18160,7 +18247,7 @@
         <v>284</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D234" s="1" t="n">
         <v>1.6652852</v>
@@ -18188,7 +18275,7 @@
         <v>284</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D235" s="1" t="n">
         <v>1.243835</v>
@@ -18216,7 +18303,7 @@
         <v>284</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D236" s="1" t="n">
         <v>1.3231242</v>
@@ -18244,7 +18331,7 @@
         <v>287</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D237" s="1" t="n">
         <v>2.7850712</v>
@@ -18272,7 +18359,7 @@
         <v>287</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D238" s="1" t="n">
         <v>1.16294</v>
@@ -18384,7 +18471,7 @@
         <v>290</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D242" s="1" t="n">
         <v>1.1442586</v>
@@ -18468,7 +18555,7 @@
         <v>293</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D245" s="1" t="n">
         <v>1.0933622</v>
@@ -18496,7 +18583,7 @@
         <v>297</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D246" s="1" t="n">
         <v>1.237047</v>
@@ -18524,7 +18611,7 @@
         <v>297</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D247" s="1" t="n">
         <v>1.0054706</v>
@@ -18580,7 +18667,7 @@
         <v>301</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D249" s="1" t="n">
         <v>1.1073458</v>
@@ -18636,7 +18723,7 @@
         <v>301</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D251" s="1" t="n">
         <v>1.222255</v>
@@ -18692,7 +18779,7 @@
         <v>305</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D253" s="1" t="n">
         <v>1.2915912</v>
@@ -18720,7 +18807,7 @@
         <v>305</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D254" s="1" t="n">
         <v>1.4755444</v>
@@ -18804,7 +18891,7 @@
         <v>309</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D257" s="1" t="n">
         <v>1.6525032</v>
@@ -18832,7 +18919,7 @@
         <v>313</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D258" s="1" t="n">
         <v>1.4030888</v>
@@ -18860,7 +18947,7 @@
         <v>313</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D259" s="1" t="n">
         <v>1.7073458</v>
@@ -18916,7 +19003,7 @@
         <v>315</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D261" s="1" t="n">
         <v>1.2533678</v>
@@ -18944,7 +19031,7 @@
         <v>315</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D262" s="1" t="n">
         <v>1.0722906</v>
@@ -18972,7 +19059,7 @@
         <v>315</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D263" s="1" t="n">
         <v>1.609837</v>
@@ -19028,7 +19115,7 @@
         <v>319</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D265" s="1" t="n">
         <v>0.77692</v>
@@ -19196,7 +19283,7 @@
         <v>325</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D271" s="1" t="n">
         <v>1.0228846</v>
@@ -19308,7 +19395,7 @@
         <v>327</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D275" s="1" t="n">
         <v>1.1446152</v>
@@ -19392,7 +19479,7 @@
         <v>328</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D278" s="1" t="n">
         <v>1.5527048</v>
@@ -19420,7 +19507,7 @@
         <v>329</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D279" s="1" t="n">
         <v>1.4303816</v>
@@ -19504,7 +19591,7 @@
         <v>332</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D282" s="1" t="n">
         <v>2.0393262</v>
@@ -19756,7 +19843,7 @@
         <v>343</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D291" s="1" t="n">
         <v>1.0106018</v>
@@ -20064,7 +20151,7 @@
         <v>349</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D302" s="1" t="n">
         <v>1.0508514</v>
@@ -20260,7 +20347,7 @@
         <v>359</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D309" s="1" t="n">
         <v>0.9645174</v>
@@ -20400,7 +20487,7 @@
         <v>361</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D314" s="1" t="n">
         <v>1.0889602</v>
@@ -20428,7 +20515,7 @@
         <v>363</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D315" s="1" t="n">
         <v>1.0836156</v>
@@ -20454,7 +20541,7 @@
         <v>363</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D316" s="1" t="n">
         <v>1.1278328</v>
@@ -20480,7 +20567,7 @@
         <v>363</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D317" s="1" t="n">
         <v>1.0575332</v>
@@ -20506,7 +20593,7 @@
         <v>367</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D318" s="1" t="n">
         <v>1.1442586</v>
@@ -20532,7 +20619,7 @@
         <v>367</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D319" s="1" t="n">
         <v>2.9026132</v>
@@ -20558,7 +20645,7 @@
         <v>367</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D320" s="1" t="n">
         <v>1.8269942</v>
@@ -20752,7 +20839,7 @@
         <v>374</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D327" s="1" t="n">
         <v>1.0938576</v>
@@ -20780,7 +20867,7 @@
         <v>374</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D328" s="1" t="n">
         <v>1.1224288</v>
@@ -20808,7 +20895,7 @@
         <v>374</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D329" s="1" t="n">
         <v>0.9831546</v>
@@ -20892,7 +20979,7 @@
         <v>378</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D332" s="1" t="n">
         <v>0.9578956</v>
@@ -21032,7 +21119,7 @@
         <v>384</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D337" s="1" t="n">
         <v>0.8906878</v>
@@ -21060,7 +21147,7 @@
         <v>384</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D338" s="1" t="n">
         <v>0.9432826</v>
@@ -21088,7 +21175,7 @@
         <v>388</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D339" s="1" t="n">
         <v>0.8824616</v>
@@ -21116,7 +21203,7 @@
         <v>388</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D340" s="1" t="n">
         <v>0.9309194</v>
@@ -21144,7 +21231,7 @@
         <v>388</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D341" s="1" t="n">
         <v>0.9131502</v>
@@ -21228,7 +21315,7 @@
         <v>389</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D344" s="1" t="n">
         <v>0.8480704</v>
@@ -21284,7 +21371,7 @@
         <v>390</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D346" s="1" t="n">
         <v>0.8884836</v>
@@ -21396,7 +21483,7 @@
         <v>392</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D350" s="1" t="n">
         <v>0.867561</v>
@@ -21508,7 +21595,7 @@
         <v>397</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D354" s="1" t="n">
         <v>0.8549158</v>
@@ -21564,7 +21651,7 @@
         <v>397</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D356" s="1" t="n">
         <v>0.9937986</v>
@@ -21584,7 +21671,7 @@
       <c r="I356" s="1"/>
       <c r="J356" s="1"/>
     </row>
-    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="n">
         <v>355</v>
       </c>
@@ -21612,7 +21699,7 @@
       <c r="I357" s="1"/>
       <c r="J357" s="1"/>
     </row>
-    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="n">
         <v>356</v>
       </c>
@@ -21620,7 +21707,7 @@
         <v>400</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D358" s="1" t="n">
         <v>1.1687012</v>
@@ -21640,31 +21727,117 @@
       <c r="I358" s="1"/>
       <c r="J358" s="1"/>
     </row>
-    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="n">
         <v>357</v>
       </c>
-      <c r="B359" s="2" t="s">
+      <c r="B359" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C359" s="2" t="s">
+      <c r="C359" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="D359" s="2" t="n">
+      <c r="D359" s="1" t="n">
         <v>1.0685288</v>
       </c>
-      <c r="E359" s="2" t="n">
+      <c r="E359" s="1" t="n">
         <v>1.5274722</v>
       </c>
-      <c r="F359" s="2" t="n">
+      <c r="F359" s="1" t="n">
         <v>1.226856</v>
       </c>
-      <c r="G359" s="2" t="n">
+      <c r="G359" s="1" t="n">
         <v>1.8349886</v>
       </c>
-      <c r="H359" s="2" t="n">
+      <c r="H359" s="1" t="n">
         <v>1.4964836</v>
       </c>
+      <c r="I359" s="1"/>
+      <c r="J359" s="1"/>
+    </row>
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D360" s="1" t="n">
+        <v>0.796018</v>
+      </c>
+      <c r="E360" s="1" t="n">
+        <v>1.6636928</v>
+      </c>
+      <c r="F360" s="1" t="n">
+        <v>0.8818228</v>
+      </c>
+      <c r="G360" s="1" t="n">
+        <v>1.6841862</v>
+      </c>
+      <c r="H360" s="1" t="n">
+        <v>1.186601</v>
+      </c>
+      <c r="I360" s="1"/>
+      <c r="J360" s="1"/>
+    </row>
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D361" s="1" t="n">
+        <v>0.8918954</v>
+      </c>
+      <c r="E361" s="1" t="n">
+        <v>1.1385352</v>
+      </c>
+      <c r="F361" s="1" t="n">
+        <v>1.0038076</v>
+      </c>
+      <c r="G361" s="1" t="n">
+        <v>1.5706536</v>
+      </c>
+      <c r="H361" s="1" t="n">
+        <v>1.2369308</v>
+      </c>
+      <c r="I361" s="1"/>
+      <c r="J361" s="1"/>
+    </row>
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D362" s="1" t="n">
+        <v>0.8431968</v>
+      </c>
+      <c r="E362" s="1" t="n">
+        <v>1.4381398</v>
+      </c>
+      <c r="F362" s="1" t="n">
+        <v>0.9661568</v>
+      </c>
+      <c r="G362" s="1" t="n">
+        <v>1.6172568</v>
+      </c>
+      <c r="H362" s="1" t="n">
+        <v>1.183468</v>
+      </c>
+      <c r="I362" s="1"/>
+      <c r="J362" s="1"/>
     </row>
     <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -21703,7 +21876,7 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A336" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A338" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D357" activeCellId="0" sqref="D357"/>
     </sheetView>
   </sheetViews>
@@ -21755,7 +21928,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0.7804054</v>
@@ -21781,7 +21954,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>0.7779802</v>
@@ -21807,7 +21980,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>0.7043458</v>
@@ -21833,7 +22006,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>0.7145706</v>
@@ -21963,7 +22136,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>0.7373706</v>
@@ -22015,7 +22188,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>0.7234852</v>
@@ -22119,7 +22292,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>0.3510038</v>
@@ -22301,7 +22474,7 @@
         <v>36</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>0.9795414</v>
@@ -22353,7 +22526,7 @@
         <v>36</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>2.3842444</v>
@@ -22379,7 +22552,7 @@
         <v>36</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>2.139728</v>
@@ -22405,7 +22578,7 @@
         <v>36</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>0.7112716</v>
@@ -22431,7 +22604,7 @@
         <v>36</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>0.67812</v>
@@ -22509,7 +22682,7 @@
         <v>43</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>0.630812</v>
@@ -22639,7 +22812,7 @@
         <v>50</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>0.7043458</v>
@@ -22665,7 +22838,7 @@
         <v>50</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>0.7145706</v>
@@ -22691,7 +22864,7 @@
         <v>53</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>1.2584274</v>
@@ -22717,7 +22890,7 @@
         <v>53</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>1.3856258</v>
@@ -22847,7 +23020,7 @@
         <v>61</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>0.7883284</v>
@@ -22899,7 +23072,7 @@
         <v>61</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>0.6814198</v>
@@ -23029,7 +23202,7 @@
         <v>69</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D51" s="1" t="n">
         <v>1.4049502</v>
@@ -23081,7 +23254,7 @@
         <v>73</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D53" s="1" t="n">
         <v>0.9897652</v>
@@ -23159,7 +23332,7 @@
         <v>77</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D56" s="1" t="n">
         <v>1.2353042</v>
@@ -23211,7 +23384,7 @@
         <v>77</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D58" s="1" t="n">
         <v>1.2364662</v>
@@ -23263,7 +23436,7 @@
         <v>81</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D60" s="1" t="n">
         <v>1.1438926</v>
@@ -23471,7 +23644,7 @@
         <v>92</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D68" s="1" t="n">
         <v>1.6301784</v>
@@ -23523,7 +23696,7 @@
         <v>92</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D70" s="1" t="n">
         <v>1.4442308</v>
@@ -23679,7 +23852,7 @@
         <v>100</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D76" s="1" t="n">
         <v>1.1822766</v>
@@ -23757,7 +23930,7 @@
         <v>104</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D79" s="1" t="n">
         <v>1.573159</v>
@@ -24095,7 +24268,7 @@
         <v>123</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D92" s="1" t="n">
         <v>1.5482428</v>
@@ -24121,7 +24294,7 @@
         <v>123</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D93" s="1" t="n">
         <v>1.8137892</v>
@@ -24225,7 +24398,7 @@
         <v>124</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D97" s="1" t="n">
         <v>1.4182292</v>
@@ -24329,7 +24502,7 @@
         <v>131</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D101" s="1" t="n">
         <v>1.2684794</v>
@@ -24485,7 +24658,7 @@
         <v>136</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D107" s="1" t="n">
         <v>1.295247</v>
@@ -24511,7 +24684,7 @@
         <v>136</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D108" s="1" t="n">
         <v>1.22489</v>
@@ -24537,7 +24710,7 @@
         <v>136</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D109" s="1" t="n">
         <v>1.1823422</v>
@@ -24563,7 +24736,7 @@
         <v>139</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D110" s="1" t="n">
         <v>1.1176918</v>
@@ -24667,7 +24840,7 @@
         <v>141</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D114" s="1" t="n">
         <v>0.5937896</v>
@@ -24849,7 +25022,7 @@
         <v>149</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D121" s="1" t="n">
         <v>0.5689302</v>
@@ -24979,7 +25152,7 @@
         <v>157</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D126" s="1" t="n">
         <v>0.6197108</v>
@@ -25291,7 +25464,7 @@
         <v>166</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D138" s="1" t="n">
         <v>0.3957292</v>
@@ -25421,7 +25594,7 @@
         <v>179</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D143" s="1" t="n">
         <v>1.1999426</v>
@@ -25869,7 +26042,7 @@
         <v>193</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D159" s="1" t="n">
         <v>0.295909</v>
@@ -26093,7 +26266,7 @@
         <v>204</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D167" s="1" t="n">
         <v>0.4000132</v>
@@ -26233,7 +26406,7 @@
         <v>212</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D172" s="1" t="n">
         <v>0.3234768</v>
@@ -26317,7 +26490,7 @@
         <v>212</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D175" s="1" t="n">
         <v>0.3166722</v>
@@ -26373,7 +26546,7 @@
         <v>212</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D177" s="1" t="n">
         <v>0.3405566</v>
@@ -26485,7 +26658,7 @@
         <v>223</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D181" s="1" t="n">
         <v>0.358663</v>
@@ -26569,7 +26742,7 @@
         <v>224</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D184" s="1" t="n">
         <v>0.4261214</v>
@@ -26597,7 +26770,7 @@
         <v>227</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D185" s="1" t="n">
         <v>0.3895084</v>
@@ -26681,7 +26854,7 @@
         <v>231</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D188" s="1" t="n">
         <v>0.295778</v>
@@ -26709,7 +26882,7 @@
         <v>231</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D189" s="1" t="n">
         <v>0.3548348</v>
@@ -26737,7 +26910,7 @@
         <v>231</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D190" s="1" t="n">
         <v>0.313661</v>
@@ -26849,7 +27022,7 @@
         <v>238</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D194" s="1" t="n">
         <v>0.3890278</v>
@@ -26877,7 +27050,7 @@
         <v>238</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D195" s="1" t="n">
         <v>0.374767</v>
@@ -26905,7 +27078,7 @@
         <v>238</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D196" s="1" t="n">
         <v>0.4295846</v>
@@ -26933,7 +27106,7 @@
         <v>242</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D197" s="1" t="n">
         <v>0.3186188</v>
@@ -26961,7 +27134,7 @@
         <v>242</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D198" s="1" t="n">
         <v>0.389133</v>
@@ -27073,7 +27246,7 @@
         <v>245</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D202" s="1" t="n">
         <v>0.313982</v>
@@ -27353,7 +27526,7 @@
         <v>259</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D212" s="1" t="n">
         <v>0.302686</v>
@@ -27409,7 +27582,7 @@
         <v>259</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D214" s="1" t="n">
         <v>0.3648386</v>
@@ -27493,7 +27666,7 @@
         <v>263</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D217" s="1" t="n">
         <v>0.4100988</v>
@@ -27549,7 +27722,7 @@
         <v>267</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D219" s="1" t="n">
         <v>0.4394846</v>
@@ -27577,7 +27750,7 @@
         <v>267</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D220" s="1" t="n">
         <v>0.406968</v>
@@ -27717,7 +27890,7 @@
         <v>272</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D225" s="1" t="n">
         <v>0.9309204</v>
@@ -27801,7 +27974,7 @@
         <v>278</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D228" s="1" t="n">
         <v>1.3197092</v>
@@ -27885,7 +28058,7 @@
         <v>281</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D231" s="1" t="n">
         <v>1.4583628</v>
@@ -27913,7 +28086,7 @@
         <v>281</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D232" s="1" t="n">
         <v>1.2032768</v>
@@ -27941,7 +28114,7 @@
         <v>281</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D233" s="1" t="n">
         <v>1.93539</v>
@@ -27969,7 +28142,7 @@
         <v>284</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D234" s="1" t="n">
         <v>1.2197114</v>
@@ -27997,7 +28170,7 @@
         <v>284</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D235" s="1" t="n">
         <v>0.718877</v>
@@ -28025,7 +28198,7 @@
         <v>284</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D236" s="1" t="n">
         <v>0.677923</v>
@@ -28053,7 +28226,7 @@
         <v>287</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D237" s="1" t="n">
         <v>0.6190238</v>
@@ -28081,7 +28254,7 @@
         <v>287</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D238" s="1" t="n">
         <v>0.72822</v>
@@ -28165,7 +28338,7 @@
         <v>290</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D241" s="1" t="n">
         <v>1.2253808</v>
@@ -28221,7 +28394,7 @@
         <v>293</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D243" s="1" t="n">
         <v>1.3338492</v>
@@ -28249,7 +28422,7 @@
         <v>293</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D244" s="1" t="n">
         <v>1.139152</v>
@@ -28277,7 +28450,7 @@
         <v>293</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D245" s="1" t="n">
         <v>1.3185088</v>
@@ -28473,7 +28646,7 @@
         <v>305</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D252" s="1" t="n">
         <v>1.5462522</v>
@@ -28501,7 +28674,7 @@
         <v>305</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D253" s="1" t="n">
         <v>1.1359782</v>
@@ -28529,7 +28702,7 @@
         <v>305</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D254" s="1" t="n">
         <v>1.9068204</v>
@@ -28557,7 +28730,7 @@
         <v>309</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D255" s="1" t="n">
         <v>0.7759672</v>
@@ -28585,7 +28758,7 @@
         <v>309</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D256" s="1" t="n">
         <v>0.796901</v>
@@ -28613,7 +28786,7 @@
         <v>309</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D257" s="1" t="n">
         <v>0.886213</v>
@@ -28641,7 +28814,7 @@
         <v>313</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D258" s="1" t="n">
         <v>1.2621764</v>
@@ -28669,7 +28842,7 @@
         <v>313</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D259" s="1" t="n">
         <v>1.2655732</v>
@@ -28697,7 +28870,7 @@
         <v>313</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D260" s="1" t="n">
         <v>1.418487</v>
@@ -28753,7 +28926,7 @@
         <v>315</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D262" s="1" t="n">
         <v>0.7384096</v>
@@ -28893,7 +29066,7 @@
         <v>323</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D267" s="1" t="n">
         <v>0.682399</v>
@@ -29061,7 +29234,7 @@
         <v>327</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D273" s="1" t="n">
         <v>0.5630494</v>
@@ -29089,7 +29262,7 @@
         <v>327</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D274" s="1" t="n">
         <v>0.6325376</v>
@@ -29117,7 +29290,7 @@
         <v>327</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D275" s="1" t="n">
         <v>0.7121288</v>
@@ -29257,7 +29430,7 @@
         <v>329</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D280" s="1" t="n">
         <v>0.6527698</v>
@@ -29285,7 +29458,7 @@
         <v>329</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D281" s="1" t="n">
         <v>0.7653444</v>
@@ -29313,7 +29486,7 @@
         <v>332</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D282" s="1" t="n">
         <v>0.585329</v>
@@ -29369,7 +29542,7 @@
         <v>332</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D284" s="1" t="n">
         <v>0.8150382</v>
@@ -29397,7 +29570,7 @@
         <v>336</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D285" s="1" t="n">
         <v>0.971585</v>
@@ -29425,7 +29598,7 @@
         <v>336</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D286" s="1" t="n">
         <v>0.7461152</v>
@@ -29453,7 +29626,7 @@
         <v>336</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D287" s="1" t="n">
         <v>0.650945</v>
@@ -29593,7 +29766,7 @@
         <v>343</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D292" s="1" t="n">
         <v>0.6690088</v>
@@ -29649,7 +29822,7 @@
         <v>346</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D294" s="1" t="n">
         <v>0.5851698</v>
@@ -29705,7 +29878,7 @@
         <v>346</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D296" s="1" t="n">
         <v>0.6530738</v>
@@ -29789,7 +29962,7 @@
         <v>347</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D299" s="1" t="n">
         <v>0.755497</v>
@@ -29817,7 +29990,7 @@
         <v>349</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D300" s="1" t="n">
         <v>0.7284484</v>
@@ -29845,7 +30018,7 @@
         <v>349</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D301" s="1" t="n">
         <v>0.8258526</v>
@@ -29901,7 +30074,7 @@
         <v>352</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D303" s="1" t="n">
         <v>0.6179646</v>
@@ -29929,7 +30102,7 @@
         <v>352</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D304" s="1" t="n">
         <v>0.6414728</v>
@@ -30013,7 +30186,7 @@
         <v>356</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D307" s="1" t="n">
         <v>0.5738846</v>
@@ -30041,7 +30214,7 @@
         <v>356</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D308" s="1" t="n">
         <v>0.7374152</v>
@@ -30153,7 +30326,7 @@
         <v>361</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D312" s="1" t="n">
         <v>0.4729554</v>
@@ -30209,7 +30382,7 @@
         <v>361</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D314" s="1" t="n">
         <v>0.4964624</v>
@@ -30237,7 +30410,7 @@
         <v>363</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D315" s="1" t="n">
         <v>0.4964188</v>
@@ -30433,7 +30606,7 @@
         <v>371</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D322" s="1" t="n">
         <v>0.442656</v>
@@ -30461,7 +30634,7 @@
         <v>371</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D323" s="1" t="n">
         <v>0.566659</v>
@@ -30545,7 +30718,7 @@
         <v>372</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D326" s="1" t="n">
         <v>0.5812864</v>
@@ -30657,7 +30830,7 @@
         <v>378</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D330" s="1" t="n">
         <v>0.6586386</v>
@@ -30741,7 +30914,7 @@
         <v>380</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D333" s="1" t="n">
         <v>0.5722014</v>
@@ -30769,7 +30942,7 @@
         <v>380</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D334" s="1" t="n">
         <v>0.4633974</v>
@@ -30797,7 +30970,7 @@
         <v>380</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D335" s="1" t="n">
         <v>0.507814</v>
@@ -30825,7 +30998,7 @@
         <v>384</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D336" s="1" t="n">
         <v>0.4888858</v>
@@ -30909,7 +31082,7 @@
         <v>388</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D339" s="1" t="n">
         <v>0.6414728</v>
@@ -30937,7 +31110,7 @@
         <v>388</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D340" s="1" t="n">
         <v>0.6574688</v>
@@ -30965,7 +31138,7 @@
         <v>388</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D341" s="1" t="n">
         <v>0.677923</v>
@@ -31133,7 +31306,7 @@
         <v>390</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D347" s="1" t="n">
         <v>0.4808658</v>
@@ -31217,7 +31390,7 @@
         <v>392</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D350" s="1" t="n">
         <v>0.4571946</v>
@@ -31329,7 +31502,7 @@
         <v>397</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D354" s="1" t="n">
         <v>0.4574978</v>
@@ -31405,7 +31578,7 @@
       <c r="I356" s="1"/>
       <c r="J356" s="1"/>
     </row>
-    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="n">
         <v>355</v>
       </c>
@@ -31413,7 +31586,7 @@
         <v>400</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D357" s="1" t="n">
         <v>0.487551</v>
@@ -31433,7 +31606,7 @@
       <c r="I357" s="1"/>
       <c r="J357" s="1"/>
     </row>
-    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="n">
         <v>356</v>
       </c>
@@ -31441,7 +31614,7 @@
         <v>400</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D358" s="1" t="n">
         <v>0.477248</v>
@@ -31461,7 +31634,7 @@
       <c r="I358" s="1"/>
       <c r="J358" s="1"/>
     </row>
-    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="n">
         <v>357</v>
       </c>
@@ -31488,6 +31661,90 @@
       </c>
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
+    </row>
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D360" s="1" t="n">
+        <v>0.5020976</v>
+      </c>
+      <c r="E360" s="1" t="n">
+        <v>0.504217</v>
+      </c>
+      <c r="F360" s="1" t="n">
+        <v>0.5115236</v>
+      </c>
+      <c r="G360" s="1" t="n">
+        <v>0.6357314</v>
+      </c>
+      <c r="H360" s="1" t="n">
+        <v>0.5686734</v>
+      </c>
+      <c r="I360" s="1"/>
+      <c r="J360" s="1"/>
+    </row>
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D361" s="1" t="n">
+        <v>0.4031846</v>
+      </c>
+      <c r="E361" s="1" t="n">
+        <v>0.5975066</v>
+      </c>
+      <c r="F361" s="1" t="n">
+        <v>0.5525404</v>
+      </c>
+      <c r="G361" s="1" t="n">
+        <v>0.6352282</v>
+      </c>
+      <c r="H361" s="1" t="n">
+        <v>0.6024122</v>
+      </c>
+      <c r="I361" s="1"/>
+      <c r="J361" s="1"/>
+    </row>
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D362" s="1" t="n">
+        <v>0.4440552</v>
+      </c>
+      <c r="E362" s="1" t="n">
+        <v>0.5614744</v>
+      </c>
+      <c r="F362" s="1" t="n">
+        <v>0.574753</v>
+      </c>
+      <c r="G362" s="1" t="n">
+        <v>0.6743756</v>
+      </c>
+      <c r="H362" s="1" t="n">
+        <v>0.5488472</v>
+      </c>
+      <c r="I362" s="1"/>
+      <c r="J362" s="1"/>
     </row>
     <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -31525,8 +31782,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A334" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H357" activeCellId="0" sqref="H357"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A339" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C363" activeCellId="0" sqref="C363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31578,7 +31835,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>3.4656902</v>
@@ -31604,7 +31861,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>4.0852622</v>
@@ -31630,7 +31887,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>2.9817282</v>
@@ -31656,7 +31913,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>3.2355116</v>
@@ -31760,7 +32017,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>3.5561424</v>
@@ -31812,7 +32069,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>3.8741284</v>
@@ -31838,7 +32095,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>3.5923944</v>
@@ -31916,7 +32173,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>3.0850886</v>
@@ -31942,7 +32199,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>4.2818632</v>
@@ -32072,7 +32329,7 @@
         <v>32</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>2.9089418</v>
@@ -32202,7 +32459,7 @@
         <v>36</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>3.822524</v>
@@ -32228,7 +32485,7 @@
         <v>36</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>3.2866498</v>
@@ -32254,7 +32511,7 @@
         <v>36</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>3.8178666</v>
@@ -32306,7 +32563,7 @@
         <v>43</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>3.0702744</v>
@@ -32410,7 +32667,7 @@
         <v>47</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>2.9263998</v>
@@ -32462,7 +32719,7 @@
         <v>50</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>3.2355116</v>
@@ -32514,7 +32771,7 @@
         <v>53</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>4.4183598</v>
@@ -32540,7 +32797,7 @@
         <v>53</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>4.2271066</v>
@@ -32670,7 +32927,7 @@
         <v>61</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>3.8775138</v>
@@ -32722,7 +32979,7 @@
         <v>61</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>3.8538836</v>
@@ -32852,7 +33109,7 @@
         <v>69</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D51" s="1" t="n">
         <v>4.7661336</v>
@@ -32878,7 +33135,7 @@
         <v>69</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D52" s="1" t="n">
         <v>4.1553188</v>
@@ -32904,7 +33161,7 @@
         <v>73</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D53" s="1" t="n">
         <v>4.4161086</v>
@@ -32930,7 +33187,7 @@
         <v>73</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D54" s="1" t="n">
         <v>3.9109934</v>
@@ -32982,7 +33239,7 @@
         <v>77</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D56" s="1" t="n">
         <v>3.4861618</v>
@@ -33034,7 +33291,7 @@
         <v>77</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D58" s="1" t="n">
         <v>3.52287</v>
@@ -33294,7 +33551,7 @@
         <v>92</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D68" s="1" t="n">
         <v>3.9888114</v>
@@ -33346,7 +33603,7 @@
         <v>92</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D70" s="1" t="n">
         <v>4.983335</v>
@@ -33502,7 +33759,7 @@
         <v>100</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D76" s="1" t="n">
         <v>4.5492628</v>
@@ -33944,7 +34201,7 @@
         <v>123</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D93" s="1" t="n">
         <v>4.559301</v>
@@ -34048,7 +34305,7 @@
         <v>124</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D97" s="1" t="n">
         <v>3.7013772</v>
@@ -34126,7 +34383,7 @@
         <v>128</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D100" s="1" t="n">
         <v>4.1470936</v>
@@ -34152,7 +34409,7 @@
         <v>131</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D101" s="1" t="n">
         <v>4.5941812</v>
@@ -34204,7 +34461,7 @@
         <v>131</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D103" s="1" t="n">
         <v>4.2355866</v>
@@ -34308,7 +34565,7 @@
         <v>136</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D107" s="1" t="n">
         <v>3.9397008</v>
@@ -34334,7 +34591,7 @@
         <v>136</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D108" s="1" t="n">
         <v>3.8446282</v>
@@ -34360,7 +34617,7 @@
         <v>136</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D109" s="1" t="n">
         <v>3.6811188</v>
@@ -34386,7 +34643,7 @@
         <v>139</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D110" s="1" t="n">
         <v>4.0021732</v>
@@ -34672,7 +34929,7 @@
         <v>149</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D121" s="1" t="n">
         <v>3.7466574</v>
@@ -34802,7 +35059,7 @@
         <v>157</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D126" s="1" t="n">
         <v>3.6994948</v>
@@ -34906,7 +35163,7 @@
         <v>161</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D130" s="1" t="n">
         <v>4.1747286</v>
@@ -34932,7 +35189,7 @@
         <v>164</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D131" s="1" t="n">
         <v>3.529065</v>
@@ -35244,7 +35501,7 @@
         <v>179</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D143" s="1" t="n">
         <v>3.6613182</v>
@@ -35356,7 +35613,7 @@
         <v>181</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D147" s="1" t="n">
         <v>4.9899384</v>
@@ -35608,7 +35865,7 @@
         <v>189</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D156" s="1" t="n">
         <v>3.6757588</v>
@@ -35692,7 +35949,7 @@
         <v>193</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D159" s="1" t="n">
         <v>3.1456856</v>
@@ -35804,7 +36061,7 @@
         <v>200</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D163" s="1" t="n">
         <v>3.365378</v>
@@ -35916,7 +36173,7 @@
         <v>204</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D167" s="1" t="n">
         <v>3.7039678</v>
@@ -35944,7 +36201,7 @@
         <v>204</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D168" s="1" t="n">
         <v>3.7096014</v>
@@ -35972,7 +36229,7 @@
         <v>208</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D169" s="1" t="n">
         <v>5.4967574</v>
@@ -36028,7 +36285,7 @@
         <v>208</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D171" s="1" t="n">
         <v>4.669323</v>
@@ -36224,7 +36481,7 @@
         <v>212</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D178" s="1" t="n">
         <v>3.0646552</v>
@@ -36308,7 +36565,7 @@
         <v>223</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D181" s="1" t="n">
         <v>0.9643054</v>
@@ -36364,7 +36621,7 @@
         <v>224</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D183" s="1" t="n">
         <v>0.915316</v>
@@ -36392,7 +36649,7 @@
         <v>224</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D184" s="1" t="n">
         <v>1.0040066</v>
@@ -36532,7 +36789,7 @@
         <v>231</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D189" s="1" t="n">
         <v>0.7432314</v>
@@ -36560,7 +36817,7 @@
         <v>231</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D190" s="1" t="n">
         <v>0.7282506</v>
@@ -36672,7 +36929,7 @@
         <v>238</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D194" s="1" t="n">
         <v>0.769896</v>
@@ -36700,7 +36957,7 @@
         <v>238</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D195" s="1" t="n">
         <v>0.8169218</v>
@@ -36728,7 +36985,7 @@
         <v>238</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D196" s="1" t="n">
         <v>1.073331</v>
@@ -36756,7 +37013,7 @@
         <v>242</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D197" s="1" t="n">
         <v>3.6745186</v>
@@ -36784,7 +37041,7 @@
         <v>242</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D198" s="1" t="n">
         <v>3.6868922</v>
@@ -36868,7 +37125,7 @@
         <v>245</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D201" s="1" t="n">
         <v>3.7509906</v>
@@ -36896,7 +37153,7 @@
         <v>245</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D202" s="1" t="n">
         <v>3.6990118</v>
@@ -36980,7 +37237,7 @@
         <v>247</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D205" s="1" t="n">
         <v>3.5056148</v>
@@ -37176,7 +37433,7 @@
         <v>259</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D212" s="1" t="n">
         <v>0.6447578</v>
@@ -37232,7 +37489,7 @@
         <v>259</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D214" s="1" t="n">
         <v>0.9167192</v>
@@ -37400,7 +37657,7 @@
         <v>267</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D220" s="1" t="n">
         <v>0.9251752</v>
@@ -37484,7 +37741,7 @@
         <v>271</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D223" s="1" t="n">
         <v>1.3433578</v>
@@ -37568,7 +37825,7 @@
         <v>274</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D226" s="1" t="n">
         <v>2.6990146</v>
@@ -37596,7 +37853,7 @@
         <v>274</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D227" s="1" t="n">
         <v>2.7866846</v>
@@ -37652,7 +37909,7 @@
         <v>278</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D229" s="1" t="n">
         <v>1.9206712</v>
@@ -37708,7 +37965,7 @@
         <v>281</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D231" s="1" t="n">
         <v>2.5458692</v>
@@ -37820,7 +38077,7 @@
         <v>284</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D235" s="1" t="n">
         <v>1.8179748</v>
@@ -37848,7 +38105,7 @@
         <v>284</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D236" s="1" t="n">
         <v>1.8229778</v>
@@ -37904,7 +38161,7 @@
         <v>287</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D238" s="1" t="n">
         <v>0.9822748</v>
@@ -37932,7 +38189,7 @@
         <v>287</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D239" s="1" t="n">
         <v>1.2047334</v>
@@ -38016,7 +38273,7 @@
         <v>290</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D242" s="1" t="n">
         <v>1.595638</v>
@@ -38044,7 +38301,7 @@
         <v>293</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D243" s="1" t="n">
         <v>1.550705</v>
@@ -38072,7 +38329,7 @@
         <v>293</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D244" s="1" t="n">
         <v>1.733405</v>
@@ -38100,7 +38357,7 @@
         <v>293</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D245" s="1" t="n">
         <v>1.762443</v>
@@ -38156,7 +38413,7 @@
         <v>297</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D247" s="1" t="n">
         <v>1.9096182</v>
@@ -38184,7 +38441,7 @@
         <v>297</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D248" s="1" t="n">
         <v>1.5183776</v>
@@ -38212,7 +38469,7 @@
         <v>301</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D249" s="1" t="n">
         <v>1.9230312</v>
@@ -38240,7 +38497,7 @@
         <v>301</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D250" s="1" t="n">
         <v>1.9616156</v>
@@ -38296,7 +38553,7 @@
         <v>305</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D252" s="1" t="n">
         <v>1.6314788</v>
@@ -38324,7 +38581,7 @@
         <v>305</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D253" s="1" t="n">
         <v>1.4673412</v>
@@ -38352,7 +38609,7 @@
         <v>305</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D254" s="1" t="n">
         <v>1.6703708</v>
@@ -38380,7 +38637,7 @@
         <v>309</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D255" s="1" t="n">
         <v>1.491883</v>
@@ -38408,7 +38665,7 @@
         <v>309</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D256" s="1" t="n">
         <v>1.4376204</v>
@@ -38436,7 +38693,7 @@
         <v>309</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D257" s="1" t="n">
         <v>1.3038182</v>
@@ -38464,7 +38721,7 @@
         <v>313</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D258" s="1" t="n">
         <v>1.44942</v>
@@ -38492,7 +38749,7 @@
         <v>313</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D259" s="1" t="n">
         <v>1.7961676</v>
@@ -38520,7 +38777,7 @@
         <v>313</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D260" s="1" t="n">
         <v>1.76271</v>
@@ -38548,7 +38805,7 @@
         <v>315</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D261" s="1" t="n">
         <v>1.7891326</v>
@@ -38576,7 +38833,7 @@
         <v>315</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D262" s="1" t="n">
         <v>1.669088</v>
@@ -38604,7 +38861,7 @@
         <v>315</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D263" s="1" t="n">
         <v>1.4909798</v>
@@ -38688,7 +38945,7 @@
         <v>319</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D266" s="1" t="n">
         <v>1.4312818</v>
@@ -38828,7 +39085,7 @@
         <v>325</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D271" s="1" t="n">
         <v>1.5375802</v>
@@ -38884,7 +39141,7 @@
         <v>327</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D273" s="1" t="n">
         <v>1.3638702</v>
@@ -38912,7 +39169,7 @@
         <v>327</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D274" s="1" t="n">
         <v>1.263996</v>
@@ -38940,7 +39197,7 @@
         <v>327</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D275" s="1" t="n">
         <v>1.2279214</v>
@@ -39080,7 +39337,7 @@
         <v>329</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D280" s="1" t="n">
         <v>1.124852</v>
@@ -39136,7 +39393,7 @@
         <v>332</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D282" s="1" t="n">
         <v>1.6275754</v>
@@ -39164,7 +39421,7 @@
         <v>332</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D283" s="1" t="n">
         <v>1.5708768</v>
@@ -39192,7 +39449,7 @@
         <v>332</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D284" s="1" t="n">
         <v>1.6431544</v>
@@ -39248,7 +39505,7 @@
         <v>336</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D286" s="1" t="n">
         <v>1.4122034</v>
@@ -39276,7 +39533,7 @@
         <v>336</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D287" s="1" t="n">
         <v>1.4755902</v>
@@ -39360,7 +39617,7 @@
         <v>340</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D290" s="1" t="n">
         <v>1.3500846</v>
@@ -39388,7 +39645,7 @@
         <v>343</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D291" s="1" t="n">
         <v>1.4293406</v>
@@ -39416,7 +39673,7 @@
         <v>343</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D292" s="1" t="n">
         <v>1.4329594</v>
@@ -39444,7 +39701,7 @@
         <v>343</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D293" s="1" t="n">
         <v>1.450452</v>
@@ -39500,7 +39757,7 @@
         <v>346</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D295" s="1" t="n">
         <v>1.3541134</v>
@@ -39528,7 +39785,7 @@
         <v>346</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D296" s="1" t="n">
         <v>1.6232472</v>
@@ -39696,7 +39953,7 @@
         <v>349</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D302" s="1" t="n">
         <v>1.4532946</v>
@@ -39752,7 +40009,7 @@
         <v>352</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D304" s="1" t="n">
         <v>1.7953464</v>
@@ -39808,7 +40065,7 @@
         <v>356</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D306" s="1" t="n">
         <v>1.389861</v>
@@ -39836,7 +40093,7 @@
         <v>356</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D307" s="1" t="n">
         <v>1.2307954</v>
@@ -39864,7 +40121,7 @@
         <v>356</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D308" s="1" t="n">
         <v>1.254881</v>
@@ -40144,7 +40401,7 @@
         <v>367</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D318" s="1" t="n">
         <v>1.2248766</v>
@@ -40172,7 +40429,7 @@
         <v>367</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D319" s="1" t="n">
         <v>1.2212258</v>
@@ -40200,7 +40457,7 @@
         <v>367</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D320" s="1" t="n">
         <v>1.1989604</v>
@@ -40340,7 +40597,7 @@
         <v>372</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D325" s="1" t="n">
         <v>1.0624674</v>
@@ -40368,7 +40625,7 @@
         <v>372</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D326" s="1" t="n">
         <v>1.0858874</v>
@@ -40396,7 +40653,7 @@
         <v>374</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D327" s="1" t="n">
         <v>1.3795824</v>
@@ -40424,7 +40681,7 @@
         <v>374</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D328" s="1" t="n">
         <v>1.2367146</v>
@@ -40452,7 +40709,7 @@
         <v>374</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D329" s="1" t="n">
         <v>1.2427274</v>
@@ -40508,7 +40765,7 @@
         <v>378</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D331" s="1" t="n">
         <v>1.5469018</v>
@@ -40564,7 +40821,7 @@
         <v>380</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D333" s="1" t="n">
         <v>1.1511158</v>
@@ -40592,7 +40849,7 @@
         <v>380</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D334" s="1" t="n">
         <v>1.7489588</v>
@@ -40620,7 +40877,7 @@
         <v>380</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D335" s="1" t="n">
         <v>1.3266318</v>
@@ -40648,7 +40905,7 @@
         <v>384</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D336" s="1" t="n">
         <v>1.2621662</v>
@@ -40676,7 +40933,7 @@
         <v>384</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D337" s="1" t="n">
         <v>1.2015852</v>
@@ -40704,7 +40961,7 @@
         <v>384</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D338" s="1" t="n">
         <v>1.2845608</v>
@@ -40760,7 +41017,7 @@
         <v>388</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D340" s="1" t="n">
         <v>1.8179748</v>
@@ -40788,7 +41045,7 @@
         <v>388</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D341" s="1" t="n">
         <v>1.8229778</v>
@@ -40928,7 +41185,7 @@
         <v>390</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D346" s="1" t="n">
         <v>1.094811</v>
@@ -40956,7 +41213,7 @@
         <v>390</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D347" s="1" t="n">
         <v>1.433895</v>
@@ -41012,7 +41269,7 @@
         <v>392</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D349" s="1" t="n">
         <v>1.9025118</v>
@@ -41040,7 +41297,7 @@
         <v>392</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D350" s="1" t="n">
         <v>1.8527084</v>
@@ -41208,7 +41465,7 @@
         <v>397</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D356" s="1" t="n">
         <v>1.2738502</v>
@@ -41228,7 +41485,7 @@
       <c r="I356" s="1"/>
       <c r="J356" s="1"/>
     </row>
-    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="n">
         <v>355</v>
       </c>
@@ -41236,7 +41493,7 @@
         <v>400</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D357" s="1" t="n">
         <v>1.5006246</v>
@@ -41256,7 +41513,7 @@
       <c r="I357" s="1"/>
       <c r="J357" s="1"/>
     </row>
-    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="n">
         <v>356</v>
       </c>
@@ -41264,7 +41521,7 @@
         <v>400</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D358" s="1" t="n">
         <v>1.6885894</v>
@@ -41284,7 +41541,7 @@
       <c r="I358" s="1"/>
       <c r="J358" s="1"/>
     </row>
-    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="n">
         <v>357</v>
       </c>
@@ -41292,7 +41549,7 @@
         <v>400</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D359" s="1" t="n">
         <v>1.1057422</v>
@@ -41311,6 +41568,90 @@
       </c>
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
+    </row>
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D360" s="1" t="n">
+        <v>1.1650418</v>
+      </c>
+      <c r="E360" s="1" t="n">
+        <v>1.6112942</v>
+      </c>
+      <c r="F360" s="1" t="n">
+        <v>1.0797694</v>
+      </c>
+      <c r="G360" s="1" t="n">
+        <v>2.1441518</v>
+      </c>
+      <c r="H360" s="1" t="n">
+        <v>1.4206424</v>
+      </c>
+      <c r="I360" s="1"/>
+      <c r="J360" s="1"/>
+    </row>
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D361" s="1" t="n">
+        <v>1.0287834</v>
+      </c>
+      <c r="E361" s="1" t="n">
+        <v>1.5015312</v>
+      </c>
+      <c r="F361" s="1" t="n">
+        <v>1.2023444</v>
+      </c>
+      <c r="G361" s="1" t="n">
+        <v>2.0189708</v>
+      </c>
+      <c r="H361" s="1" t="n">
+        <v>1.4659106</v>
+      </c>
+      <c r="I361" s="1"/>
+      <c r="J361" s="1"/>
+    </row>
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D362" s="1" t="n">
+        <v>1.0370094</v>
+      </c>
+      <c r="E362" s="1" t="n">
+        <v>1.5734404</v>
+      </c>
+      <c r="F362" s="1" t="n">
+        <v>1.1590172</v>
+      </c>
+      <c r="G362" s="1" t="n">
+        <v>2.0819272</v>
+      </c>
+      <c r="H362" s="1" t="n">
+        <v>1.2153392</v>
+      </c>
+      <c r="I362" s="1"/>
+      <c r="J362" s="1"/>
     </row>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Output Data/Crpo/Common_folder/Performance/Performance_testing.xlsx
+++ b/Output Data/Crpo/Common_folder/Performance/Performance_testing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="AMSIN_NON_EU" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2920" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2944" uniqueCount="617">
   <si>
     <t xml:space="preserve">Run Number</t>
   </si>
@@ -1240,6 +1240,18 @@
     <t xml:space="preserve">2022-04-29</t>
   </si>
   <si>
+    <t xml:space="preserve">2022-05-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:57:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:59:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:01:AM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:41:PM</t>
   </si>
   <si>
@@ -1321,9 +1333,6 @@
     <t xml:space="preserve">09:09:AM</t>
   </si>
   <si>
-    <t xml:space="preserve">10:59:AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">11:25:AM</t>
   </si>
   <si>
@@ -1600,9 +1609,6 @@
     <t xml:space="preserve">05:45:PM</t>
   </si>
   <si>
-    <t xml:space="preserve">10:57:AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">01:09:PM</t>
   </si>
   <si>
@@ -1735,6 +1741,9 @@
     <t xml:space="preserve">03:12:PM</t>
   </si>
   <si>
+    <t xml:space="preserve">11:06:AM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:44:PM</t>
   </si>
   <si>
@@ -1766,9 +1775,6 @@
   </si>
   <si>
     <t xml:space="preserve">10:42:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:06:AM</t>
   </si>
   <si>
     <t xml:space="preserve">01:21:PM</t>
@@ -2082,8 +2088,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A338" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H358" activeCellId="0" sqref="H358"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A340" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E362" activeCellId="0" sqref="E362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11864,7 +11870,7 @@
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
     </row>
-    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="n">
         <v>358</v>
       </c>
@@ -11892,7 +11898,7 @@
       <c r="I360" s="1"/>
       <c r="J360" s="1"/>
     </row>
-    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="n">
         <v>359</v>
       </c>
@@ -11920,7 +11926,7 @@
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
     </row>
-    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="n">
         <v>360</v>
       </c>
@@ -11947,6 +11953,90 @@
       </c>
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
+    </row>
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D363" s="1" t="n">
+        <v>0.4417958</v>
+      </c>
+      <c r="E363" s="1" t="n">
+        <v>0.508114</v>
+      </c>
+      <c r="F363" s="1" t="n">
+        <v>0.3866802</v>
+      </c>
+      <c r="G363" s="1" t="n">
+        <v>1.7645258</v>
+      </c>
+      <c r="H363" s="1" t="n">
+        <v>0.5099618</v>
+      </c>
+      <c r="I363" s="1"/>
+      <c r="J363" s="1"/>
+    </row>
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D364" s="1" t="n">
+        <v>0.5993294</v>
+      </c>
+      <c r="E364" s="1" t="n">
+        <v>0.5038074</v>
+      </c>
+      <c r="F364" s="1" t="n">
+        <v>0.6473142</v>
+      </c>
+      <c r="G364" s="1" t="n">
+        <v>2.012457</v>
+      </c>
+      <c r="H364" s="1" t="n">
+        <v>0.7920638</v>
+      </c>
+      <c r="I364" s="1"/>
+      <c r="J364" s="1"/>
+    </row>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D365" s="1" t="n">
+        <v>0.506397</v>
+      </c>
+      <c r="E365" s="1" t="n">
+        <v>0.4143228</v>
+      </c>
+      <c r="F365" s="1" t="n">
+        <v>0.4228892</v>
+      </c>
+      <c r="G365" s="1" t="n">
+        <v>1.7305422</v>
+      </c>
+      <c r="H365" s="1" t="n">
+        <v>0.691593</v>
+      </c>
+      <c r="I365" s="1"/>
+      <c r="J365" s="1"/>
     </row>
     <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -11987,8 +12077,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A339" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E363" activeCellId="0" sqref="E363"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A341" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E364" activeCellId="0" sqref="E364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12039,7 +12129,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>2.0220664</v>
@@ -12065,7 +12155,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>2.4586498</v>
@@ -12221,7 +12311,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>2.1589454</v>
@@ -12247,7 +12337,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>2.0390428</v>
@@ -12299,7 +12389,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>1.9875636</v>
@@ -12377,7 +12467,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>2.1964826</v>
@@ -12611,7 +12701,7 @@
         <v>36</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>2.6861386</v>
@@ -12663,7 +12753,7 @@
         <v>36</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>2.330873</v>
@@ -12689,7 +12779,7 @@
         <v>36</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>2.4523078</v>
@@ -12715,7 +12805,7 @@
         <v>36</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>2.3690538</v>
@@ -12767,7 +12857,7 @@
         <v>43</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>2.3269536</v>
@@ -13001,7 +13091,7 @@
         <v>53</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>2.569399</v>
@@ -13027,7 +13117,7 @@
         <v>53</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>2.2719068</v>
@@ -13079,7 +13169,7 @@
         <v>57</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>2.5803136</v>
@@ -13131,7 +13221,7 @@
         <v>61</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>2.4560934</v>
@@ -13183,7 +13273,7 @@
         <v>61</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>2.7843442</v>
@@ -13469,7 +13559,7 @@
         <v>77</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D57" s="1" t="n">
         <v>2.9062288</v>
@@ -13755,7 +13845,7 @@
         <v>92</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D68" s="1" t="n">
         <v>5.4740242</v>
@@ -13781,7 +13871,7 @@
         <v>92</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D69" s="1" t="n">
         <v>5.0492016</v>
@@ -13937,7 +14027,7 @@
         <v>100</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D75" s="1" t="n">
         <v>2.7314032</v>
@@ -13963,7 +14053,7 @@
         <v>100</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D76" s="1" t="n">
         <v>2.7375454</v>
@@ -14275,7 +14365,7 @@
         <v>115</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D88" s="1" t="n">
         <v>1.9251046</v>
@@ -14405,7 +14495,7 @@
         <v>123</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D93" s="1" t="n">
         <v>2.6339666</v>
@@ -14431,7 +14521,7 @@
         <v>123</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D94" s="1" t="n">
         <v>2.4568346</v>
@@ -14587,7 +14677,7 @@
         <v>128</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D100" s="1" t="n">
         <v>2.403287</v>
@@ -14769,7 +14859,7 @@
         <v>136</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D107" s="1" t="n">
         <v>2.208845</v>
@@ -14977,7 +15067,7 @@
         <v>141</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D115" s="1" t="n">
         <v>2.1219888</v>
@@ -15081,7 +15171,7 @@
         <v>149</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D119" s="1" t="n">
         <v>2.5949094</v>
@@ -15133,7 +15223,7 @@
         <v>149</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D121" s="1" t="n">
         <v>1.9941926</v>
@@ -15159,7 +15249,7 @@
         <v>153</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D122" s="1" t="n">
         <v>2.4594108</v>
@@ -15367,7 +15457,7 @@
         <v>161</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D130" s="1" t="n">
         <v>1.9619838</v>
@@ -15445,7 +15535,7 @@
         <v>166</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D133" s="1" t="n">
         <v>1.8671148</v>
@@ -15817,7 +15907,7 @@
         <v>181</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="D147" s="1" t="n">
         <v>3.166509</v>
@@ -15845,7 +15935,7 @@
         <v>181</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D148" s="1" t="n">
         <v>3.119118</v>
@@ -15873,7 +15963,7 @@
         <v>181</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D149" s="1" t="n">
         <v>2.901321</v>
@@ -16377,7 +16467,7 @@
         <v>204</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D167" s="1" t="n">
         <v>1.8280256</v>
@@ -16489,7 +16579,7 @@
         <v>208</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D171" s="1" t="n">
         <v>3.5371194</v>
@@ -16573,7 +16663,7 @@
         <v>212</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D174" s="1" t="n">
         <v>1.8331202</v>
@@ -16629,7 +16719,7 @@
         <v>212</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D176" s="1" t="n">
         <v>1.8676058</v>
@@ -16657,7 +16747,7 @@
         <v>212</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D177" s="1" t="n">
         <v>1.8565564</v>
@@ -16685,7 +16775,7 @@
         <v>212</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D178" s="1" t="n">
         <v>1.971548</v>
@@ -16713,7 +16803,7 @@
         <v>212</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D179" s="1" t="n">
         <v>1.8706844</v>
@@ -16769,7 +16859,7 @@
         <v>223</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D181" s="1" t="n">
         <v>5.40063</v>
@@ -16797,7 +16887,7 @@
         <v>224</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D182" s="1" t="n">
         <v>5.4141288</v>
@@ -16825,7 +16915,7 @@
         <v>224</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D183" s="1" t="n">
         <v>3.5907054</v>
@@ -16853,7 +16943,7 @@
         <v>224</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D184" s="1" t="n">
         <v>5.850038</v>
@@ -16993,7 +17083,7 @@
         <v>231</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D189" s="1" t="n">
         <v>3.4026254</v>
@@ -17021,7 +17111,7 @@
         <v>231</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D190" s="1" t="n">
         <v>4.1027616</v>
@@ -17105,7 +17195,7 @@
         <v>235</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D193" s="1" t="n">
         <v>3.3968766</v>
@@ -17161,7 +17251,7 @@
         <v>238</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D195" s="1" t="n">
         <v>3.509683</v>
@@ -17217,7 +17307,7 @@
         <v>242</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D197" s="1" t="n">
         <v>2.5360378</v>
@@ -17245,7 +17335,7 @@
         <v>242</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D198" s="1" t="n">
         <v>3.464471</v>
@@ -17329,7 +17419,7 @@
         <v>245</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D201" s="1" t="n">
         <v>3.7638234</v>
@@ -17357,7 +17447,7 @@
         <v>245</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D202" s="1" t="n">
         <v>3.3836568</v>
@@ -17553,7 +17643,7 @@
         <v>259</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D209" s="1" t="n">
         <v>3.5728318</v>
@@ -17743,7 +17833,7 @@
         <v>263</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D216" s="1" t="n">
         <v>4.0429436</v>
@@ -17855,7 +17945,7 @@
         <v>267</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D220" s="1" t="n">
         <v>0.8299536</v>
@@ -17939,7 +18029,7 @@
         <v>271</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D223" s="1" t="n">
         <v>1.1506692</v>
@@ -18107,7 +18197,7 @@
         <v>278</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D229" s="1" t="n">
         <v>1.5232918</v>
@@ -18135,7 +18225,7 @@
         <v>278</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D230" s="1" t="n">
         <v>0.994806</v>
@@ -18163,7 +18253,7 @@
         <v>281</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D231" s="1" t="n">
         <v>1.552873</v>
@@ -18191,7 +18281,7 @@
         <v>281</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D232" s="1" t="n">
         <v>1.2558504</v>
@@ -18219,7 +18309,7 @@
         <v>281</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D233" s="1" t="n">
         <v>1.0213794</v>
@@ -18247,7 +18337,7 @@
         <v>284</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D234" s="1" t="n">
         <v>1.6652852</v>
@@ -18275,7 +18365,7 @@
         <v>284</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D235" s="1" t="n">
         <v>1.243835</v>
@@ -18303,7 +18393,7 @@
         <v>284</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D236" s="1" t="n">
         <v>1.3231242</v>
@@ -18331,7 +18421,7 @@
         <v>287</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D237" s="1" t="n">
         <v>2.7850712</v>
@@ -18359,7 +18449,7 @@
         <v>287</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D238" s="1" t="n">
         <v>1.16294</v>
@@ -18471,7 +18561,7 @@
         <v>290</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D242" s="1" t="n">
         <v>1.1442586</v>
@@ -18555,7 +18645,7 @@
         <v>293</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D245" s="1" t="n">
         <v>1.0933622</v>
@@ -18583,7 +18673,7 @@
         <v>297</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D246" s="1" t="n">
         <v>1.237047</v>
@@ -18611,7 +18701,7 @@
         <v>297</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D247" s="1" t="n">
         <v>1.0054706</v>
@@ -18667,7 +18757,7 @@
         <v>301</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D249" s="1" t="n">
         <v>1.1073458</v>
@@ -18723,7 +18813,7 @@
         <v>301</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D251" s="1" t="n">
         <v>1.222255</v>
@@ -18779,7 +18869,7 @@
         <v>305</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D253" s="1" t="n">
         <v>1.2915912</v>
@@ -18807,7 +18897,7 @@
         <v>305</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D254" s="1" t="n">
         <v>1.4755444</v>
@@ -18891,7 +18981,7 @@
         <v>309</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D257" s="1" t="n">
         <v>1.6525032</v>
@@ -18919,7 +19009,7 @@
         <v>313</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D258" s="1" t="n">
         <v>1.4030888</v>
@@ -18947,7 +19037,7 @@
         <v>313</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D259" s="1" t="n">
         <v>1.7073458</v>
@@ -19003,7 +19093,7 @@
         <v>315</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D261" s="1" t="n">
         <v>1.2533678</v>
@@ -19031,7 +19121,7 @@
         <v>315</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D262" s="1" t="n">
         <v>1.0722906</v>
@@ -19059,7 +19149,7 @@
         <v>315</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D263" s="1" t="n">
         <v>1.609837</v>
@@ -19115,7 +19205,7 @@
         <v>319</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D265" s="1" t="n">
         <v>0.77692</v>
@@ -19283,7 +19373,7 @@
         <v>325</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D271" s="1" t="n">
         <v>1.0228846</v>
@@ -19395,7 +19485,7 @@
         <v>327</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D275" s="1" t="n">
         <v>1.1446152</v>
@@ -19479,7 +19569,7 @@
         <v>328</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D278" s="1" t="n">
         <v>1.5527048</v>
@@ -19507,7 +19597,7 @@
         <v>329</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D279" s="1" t="n">
         <v>1.4303816</v>
@@ -19591,7 +19681,7 @@
         <v>332</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D282" s="1" t="n">
         <v>2.0393262</v>
@@ -19843,7 +19933,7 @@
         <v>343</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D291" s="1" t="n">
         <v>1.0106018</v>
@@ -20151,7 +20241,7 @@
         <v>349</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D302" s="1" t="n">
         <v>1.0508514</v>
@@ -20347,7 +20437,7 @@
         <v>359</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D309" s="1" t="n">
         <v>0.9645174</v>
@@ -20487,7 +20577,7 @@
         <v>361</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D314" s="1" t="n">
         <v>1.0889602</v>
@@ -20515,7 +20605,7 @@
         <v>363</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D315" s="1" t="n">
         <v>1.0836156</v>
@@ -20541,7 +20631,7 @@
         <v>363</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D316" s="1" t="n">
         <v>1.1278328</v>
@@ -20567,7 +20657,7 @@
         <v>363</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D317" s="1" t="n">
         <v>1.0575332</v>
@@ -20593,7 +20683,7 @@
         <v>367</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D318" s="1" t="n">
         <v>1.1442586</v>
@@ -20619,7 +20709,7 @@
         <v>367</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D319" s="1" t="n">
         <v>2.9026132</v>
@@ -20645,7 +20735,7 @@
         <v>367</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D320" s="1" t="n">
         <v>1.8269942</v>
@@ -20839,7 +20929,7 @@
         <v>374</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D327" s="1" t="n">
         <v>1.0938576</v>
@@ -20867,7 +20957,7 @@
         <v>374</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D328" s="1" t="n">
         <v>1.1224288</v>
@@ -20895,7 +20985,7 @@
         <v>374</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D329" s="1" t="n">
         <v>0.9831546</v>
@@ -20979,7 +21069,7 @@
         <v>378</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D332" s="1" t="n">
         <v>0.9578956</v>
@@ -21119,7 +21209,7 @@
         <v>384</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="D337" s="1" t="n">
         <v>0.8906878</v>
@@ -21147,7 +21237,7 @@
         <v>384</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D338" s="1" t="n">
         <v>0.9432826</v>
@@ -21175,7 +21265,7 @@
         <v>388</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D339" s="1" t="n">
         <v>0.8824616</v>
@@ -21203,7 +21293,7 @@
         <v>388</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D340" s="1" t="n">
         <v>0.9309194</v>
@@ -21231,7 +21321,7 @@
         <v>388</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D341" s="1" t="n">
         <v>0.9131502</v>
@@ -21315,7 +21405,7 @@
         <v>389</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D344" s="1" t="n">
         <v>0.8480704</v>
@@ -21371,7 +21461,7 @@
         <v>390</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D346" s="1" t="n">
         <v>0.8884836</v>
@@ -21483,7 +21573,7 @@
         <v>392</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D350" s="1" t="n">
         <v>0.867561</v>
@@ -21595,7 +21685,7 @@
         <v>397</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D354" s="1" t="n">
         <v>0.8549158</v>
@@ -21651,7 +21741,7 @@
         <v>397</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="D356" s="1" t="n">
         <v>0.9937986</v>
@@ -21707,7 +21797,7 @@
         <v>400</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D358" s="1" t="n">
         <v>1.1687012</v>
@@ -21755,7 +21845,7 @@
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
     </row>
-    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="n">
         <v>358</v>
       </c>
@@ -21783,7 +21873,7 @@
       <c r="I360" s="1"/>
       <c r="J360" s="1"/>
     </row>
-    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="n">
         <v>359</v>
       </c>
@@ -21811,7 +21901,7 @@
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
     </row>
-    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="n">
         <v>360</v>
       </c>
@@ -21838,6 +21928,90 @@
       </c>
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
+    </row>
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D363" s="1" t="n">
+        <v>0.8727218</v>
+      </c>
+      <c r="E363" s="1" t="n">
+        <v>1.6835556</v>
+      </c>
+      <c r="F363" s="1" t="n">
+        <v>1.030967</v>
+      </c>
+      <c r="G363" s="1" t="n">
+        <v>1.712541</v>
+      </c>
+      <c r="H363" s="1" t="n">
+        <v>1.2722202</v>
+      </c>
+      <c r="I363" s="1"/>
+      <c r="J363" s="1"/>
+    </row>
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D364" s="1" t="n">
+        <v>0.9332144</v>
+      </c>
+      <c r="E364" s="1" t="n">
+        <v>1.2540606</v>
+      </c>
+      <c r="F364" s="1" t="n">
+        <v>0.9355352</v>
+      </c>
+      <c r="G364" s="1" t="n">
+        <v>1.5424928</v>
+      </c>
+      <c r="H364" s="1" t="n">
+        <v>1.2246438</v>
+      </c>
+      <c r="I364" s="1"/>
+      <c r="J364" s="1"/>
+    </row>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D365" s="1" t="n">
+        <v>0.9126868</v>
+      </c>
+      <c r="E365" s="1" t="n">
+        <v>1.319111</v>
+      </c>
+      <c r="F365" s="1" t="n">
+        <v>0.9637496</v>
+      </c>
+      <c r="G365" s="1" t="n">
+        <v>1.7088656</v>
+      </c>
+      <c r="H365" s="1" t="n">
+        <v>1.2401784</v>
+      </c>
+      <c r="I365" s="1"/>
+      <c r="J365" s="1"/>
     </row>
     <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -21876,7 +22050,7 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A338" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A342" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D357" activeCellId="0" sqref="D357"/>
     </sheetView>
   </sheetViews>
@@ -21928,7 +22102,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0.7804054</v>
@@ -21954,7 +22128,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>0.7779802</v>
@@ -21980,7 +22154,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>0.7043458</v>
@@ -22006,7 +22180,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>0.7145706</v>
@@ -22136,7 +22310,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>0.7373706</v>
@@ -22188,7 +22362,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>0.7234852</v>
@@ -22292,7 +22466,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>0.3510038</v>
@@ -22474,7 +22648,7 @@
         <v>36</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>0.9795414</v>
@@ -22526,7 +22700,7 @@
         <v>36</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>2.3842444</v>
@@ -22552,7 +22726,7 @@
         <v>36</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>2.139728</v>
@@ -22578,7 +22752,7 @@
         <v>36</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>0.7112716</v>
@@ -22604,7 +22778,7 @@
         <v>36</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>0.67812</v>
@@ -22682,7 +22856,7 @@
         <v>43</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>0.630812</v>
@@ -22812,7 +22986,7 @@
         <v>50</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>0.7043458</v>
@@ -22838,7 +23012,7 @@
         <v>50</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>0.7145706</v>
@@ -22864,7 +23038,7 @@
         <v>53</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>1.2584274</v>
@@ -22890,7 +23064,7 @@
         <v>53</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>1.3856258</v>
@@ -23020,7 +23194,7 @@
         <v>61</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>0.7883284</v>
@@ -23072,7 +23246,7 @@
         <v>61</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>0.6814198</v>
@@ -23202,7 +23376,7 @@
         <v>69</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D51" s="1" t="n">
         <v>1.4049502</v>
@@ -23254,7 +23428,7 @@
         <v>73</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D53" s="1" t="n">
         <v>0.9897652</v>
@@ -23332,7 +23506,7 @@
         <v>77</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D56" s="1" t="n">
         <v>1.2353042</v>
@@ -23384,7 +23558,7 @@
         <v>77</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="D58" s="1" t="n">
         <v>1.2364662</v>
@@ -23436,7 +23610,7 @@
         <v>81</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D60" s="1" t="n">
         <v>1.1438926</v>
@@ -23644,7 +23818,7 @@
         <v>92</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D68" s="1" t="n">
         <v>1.6301784</v>
@@ -23696,7 +23870,7 @@
         <v>92</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D70" s="1" t="n">
         <v>1.4442308</v>
@@ -23852,7 +24026,7 @@
         <v>100</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D76" s="1" t="n">
         <v>1.1822766</v>
@@ -23930,7 +24104,7 @@
         <v>104</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D79" s="1" t="n">
         <v>1.573159</v>
@@ -24268,7 +24442,7 @@
         <v>123</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D92" s="1" t="n">
         <v>1.5482428</v>
@@ -24294,7 +24468,7 @@
         <v>123</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D93" s="1" t="n">
         <v>1.8137892</v>
@@ -24398,7 +24572,7 @@
         <v>124</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D97" s="1" t="n">
         <v>1.4182292</v>
@@ -24502,7 +24676,7 @@
         <v>131</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="D101" s="1" t="n">
         <v>1.2684794</v>
@@ -24658,7 +24832,7 @@
         <v>136</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D107" s="1" t="n">
         <v>1.295247</v>
@@ -24684,7 +24858,7 @@
         <v>136</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="D108" s="1" t="n">
         <v>1.22489</v>
@@ -24710,7 +24884,7 @@
         <v>136</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D109" s="1" t="n">
         <v>1.1823422</v>
@@ -24736,7 +24910,7 @@
         <v>139</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D110" s="1" t="n">
         <v>1.1176918</v>
@@ -24840,7 +25014,7 @@
         <v>141</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D114" s="1" t="n">
         <v>0.5937896</v>
@@ -25022,7 +25196,7 @@
         <v>149</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D121" s="1" t="n">
         <v>0.5689302</v>
@@ -25152,7 +25326,7 @@
         <v>157</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D126" s="1" t="n">
         <v>0.6197108</v>
@@ -25464,7 +25638,7 @@
         <v>166</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D138" s="1" t="n">
         <v>0.3957292</v>
@@ -25594,7 +25768,7 @@
         <v>179</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D143" s="1" t="n">
         <v>1.1999426</v>
@@ -26042,7 +26216,7 @@
         <v>193</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D159" s="1" t="n">
         <v>0.295909</v>
@@ -26266,7 +26440,7 @@
         <v>204</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="D167" s="1" t="n">
         <v>0.4000132</v>
@@ -26406,7 +26580,7 @@
         <v>212</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="D172" s="1" t="n">
         <v>0.3234768</v>
@@ -26490,7 +26664,7 @@
         <v>212</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D175" s="1" t="n">
         <v>0.3166722</v>
@@ -26546,7 +26720,7 @@
         <v>212</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D177" s="1" t="n">
         <v>0.3405566</v>
@@ -26658,7 +26832,7 @@
         <v>223</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D181" s="1" t="n">
         <v>0.358663</v>
@@ -26742,7 +26916,7 @@
         <v>224</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D184" s="1" t="n">
         <v>0.4261214</v>
@@ -26770,7 +26944,7 @@
         <v>227</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D185" s="1" t="n">
         <v>0.3895084</v>
@@ -26854,7 +27028,7 @@
         <v>231</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D188" s="1" t="n">
         <v>0.295778</v>
@@ -26882,7 +27056,7 @@
         <v>231</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D189" s="1" t="n">
         <v>0.3548348</v>
@@ -26910,7 +27084,7 @@
         <v>231</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="D190" s="1" t="n">
         <v>0.313661</v>
@@ -27022,7 +27196,7 @@
         <v>238</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>525</v>
+        <v>406</v>
       </c>
       <c r="D194" s="1" t="n">
         <v>0.3890278</v>
@@ -27050,7 +27224,7 @@
         <v>238</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D195" s="1" t="n">
         <v>0.374767</v>
@@ -27078,7 +27252,7 @@
         <v>238</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="D196" s="1" t="n">
         <v>0.4295846</v>
@@ -27106,7 +27280,7 @@
         <v>242</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D197" s="1" t="n">
         <v>0.3186188</v>
@@ -27134,7 +27308,7 @@
         <v>242</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D198" s="1" t="n">
         <v>0.389133</v>
@@ -27246,7 +27420,7 @@
         <v>245</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D202" s="1" t="n">
         <v>0.313982</v>
@@ -27526,7 +27700,7 @@
         <v>259</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D212" s="1" t="n">
         <v>0.302686</v>
@@ -27582,7 +27756,7 @@
         <v>259</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D214" s="1" t="n">
         <v>0.3648386</v>
@@ -27666,7 +27840,7 @@
         <v>263</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D217" s="1" t="n">
         <v>0.4100988</v>
@@ -27722,7 +27896,7 @@
         <v>267</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D219" s="1" t="n">
         <v>0.4394846</v>
@@ -27750,7 +27924,7 @@
         <v>267</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D220" s="1" t="n">
         <v>0.406968</v>
@@ -27890,7 +28064,7 @@
         <v>272</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D225" s="1" t="n">
         <v>0.9309204</v>
@@ -27974,7 +28148,7 @@
         <v>278</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D228" s="1" t="n">
         <v>1.3197092</v>
@@ -28058,7 +28232,7 @@
         <v>281</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D231" s="1" t="n">
         <v>1.4583628</v>
@@ -28086,7 +28260,7 @@
         <v>281</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D232" s="1" t="n">
         <v>1.2032768</v>
@@ -28114,7 +28288,7 @@
         <v>281</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D233" s="1" t="n">
         <v>1.93539</v>
@@ -28142,7 +28316,7 @@
         <v>284</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D234" s="1" t="n">
         <v>1.2197114</v>
@@ -28170,7 +28344,7 @@
         <v>284</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D235" s="1" t="n">
         <v>0.718877</v>
@@ -28198,7 +28372,7 @@
         <v>284</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D236" s="1" t="n">
         <v>0.677923</v>
@@ -28226,7 +28400,7 @@
         <v>287</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D237" s="1" t="n">
         <v>0.6190238</v>
@@ -28254,7 +28428,7 @@
         <v>287</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D238" s="1" t="n">
         <v>0.72822</v>
@@ -28338,7 +28512,7 @@
         <v>290</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D241" s="1" t="n">
         <v>1.2253808</v>
@@ -28394,7 +28568,7 @@
         <v>293</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D243" s="1" t="n">
         <v>1.3338492</v>
@@ -28422,7 +28596,7 @@
         <v>293</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D244" s="1" t="n">
         <v>1.139152</v>
@@ -28450,7 +28624,7 @@
         <v>293</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D245" s="1" t="n">
         <v>1.3185088</v>
@@ -28646,7 +28820,7 @@
         <v>305</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D252" s="1" t="n">
         <v>1.5462522</v>
@@ -28674,7 +28848,7 @@
         <v>305</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D253" s="1" t="n">
         <v>1.1359782</v>
@@ -28702,7 +28876,7 @@
         <v>305</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D254" s="1" t="n">
         <v>1.9068204</v>
@@ -28730,7 +28904,7 @@
         <v>309</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D255" s="1" t="n">
         <v>0.7759672</v>
@@ -28758,7 +28932,7 @@
         <v>309</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D256" s="1" t="n">
         <v>0.796901</v>
@@ -28786,7 +28960,7 @@
         <v>309</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D257" s="1" t="n">
         <v>0.886213</v>
@@ -28814,7 +28988,7 @@
         <v>313</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D258" s="1" t="n">
         <v>1.2621764</v>
@@ -28842,7 +29016,7 @@
         <v>313</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D259" s="1" t="n">
         <v>1.2655732</v>
@@ -28870,7 +29044,7 @@
         <v>313</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D260" s="1" t="n">
         <v>1.418487</v>
@@ -28926,7 +29100,7 @@
         <v>315</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D262" s="1" t="n">
         <v>0.7384096</v>
@@ -29066,7 +29240,7 @@
         <v>323</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D267" s="1" t="n">
         <v>0.682399</v>
@@ -29234,7 +29408,7 @@
         <v>327</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D273" s="1" t="n">
         <v>0.5630494</v>
@@ -29262,7 +29436,7 @@
         <v>327</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D274" s="1" t="n">
         <v>0.6325376</v>
@@ -29290,7 +29464,7 @@
         <v>327</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D275" s="1" t="n">
         <v>0.7121288</v>
@@ -29430,7 +29604,7 @@
         <v>329</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D280" s="1" t="n">
         <v>0.6527698</v>
@@ -29458,7 +29632,7 @@
         <v>329</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D281" s="1" t="n">
         <v>0.7653444</v>
@@ -29486,7 +29660,7 @@
         <v>332</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D282" s="1" t="n">
         <v>0.585329</v>
@@ -29542,7 +29716,7 @@
         <v>332</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D284" s="1" t="n">
         <v>0.8150382</v>
@@ -29570,7 +29744,7 @@
         <v>336</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D285" s="1" t="n">
         <v>0.971585</v>
@@ -29598,7 +29772,7 @@
         <v>336</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D286" s="1" t="n">
         <v>0.7461152</v>
@@ -29626,7 +29800,7 @@
         <v>336</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D287" s="1" t="n">
         <v>0.650945</v>
@@ -29766,7 +29940,7 @@
         <v>343</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D292" s="1" t="n">
         <v>0.6690088</v>
@@ -29822,7 +29996,7 @@
         <v>346</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D294" s="1" t="n">
         <v>0.5851698</v>
@@ -29878,7 +30052,7 @@
         <v>346</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D296" s="1" t="n">
         <v>0.6530738</v>
@@ -29962,7 +30136,7 @@
         <v>347</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D299" s="1" t="n">
         <v>0.755497</v>
@@ -29990,7 +30164,7 @@
         <v>349</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D300" s="1" t="n">
         <v>0.7284484</v>
@@ -30018,7 +30192,7 @@
         <v>349</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D301" s="1" t="n">
         <v>0.8258526</v>
@@ -30074,7 +30248,7 @@
         <v>352</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D303" s="1" t="n">
         <v>0.6179646</v>
@@ -30102,7 +30276,7 @@
         <v>352</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D304" s="1" t="n">
         <v>0.6414728</v>
@@ -30186,7 +30360,7 @@
         <v>356</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D307" s="1" t="n">
         <v>0.5738846</v>
@@ -30214,7 +30388,7 @@
         <v>356</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D308" s="1" t="n">
         <v>0.7374152</v>
@@ -30326,7 +30500,7 @@
         <v>361</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D312" s="1" t="n">
         <v>0.4729554</v>
@@ -30382,7 +30556,7 @@
         <v>361</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D314" s="1" t="n">
         <v>0.4964624</v>
@@ -30410,7 +30584,7 @@
         <v>363</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D315" s="1" t="n">
         <v>0.4964188</v>
@@ -30606,7 +30780,7 @@
         <v>371</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D322" s="1" t="n">
         <v>0.442656</v>
@@ -30634,7 +30808,7 @@
         <v>371</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D323" s="1" t="n">
         <v>0.566659</v>
@@ -30718,7 +30892,7 @@
         <v>372</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D326" s="1" t="n">
         <v>0.5812864</v>
@@ -30830,7 +31004,7 @@
         <v>378</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D330" s="1" t="n">
         <v>0.6586386</v>
@@ -30914,7 +31088,7 @@
         <v>380</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D333" s="1" t="n">
         <v>0.5722014</v>
@@ -30942,7 +31116,7 @@
         <v>380</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D334" s="1" t="n">
         <v>0.4633974</v>
@@ -30970,7 +31144,7 @@
         <v>380</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D335" s="1" t="n">
         <v>0.507814</v>
@@ -30998,7 +31172,7 @@
         <v>384</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="D336" s="1" t="n">
         <v>0.4888858</v>
@@ -31082,7 +31256,7 @@
         <v>388</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D339" s="1" t="n">
         <v>0.6414728</v>
@@ -31110,7 +31284,7 @@
         <v>388</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D340" s="1" t="n">
         <v>0.6574688</v>
@@ -31138,7 +31312,7 @@
         <v>388</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D341" s="1" t="n">
         <v>0.677923</v>
@@ -31306,7 +31480,7 @@
         <v>390</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D347" s="1" t="n">
         <v>0.4808658</v>
@@ -31390,7 +31564,7 @@
         <v>392</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D350" s="1" t="n">
         <v>0.4571946</v>
@@ -31502,7 +31676,7 @@
         <v>397</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D354" s="1" t="n">
         <v>0.4574978</v>
@@ -31586,7 +31760,7 @@
         <v>400</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D357" s="1" t="n">
         <v>0.487551</v>
@@ -31614,7 +31788,7 @@
         <v>400</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D358" s="1" t="n">
         <v>0.477248</v>
@@ -31662,7 +31836,7 @@
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
     </row>
-    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="n">
         <v>358</v>
       </c>
@@ -31690,7 +31864,7 @@
       <c r="I360" s="1"/>
       <c r="J360" s="1"/>
     </row>
-    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="n">
         <v>359</v>
       </c>
@@ -31718,7 +31892,7 @@
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
     </row>
-    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="n">
         <v>360</v>
       </c>
@@ -31745,6 +31919,90 @@
       </c>
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
+    </row>
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D363" s="1" t="n">
+        <v>0.4914418</v>
+      </c>
+      <c r="E363" s="1" t="n">
+        <v>0.6429878</v>
+      </c>
+      <c r="F363" s="1" t="n">
+        <v>0.5979278</v>
+      </c>
+      <c r="G363" s="1" t="n">
+        <v>0.8602882</v>
+      </c>
+      <c r="H363" s="1" t="n">
+        <v>0.6793966</v>
+      </c>
+      <c r="I363" s="1"/>
+      <c r="J363" s="1"/>
+    </row>
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D364" s="1" t="n">
+        <v>0.6655096</v>
+      </c>
+      <c r="E364" s="1" t="n">
+        <v>0.7296622</v>
+      </c>
+      <c r="F364" s="1" t="n">
+        <v>0.831748</v>
+      </c>
+      <c r="G364" s="1" t="n">
+        <v>0.9320078</v>
+      </c>
+      <c r="H364" s="1" t="n">
+        <v>0.7326598</v>
+      </c>
+      <c r="I364" s="1"/>
+      <c r="J364" s="1"/>
+    </row>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D365" s="1" t="n">
+        <v>0.6526268</v>
+      </c>
+      <c r="E365" s="1" t="n">
+        <v>0.7442238</v>
+      </c>
+      <c r="F365" s="1" t="n">
+        <v>0.8991874</v>
+      </c>
+      <c r="G365" s="1" t="n">
+        <v>0.8505198</v>
+      </c>
+      <c r="H365" s="1" t="n">
+        <v>0.8145818</v>
+      </c>
+      <c r="I365" s="1"/>
+      <c r="J365" s="1"/>
     </row>
     <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -31782,8 +32040,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A339" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C363" activeCellId="0" sqref="C363"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A342" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F361" activeCellId="0" sqref="F361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31835,7 +32093,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>3.4656902</v>
@@ -31861,7 +32119,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>4.0852622</v>
@@ -31887,7 +32145,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>2.9817282</v>
@@ -31913,7 +32171,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>3.2355116</v>
@@ -32017,7 +32275,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>3.5561424</v>
@@ -32069,7 +32327,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>3.8741284</v>
@@ -32095,7 +32353,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>3.5923944</v>
@@ -32173,7 +32431,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>3.0850886</v>
@@ -32199,7 +32457,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>4.2818632</v>
@@ -32329,7 +32587,7 @@
         <v>32</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>2.9089418</v>
@@ -32459,7 +32717,7 @@
         <v>36</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>3.822524</v>
@@ -32485,7 +32743,7 @@
         <v>36</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>3.2866498</v>
@@ -32511,7 +32769,7 @@
         <v>36</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>3.8178666</v>
@@ -32563,7 +32821,7 @@
         <v>43</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>3.0702744</v>
@@ -32667,7 +32925,7 @@
         <v>47</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>2.9263998</v>
@@ -32719,7 +32977,7 @@
         <v>50</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>3.2355116</v>
@@ -32771,7 +33029,7 @@
         <v>53</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>4.4183598</v>
@@ -32797,7 +33055,7 @@
         <v>53</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>4.2271066</v>
@@ -32927,7 +33185,7 @@
         <v>61</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>3.8775138</v>
@@ -32979,7 +33237,7 @@
         <v>61</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>3.8538836</v>
@@ -33109,7 +33367,7 @@
         <v>69</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D51" s="1" t="n">
         <v>4.7661336</v>
@@ -33135,7 +33393,7 @@
         <v>69</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D52" s="1" t="n">
         <v>4.1553188</v>
@@ -33161,7 +33419,7 @@
         <v>73</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D53" s="1" t="n">
         <v>4.4161086</v>
@@ -33187,7 +33445,7 @@
         <v>73</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D54" s="1" t="n">
         <v>3.9109934</v>
@@ -33239,7 +33497,7 @@
         <v>77</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D56" s="1" t="n">
         <v>3.4861618</v>
@@ -33291,7 +33549,7 @@
         <v>77</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="D58" s="1" t="n">
         <v>3.52287</v>
@@ -33551,7 +33809,7 @@
         <v>92</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D68" s="1" t="n">
         <v>3.9888114</v>
@@ -33603,7 +33861,7 @@
         <v>92</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D70" s="1" t="n">
         <v>4.983335</v>
@@ -33759,7 +34017,7 @@
         <v>100</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="D76" s="1" t="n">
         <v>4.5492628</v>
@@ -34201,7 +34459,7 @@
         <v>123</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D93" s="1" t="n">
         <v>4.559301</v>
@@ -34305,7 +34563,7 @@
         <v>124</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D97" s="1" t="n">
         <v>3.7013772</v>
@@ -34383,7 +34641,7 @@
         <v>128</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="D100" s="1" t="n">
         <v>4.1470936</v>
@@ -34409,7 +34667,7 @@
         <v>131</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="D101" s="1" t="n">
         <v>4.5941812</v>
@@ -34461,7 +34719,7 @@
         <v>131</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D103" s="1" t="n">
         <v>4.2355866</v>
@@ -34565,7 +34823,7 @@
         <v>136</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D107" s="1" t="n">
         <v>3.9397008</v>
@@ -34591,7 +34849,7 @@
         <v>136</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="D108" s="1" t="n">
         <v>3.8446282</v>
@@ -34617,7 +34875,7 @@
         <v>136</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D109" s="1" t="n">
         <v>3.6811188</v>
@@ -34643,7 +34901,7 @@
         <v>139</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D110" s="1" t="n">
         <v>4.0021732</v>
@@ -34929,7 +35187,7 @@
         <v>149</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="D121" s="1" t="n">
         <v>3.7466574</v>
@@ -35059,7 +35317,7 @@
         <v>157</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D126" s="1" t="n">
         <v>3.6994948</v>
@@ -35163,7 +35421,7 @@
         <v>161</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D130" s="1" t="n">
         <v>4.1747286</v>
@@ -35189,7 +35447,7 @@
         <v>164</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="D131" s="1" t="n">
         <v>3.529065</v>
@@ -35501,7 +35759,7 @@
         <v>179</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D143" s="1" t="n">
         <v>3.6613182</v>
@@ -35613,7 +35871,7 @@
         <v>181</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D147" s="1" t="n">
         <v>4.9899384</v>
@@ -35865,7 +36123,7 @@
         <v>189</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D156" s="1" t="n">
         <v>3.6757588</v>
@@ -35949,7 +36207,7 @@
         <v>193</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D159" s="1" t="n">
         <v>3.1456856</v>
@@ -36061,7 +36319,7 @@
         <v>200</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="D163" s="1" t="n">
         <v>3.365378</v>
@@ -36173,7 +36431,7 @@
         <v>204</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="D167" s="1" t="n">
         <v>3.7039678</v>
@@ -36201,7 +36459,7 @@
         <v>204</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D168" s="1" t="n">
         <v>3.7096014</v>
@@ -36229,7 +36487,7 @@
         <v>208</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D169" s="1" t="n">
         <v>5.4967574</v>
@@ -36285,7 +36543,7 @@
         <v>208</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D171" s="1" t="n">
         <v>4.669323</v>
@@ -36481,7 +36739,7 @@
         <v>212</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D178" s="1" t="n">
         <v>3.0646552</v>
@@ -36565,7 +36823,7 @@
         <v>223</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D181" s="1" t="n">
         <v>0.9643054</v>
@@ -36621,7 +36879,7 @@
         <v>224</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D183" s="1" t="n">
         <v>0.915316</v>
@@ -36649,7 +36907,7 @@
         <v>224</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D184" s="1" t="n">
         <v>1.0040066</v>
@@ -36789,7 +37047,7 @@
         <v>231</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D189" s="1" t="n">
         <v>0.7432314</v>
@@ -36817,7 +37075,7 @@
         <v>231</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="D190" s="1" t="n">
         <v>0.7282506</v>
@@ -36929,7 +37187,7 @@
         <v>238</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>525</v>
+        <v>406</v>
       </c>
       <c r="D194" s="1" t="n">
         <v>0.769896</v>
@@ -36957,7 +37215,7 @@
         <v>238</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D195" s="1" t="n">
         <v>0.8169218</v>
@@ -36985,7 +37243,7 @@
         <v>238</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D196" s="1" t="n">
         <v>1.073331</v>
@@ -37013,7 +37271,7 @@
         <v>242</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D197" s="1" t="n">
         <v>3.6745186</v>
@@ -37041,7 +37299,7 @@
         <v>242</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D198" s="1" t="n">
         <v>3.6868922</v>
@@ -37125,7 +37383,7 @@
         <v>245</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D201" s="1" t="n">
         <v>3.7509906</v>
@@ -37153,7 +37411,7 @@
         <v>245</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D202" s="1" t="n">
         <v>3.6990118</v>
@@ -37237,7 +37495,7 @@
         <v>247</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D205" s="1" t="n">
         <v>3.5056148</v>
@@ -37433,7 +37691,7 @@
         <v>259</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D212" s="1" t="n">
         <v>0.6447578</v>
@@ -37489,7 +37747,7 @@
         <v>259</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D214" s="1" t="n">
         <v>0.9167192</v>
@@ -37657,7 +37915,7 @@
         <v>267</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D220" s="1" t="n">
         <v>0.9251752</v>
@@ -37741,7 +37999,7 @@
         <v>271</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D223" s="1" t="n">
         <v>1.3433578</v>
@@ -37825,7 +38083,7 @@
         <v>274</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D226" s="1" t="n">
         <v>2.6990146</v>
@@ -37853,7 +38111,7 @@
         <v>274</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D227" s="1" t="n">
         <v>2.7866846</v>
@@ -37909,7 +38167,7 @@
         <v>278</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D229" s="1" t="n">
         <v>1.9206712</v>
@@ -37965,7 +38223,7 @@
         <v>281</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="D231" s="1" t="n">
         <v>2.5458692</v>
@@ -38077,7 +38335,7 @@
         <v>284</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D235" s="1" t="n">
         <v>1.8179748</v>
@@ -38105,7 +38363,7 @@
         <v>284</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="D236" s="1" t="n">
         <v>1.8229778</v>
@@ -38161,7 +38419,7 @@
         <v>287</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D238" s="1" t="n">
         <v>0.9822748</v>
@@ -38189,7 +38447,7 @@
         <v>287</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D239" s="1" t="n">
         <v>1.2047334</v>
@@ -38273,7 +38531,7 @@
         <v>290</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D242" s="1" t="n">
         <v>1.595638</v>
@@ -38301,7 +38559,7 @@
         <v>293</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D243" s="1" t="n">
         <v>1.550705</v>
@@ -38329,7 +38587,7 @@
         <v>293</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D244" s="1" t="n">
         <v>1.733405</v>
@@ -38357,7 +38615,7 @@
         <v>293</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D245" s="1" t="n">
         <v>1.762443</v>
@@ -38413,7 +38671,7 @@
         <v>297</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D247" s="1" t="n">
         <v>1.9096182</v>
@@ -38441,7 +38699,7 @@
         <v>297</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D248" s="1" t="n">
         <v>1.5183776</v>
@@ -38469,7 +38727,7 @@
         <v>301</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D249" s="1" t="n">
         <v>1.9230312</v>
@@ -38497,7 +38755,7 @@
         <v>301</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D250" s="1" t="n">
         <v>1.9616156</v>
@@ -38553,7 +38811,7 @@
         <v>305</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D252" s="1" t="n">
         <v>1.6314788</v>
@@ -38581,7 +38839,7 @@
         <v>305</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D253" s="1" t="n">
         <v>1.4673412</v>
@@ -38609,7 +38867,7 @@
         <v>305</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D254" s="1" t="n">
         <v>1.6703708</v>
@@ -38637,7 +38895,7 @@
         <v>309</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D255" s="1" t="n">
         <v>1.491883</v>
@@ -38665,7 +38923,7 @@
         <v>309</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D256" s="1" t="n">
         <v>1.4376204</v>
@@ -38693,7 +38951,7 @@
         <v>309</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D257" s="1" t="n">
         <v>1.3038182</v>
@@ -38721,7 +38979,7 @@
         <v>313</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D258" s="1" t="n">
         <v>1.44942</v>
@@ -38749,7 +39007,7 @@
         <v>313</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D259" s="1" t="n">
         <v>1.7961676</v>
@@ -38777,7 +39035,7 @@
         <v>313</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D260" s="1" t="n">
         <v>1.76271</v>
@@ -38805,7 +39063,7 @@
         <v>315</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D261" s="1" t="n">
         <v>1.7891326</v>
@@ -38833,7 +39091,7 @@
         <v>315</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D262" s="1" t="n">
         <v>1.669088</v>
@@ -38861,7 +39119,7 @@
         <v>315</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D263" s="1" t="n">
         <v>1.4909798</v>
@@ -38945,7 +39203,7 @@
         <v>319</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="D266" s="1" t="n">
         <v>1.4312818</v>
@@ -39085,7 +39343,7 @@
         <v>325</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D271" s="1" t="n">
         <v>1.5375802</v>
@@ -39141,7 +39399,7 @@
         <v>327</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D273" s="1" t="n">
         <v>1.3638702</v>
@@ -39169,7 +39427,7 @@
         <v>327</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D274" s="1" t="n">
         <v>1.263996</v>
@@ -39197,7 +39455,7 @@
         <v>327</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D275" s="1" t="n">
         <v>1.2279214</v>
@@ -39337,7 +39595,7 @@
         <v>329</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D280" s="1" t="n">
         <v>1.124852</v>
@@ -39393,7 +39651,7 @@
         <v>332</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D282" s="1" t="n">
         <v>1.6275754</v>
@@ -39421,7 +39679,7 @@
         <v>332</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D283" s="1" t="n">
         <v>1.5708768</v>
@@ -39449,7 +39707,7 @@
         <v>332</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D284" s="1" t="n">
         <v>1.6431544</v>
@@ -39505,7 +39763,7 @@
         <v>336</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D286" s="1" t="n">
         <v>1.4122034</v>
@@ -39533,7 +39791,7 @@
         <v>336</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D287" s="1" t="n">
         <v>1.4755902</v>
@@ -39617,7 +39875,7 @@
         <v>340</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D290" s="1" t="n">
         <v>1.3500846</v>
@@ -39645,7 +39903,7 @@
         <v>343</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D291" s="1" t="n">
         <v>1.4293406</v>
@@ -39673,7 +39931,7 @@
         <v>343</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D292" s="1" t="n">
         <v>1.4329594</v>
@@ -39701,7 +39959,7 @@
         <v>343</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D293" s="1" t="n">
         <v>1.450452</v>
@@ -39757,7 +40015,7 @@
         <v>346</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D295" s="1" t="n">
         <v>1.3541134</v>
@@ -39785,7 +40043,7 @@
         <v>346</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D296" s="1" t="n">
         <v>1.6232472</v>
@@ -39953,7 +40211,7 @@
         <v>349</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D302" s="1" t="n">
         <v>1.4532946</v>
@@ -40009,7 +40267,7 @@
         <v>352</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D304" s="1" t="n">
         <v>1.7953464</v>
@@ -40065,7 +40323,7 @@
         <v>356</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D306" s="1" t="n">
         <v>1.389861</v>
@@ -40093,7 +40351,7 @@
         <v>356</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D307" s="1" t="n">
         <v>1.2307954</v>
@@ -40121,7 +40379,7 @@
         <v>356</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D308" s="1" t="n">
         <v>1.254881</v>
@@ -40401,7 +40659,7 @@
         <v>367</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D318" s="1" t="n">
         <v>1.2248766</v>
@@ -40429,7 +40687,7 @@
         <v>367</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D319" s="1" t="n">
         <v>1.2212258</v>
@@ -40457,7 +40715,7 @@
         <v>367</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D320" s="1" t="n">
         <v>1.1989604</v>
@@ -40597,7 +40855,7 @@
         <v>372</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D325" s="1" t="n">
         <v>1.0624674</v>
@@ -40625,7 +40883,7 @@
         <v>372</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D326" s="1" t="n">
         <v>1.0858874</v>
@@ -40653,7 +40911,7 @@
         <v>374</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D327" s="1" t="n">
         <v>1.3795824</v>
@@ -40681,7 +40939,7 @@
         <v>374</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D328" s="1" t="n">
         <v>1.2367146</v>
@@ -40709,7 +40967,7 @@
         <v>374</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D329" s="1" t="n">
         <v>1.2427274</v>
@@ -40765,7 +41023,7 @@
         <v>378</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D331" s="1" t="n">
         <v>1.5469018</v>
@@ -40821,7 +41079,7 @@
         <v>380</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D333" s="1" t="n">
         <v>1.1511158</v>
@@ -40849,7 +41107,7 @@
         <v>380</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D334" s="1" t="n">
         <v>1.7489588</v>
@@ -40877,7 +41135,7 @@
         <v>380</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D335" s="1" t="n">
         <v>1.3266318</v>
@@ -40905,7 +41163,7 @@
         <v>384</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="D336" s="1" t="n">
         <v>1.2621662</v>
@@ -40933,7 +41191,7 @@
         <v>384</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D337" s="1" t="n">
         <v>1.2015852</v>
@@ -40961,7 +41219,7 @@
         <v>384</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D338" s="1" t="n">
         <v>1.2845608</v>
@@ -41017,7 +41275,7 @@
         <v>388</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D340" s="1" t="n">
         <v>1.8179748</v>
@@ -41045,7 +41303,7 @@
         <v>388</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="D341" s="1" t="n">
         <v>1.8229778</v>
@@ -41185,7 +41443,7 @@
         <v>390</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D346" s="1" t="n">
         <v>1.094811</v>
@@ -41213,7 +41471,7 @@
         <v>390</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D347" s="1" t="n">
         <v>1.433895</v>
@@ -41269,7 +41527,7 @@
         <v>392</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D349" s="1" t="n">
         <v>1.9025118</v>
@@ -41297,7 +41555,7 @@
         <v>392</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D350" s="1" t="n">
         <v>1.8527084</v>
@@ -41465,7 +41723,7 @@
         <v>397</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D356" s="1" t="n">
         <v>1.2738502</v>
@@ -41493,7 +41751,7 @@
         <v>400</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D357" s="1" t="n">
         <v>1.5006246</v>
@@ -41521,7 +41779,7 @@
         <v>400</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D358" s="1" t="n">
         <v>1.6885894</v>
@@ -41549,7 +41807,7 @@
         <v>400</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D359" s="1" t="n">
         <v>1.1057422</v>
@@ -41569,7 +41827,7 @@
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
     </row>
-    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="n">
         <v>358</v>
       </c>
@@ -41597,7 +41855,7 @@
       <c r="I360" s="1"/>
       <c r="J360" s="1"/>
     </row>
-    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="n">
         <v>359</v>
       </c>
@@ -41625,7 +41883,7 @@
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
     </row>
-    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="n">
         <v>360</v>
       </c>
@@ -41652,6 +41910,90 @@
       </c>
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
+    </row>
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D363" s="1" t="n">
+        <v>1.1619302</v>
+      </c>
+      <c r="E363" s="1" t="n">
+        <v>1.3973718</v>
+      </c>
+      <c r="F363" s="1" t="n">
+        <v>1.3232884</v>
+      </c>
+      <c r="G363" s="1" t="n">
+        <v>2.5072664</v>
+      </c>
+      <c r="H363" s="1" t="n">
+        <v>1.5031604</v>
+      </c>
+      <c r="I363" s="1"/>
+      <c r="J363" s="1"/>
+    </row>
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D364" s="1" t="n">
+        <v>1.120924</v>
+      </c>
+      <c r="E364" s="1" t="n">
+        <v>1.7307776</v>
+      </c>
+      <c r="F364" s="1" t="n">
+        <v>1.1832768</v>
+      </c>
+      <c r="G364" s="1" t="n">
+        <v>2.1819386</v>
+      </c>
+      <c r="H364" s="1" t="n">
+        <v>1.550745</v>
+      </c>
+      <c r="I364" s="1"/>
+      <c r="J364" s="1"/>
+    </row>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D365" s="1" t="n">
+        <v>1.1963474</v>
+      </c>
+      <c r="E365" s="1" t="n">
+        <v>1.617757</v>
+      </c>
+      <c r="F365" s="1" t="n">
+        <v>1.1287288</v>
+      </c>
+      <c r="G365" s="1" t="n">
+        <v>2.0157536</v>
+      </c>
+      <c r="H365" s="1" t="n">
+        <v>1.3026474</v>
+      </c>
+      <c r="I365" s="1"/>
+      <c r="J365" s="1"/>
     </row>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Output Data/Crpo/Common_folder/Performance/Performance_testing.xlsx
+++ b/Output Data/Crpo/Common_folder/Performance/Performance_testing.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3288" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3360" uniqueCount="675">
   <si>
     <t xml:space="preserve">Run Number</t>
   </si>
@@ -1384,6 +1384,27 @@
     <t xml:space="preserve">02:33:PM</t>
   </si>
   <si>
+    <t xml:space="preserve">2022-09-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:39:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:40:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:42:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:12:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-20</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:41:PM</t>
   </si>
   <si>
@@ -1501,9 +1522,6 @@
     <t xml:space="preserve">01:08:PM</t>
   </si>
   <si>
-    <t xml:space="preserve">01:12:PM</t>
-  </si>
-  <si>
     <t xml:space="preserve">03:55:PM</t>
   </si>
   <si>
@@ -1621,9 +1639,6 @@
     <t xml:space="preserve">11:17:AM</t>
   </si>
   <si>
-    <t xml:space="preserve">03:39:PM</t>
-  </si>
-  <si>
     <t xml:space="preserve">10:10:AM</t>
   </si>
   <si>
@@ -1660,6 +1675,12 @@
     <t xml:space="preserve">02:43:PM</t>
   </si>
   <si>
+    <t xml:space="preserve">03:44:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:59:AM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:43:PM</t>
   </si>
   <si>
@@ -1849,9 +1870,6 @@
     <t xml:space="preserve">09:25:AM</t>
   </si>
   <si>
-    <t xml:space="preserve">09:59:AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">04:37:PM</t>
   </si>
   <si>
@@ -1876,12 +1894,6 @@
     <t xml:space="preserve">11:38:AM</t>
   </si>
   <si>
-    <t xml:space="preserve">03:42:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03:44:PM</t>
-  </si>
-  <si>
     <t xml:space="preserve">05:00:PM</t>
   </si>
   <si>
@@ -2024,6 +2036,18 @@
   </si>
   <si>
     <t xml:space="preserve">04:47:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:47:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:59:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:24:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:28:PM</t>
   </si>
 </sst>
 </file>
@@ -2238,8 +2262,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A388" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H410" activeCellId="0" sqref="H410"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A405" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A417" activeCellId="0" sqref="A417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13391,6 +13415,258 @@
       </c>
       <c r="I408" s="1"/>
       <c r="J408" s="1"/>
+    </row>
+    <row r="409" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D409" s="1" t="n">
+        <v>0.4698984</v>
+      </c>
+      <c r="E409" s="1" t="n">
+        <v>0.475091</v>
+      </c>
+      <c r="F409" s="1" t="n">
+        <v>0.4652842</v>
+      </c>
+      <c r="G409" s="1" t="n">
+        <v>0.7921054</v>
+      </c>
+      <c r="H409" s="1" t="n">
+        <v>0.651031</v>
+      </c>
+      <c r="I409" s="1"/>
+      <c r="J409" s="1"/>
+    </row>
+    <row r="410" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D410" s="1" t="n">
+        <v>0.450493</v>
+      </c>
+      <c r="E410" s="1" t="n">
+        <v>0.5465308</v>
+      </c>
+      <c r="F410" s="1" t="n">
+        <v>0.467787</v>
+      </c>
+      <c r="G410" s="1" t="n">
+        <v>0.7584102</v>
+      </c>
+      <c r="H410" s="1" t="n">
+        <v>0.5386426</v>
+      </c>
+      <c r="I410" s="1"/>
+      <c r="J410" s="1"/>
+    </row>
+    <row r="411" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D411" s="1" t="n">
+        <v>0.5327428</v>
+      </c>
+      <c r="E411" s="1" t="n">
+        <v>0.4466418</v>
+      </c>
+      <c r="F411" s="1" t="n">
+        <v>0.4312312</v>
+      </c>
+      <c r="G411" s="1" t="n">
+        <v>0.746337</v>
+      </c>
+      <c r="H411" s="1" t="n">
+        <v>0.486408</v>
+      </c>
+      <c r="I411" s="1"/>
+      <c r="J411" s="1"/>
+    </row>
+    <row r="412" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D412" s="1" t="n">
+        <v>0.398583</v>
+      </c>
+      <c r="E412" s="1" t="n">
+        <v>0.4246356</v>
+      </c>
+      <c r="F412" s="1" t="n">
+        <v>0.4359708</v>
+      </c>
+      <c r="G412" s="1" t="n">
+        <v>0.7996916</v>
+      </c>
+      <c r="H412" s="1" t="n">
+        <v>1.6279912</v>
+      </c>
+      <c r="I412" s="1"/>
+      <c r="J412" s="1"/>
+    </row>
+    <row r="413" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D413" s="1" t="n">
+        <v>0.6322946</v>
+      </c>
+      <c r="E413" s="1" t="n">
+        <v>0.509265</v>
+      </c>
+      <c r="F413" s="1" t="n">
+        <v>0.3970706</v>
+      </c>
+      <c r="G413" s="1" t="n">
+        <v>0.765313</v>
+      </c>
+      <c r="H413" s="1" t="n">
+        <v>0.5084678</v>
+      </c>
+      <c r="I413" s="1"/>
+      <c r="J413" s="1"/>
+    </row>
+    <row r="414" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D414" s="1" t="n">
+        <v>0.5386544</v>
+      </c>
+      <c r="E414" s="1" t="n">
+        <v>0.5637284</v>
+      </c>
+      <c r="F414" s="1" t="n">
+        <v>0.4862506</v>
+      </c>
+      <c r="G414" s="1" t="n">
+        <v>0.7276268</v>
+      </c>
+      <c r="H414" s="1" t="n">
+        <v>0.55144</v>
+      </c>
+      <c r="I414" s="1"/>
+      <c r="J414" s="1"/>
+    </row>
+    <row r="415" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D415" s="1" t="n">
+        <v>0.4193808</v>
+      </c>
+      <c r="E415" s="1" t="n">
+        <v>0.5007356</v>
+      </c>
+      <c r="F415" s="1" t="n">
+        <v>0.450102</v>
+      </c>
+      <c r="G415" s="1" t="n">
+        <v>0.7837262</v>
+      </c>
+      <c r="H415" s="1" t="n">
+        <v>0.5883984</v>
+      </c>
+      <c r="I415" s="1"/>
+      <c r="J415" s="1"/>
+    </row>
+    <row r="416" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D416" s="1" t="n">
+        <v>0.5044008</v>
+      </c>
+      <c r="E416" s="1" t="n">
+        <v>0.4726578</v>
+      </c>
+      <c r="F416" s="1" t="n">
+        <v>0.4594928</v>
+      </c>
+      <c r="G416" s="1" t="n">
+        <v>0.7441302</v>
+      </c>
+      <c r="H416" s="1" t="n">
+        <v>0.4875538</v>
+      </c>
+      <c r="I416" s="1"/>
+      <c r="J416" s="1"/>
+    </row>
+    <row r="417" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D417" s="1" t="n">
+        <v>0.5002</v>
+      </c>
+      <c r="E417" s="1" t="n">
+        <v>0.5188726</v>
+      </c>
+      <c r="F417" s="1" t="n">
+        <v>0.4538296</v>
+      </c>
+      <c r="G417" s="1" t="n">
+        <v>0.81426</v>
+      </c>
+      <c r="H417" s="1" t="n">
+        <v>0.5254246</v>
+      </c>
+      <c r="I417" s="1"/>
+      <c r="J417" s="1"/>
     </row>
     <row r="1048556" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048557" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -13431,8 +13707,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A386" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H408" activeCellId="0" sqref="H408"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A397" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A417" activeCellId="0" sqref="A417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13483,7 +13759,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>2.0220664</v>
@@ -13509,7 +13785,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>2.4586498</v>
@@ -13665,7 +13941,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>2.1589454</v>
@@ -13743,7 +14019,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>1.9875636</v>
@@ -14055,7 +14331,7 @@
         <v>36</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>2.6861386</v>
@@ -14107,7 +14383,7 @@
         <v>36</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>2.330873</v>
@@ -14133,7 +14409,7 @@
         <v>36</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>2.4523078</v>
@@ -14159,7 +14435,7 @@
         <v>36</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>2.3690538</v>
@@ -14211,7 +14487,7 @@
         <v>43</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>2.3269536</v>
@@ -14445,7 +14721,7 @@
         <v>53</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>2.569399</v>
@@ -14471,7 +14747,7 @@
         <v>53</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>2.2719068</v>
@@ -14523,7 +14799,7 @@
         <v>57</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>2.5803136</v>
@@ -14575,7 +14851,7 @@
         <v>61</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>2.4560934</v>
@@ -14627,7 +14903,7 @@
         <v>61</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>2.7843442</v>
@@ -14913,7 +15189,7 @@
         <v>77</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="D57" s="1" t="n">
         <v>2.9062288</v>
@@ -15199,7 +15475,7 @@
         <v>92</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="D68" s="1" t="n">
         <v>5.4740242</v>
@@ -15225,7 +15501,7 @@
         <v>92</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="D69" s="1" t="n">
         <v>5.0492016</v>
@@ -15381,7 +15657,7 @@
         <v>100</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="D75" s="1" t="n">
         <v>2.7314032</v>
@@ -15407,7 +15683,7 @@
         <v>100</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="D76" s="1" t="n">
         <v>2.7375454</v>
@@ -15719,7 +15995,7 @@
         <v>115</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="D88" s="1" t="n">
         <v>1.9251046</v>
@@ -15849,7 +16125,7 @@
         <v>123</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="D93" s="1" t="n">
         <v>2.6339666</v>
@@ -15875,7 +16151,7 @@
         <v>123</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="D94" s="1" t="n">
         <v>2.4568346</v>
@@ -16031,7 +16307,7 @@
         <v>128</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="D100" s="1" t="n">
         <v>2.403287</v>
@@ -16213,7 +16489,7 @@
         <v>136</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="D107" s="1" t="n">
         <v>2.208845</v>
@@ -16421,7 +16697,7 @@
         <v>141</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="D115" s="1" t="n">
         <v>2.1219888</v>
@@ -16525,7 +16801,7 @@
         <v>149</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="D119" s="1" t="n">
         <v>2.5949094</v>
@@ -16577,7 +16853,7 @@
         <v>149</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="D121" s="1" t="n">
         <v>1.9941926</v>
@@ -16603,7 +16879,7 @@
         <v>153</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="D122" s="1" t="n">
         <v>2.4594108</v>
@@ -16811,7 +17087,7 @@
         <v>161</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D130" s="1" t="n">
         <v>1.9619838</v>
@@ -16889,7 +17165,7 @@
         <v>166</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="D133" s="1" t="n">
         <v>1.8671148</v>
@@ -17289,7 +17565,7 @@
         <v>181</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="D148" s="1" t="n">
         <v>3.119118</v>
@@ -17821,7 +18097,7 @@
         <v>204</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="D167" s="1" t="n">
         <v>1.8280256</v>
@@ -17933,7 +18209,7 @@
         <v>208</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="D171" s="1" t="n">
         <v>3.5371194</v>
@@ -18017,7 +18293,7 @@
         <v>212</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="D174" s="1" t="n">
         <v>1.8331202</v>
@@ -18073,7 +18349,7 @@
         <v>212</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D176" s="1" t="n">
         <v>1.8676058</v>
@@ -18101,7 +18377,7 @@
         <v>212</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="D177" s="1" t="n">
         <v>1.8565564</v>
@@ -18129,7 +18405,7 @@
         <v>212</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="D178" s="1" t="n">
         <v>1.971548</v>
@@ -18157,7 +18433,7 @@
         <v>212</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="D179" s="1" t="n">
         <v>1.8706844</v>
@@ -18213,7 +18489,7 @@
         <v>223</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="D181" s="1" t="n">
         <v>5.40063</v>
@@ -18241,7 +18517,7 @@
         <v>224</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="D182" s="1" t="n">
         <v>5.4141288</v>
@@ -18269,7 +18545,7 @@
         <v>224</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="D183" s="1" t="n">
         <v>3.5907054</v>
@@ -18297,7 +18573,7 @@
         <v>224</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="D184" s="1" t="n">
         <v>5.850038</v>
@@ -18437,7 +18713,7 @@
         <v>231</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="D189" s="1" t="n">
         <v>3.4026254</v>
@@ -18465,7 +18741,7 @@
         <v>231</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="D190" s="1" t="n">
         <v>4.1027616</v>
@@ -18549,7 +18825,7 @@
         <v>235</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="D193" s="1" t="n">
         <v>3.3968766</v>
@@ -18605,7 +18881,7 @@
         <v>238</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="D195" s="1" t="n">
         <v>3.509683</v>
@@ -18661,7 +18937,7 @@
         <v>242</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="D197" s="1" t="n">
         <v>2.5360378</v>
@@ -18689,7 +18965,7 @@
         <v>242</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>492</v>
+        <v>458</v>
       </c>
       <c r="D198" s="1" t="n">
         <v>3.464471</v>
@@ -18773,7 +19049,7 @@
         <v>245</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="D201" s="1" t="n">
         <v>3.7638234</v>
@@ -18801,7 +19077,7 @@
         <v>245</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="D202" s="1" t="n">
         <v>3.3836568</v>
@@ -18997,7 +19273,7 @@
         <v>259</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="D209" s="1" t="n">
         <v>3.5728318</v>
@@ -19187,7 +19463,7 @@
         <v>263</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="D216" s="1" t="n">
         <v>4.0429436</v>
@@ -19299,7 +19575,7 @@
         <v>267</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="D220" s="1" t="n">
         <v>0.8299536</v>
@@ -19383,7 +19659,7 @@
         <v>271</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="D223" s="1" t="n">
         <v>1.1506692</v>
@@ -19551,7 +19827,7 @@
         <v>278</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="D229" s="1" t="n">
         <v>1.5232918</v>
@@ -19579,7 +19855,7 @@
         <v>278</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="D230" s="1" t="n">
         <v>0.994806</v>
@@ -19607,7 +19883,7 @@
         <v>281</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="D231" s="1" t="n">
         <v>1.552873</v>
@@ -19635,7 +19911,7 @@
         <v>281</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="D232" s="1" t="n">
         <v>1.2558504</v>
@@ -19663,7 +19939,7 @@
         <v>281</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="D233" s="1" t="n">
         <v>1.0213794</v>
@@ -19691,7 +19967,7 @@
         <v>284</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="D234" s="1" t="n">
         <v>1.6652852</v>
@@ -19719,7 +19995,7 @@
         <v>284</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="D235" s="1" t="n">
         <v>1.243835</v>
@@ -19747,7 +20023,7 @@
         <v>284</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="D236" s="1" t="n">
         <v>1.3231242</v>
@@ -19775,7 +20051,7 @@
         <v>287</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="D237" s="1" t="n">
         <v>2.7850712</v>
@@ -19803,7 +20079,7 @@
         <v>287</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="D238" s="1" t="n">
         <v>1.16294</v>
@@ -19915,7 +20191,7 @@
         <v>290</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="D242" s="1" t="n">
         <v>1.1442586</v>
@@ -19999,7 +20275,7 @@
         <v>293</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="D245" s="1" t="n">
         <v>1.0933622</v>
@@ -20027,7 +20303,7 @@
         <v>297</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="D246" s="1" t="n">
         <v>1.237047</v>
@@ -20055,7 +20331,7 @@
         <v>297</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="D247" s="1" t="n">
         <v>1.0054706</v>
@@ -20111,7 +20387,7 @@
         <v>301</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="D249" s="1" t="n">
         <v>1.1073458</v>
@@ -20167,7 +20443,7 @@
         <v>301</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="D251" s="1" t="n">
         <v>1.222255</v>
@@ -20223,7 +20499,7 @@
         <v>305</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="D253" s="1" t="n">
         <v>1.2915912</v>
@@ -20251,7 +20527,7 @@
         <v>305</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="D254" s="1" t="n">
         <v>1.4755444</v>
@@ -20335,7 +20611,7 @@
         <v>309</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="D257" s="1" t="n">
         <v>1.6525032</v>
@@ -20363,7 +20639,7 @@
         <v>313</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="D258" s="1" t="n">
         <v>1.4030888</v>
@@ -20447,7 +20723,7 @@
         <v>315</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="D261" s="1" t="n">
         <v>1.2533678</v>
@@ -20475,7 +20751,7 @@
         <v>315</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="D262" s="1" t="n">
         <v>1.0722906</v>
@@ -20503,7 +20779,7 @@
         <v>315</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="D263" s="1" t="n">
         <v>1.609837</v>
@@ -20559,7 +20835,7 @@
         <v>319</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="D265" s="1" t="n">
         <v>0.77692</v>
@@ -20727,7 +21003,7 @@
         <v>325</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="D271" s="1" t="n">
         <v>1.0228846</v>
@@ -20839,7 +21115,7 @@
         <v>327</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="D275" s="1" t="n">
         <v>1.1446152</v>
@@ -20923,7 +21199,7 @@
         <v>328</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="D278" s="1" t="n">
         <v>1.5527048</v>
@@ -21035,7 +21311,7 @@
         <v>332</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="D282" s="1" t="n">
         <v>2.0393262</v>
@@ -21287,7 +21563,7 @@
         <v>343</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="D291" s="1" t="n">
         <v>1.0106018</v>
@@ -21595,7 +21871,7 @@
         <v>349</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="D302" s="1" t="n">
         <v>1.0508514</v>
@@ -21959,7 +22235,7 @@
         <v>363</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="D315" s="1" t="n">
         <v>1.0836156</v>
@@ -21985,7 +22261,7 @@
         <v>363</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="D316" s="1" t="n">
         <v>1.1278328</v>
@@ -22011,7 +22287,7 @@
         <v>363</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="D317" s="1" t="n">
         <v>1.0575332</v>
@@ -22037,7 +22313,7 @@
         <v>367</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="D318" s="1" t="n">
         <v>1.1442586</v>
@@ -22063,7 +22339,7 @@
         <v>367</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="D319" s="1" t="n">
         <v>2.9026132</v>
@@ -22089,7 +22365,7 @@
         <v>367</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="D320" s="1" t="n">
         <v>1.8269942</v>
@@ -22283,7 +22559,7 @@
         <v>374</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="D327" s="1" t="n">
         <v>1.0938576</v>
@@ -22311,7 +22587,7 @@
         <v>374</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="D328" s="1" t="n">
         <v>1.1224288</v>
@@ -22339,7 +22615,7 @@
         <v>374</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="D329" s="1" t="n">
         <v>0.9831546</v>
@@ -22423,7 +22699,7 @@
         <v>378</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="D332" s="1" t="n">
         <v>0.9578956</v>
@@ -22563,7 +22839,7 @@
         <v>384</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="D337" s="1" t="n">
         <v>0.8906878</v>
@@ -22619,7 +22895,7 @@
         <v>388</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="D339" s="1" t="n">
         <v>0.8824616</v>
@@ -22647,7 +22923,7 @@
         <v>388</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="D340" s="1" t="n">
         <v>0.9309194</v>
@@ -22703,7 +22979,7 @@
         <v>389</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="D342" s="1" t="n">
         <v>0.8480704</v>
@@ -22759,7 +23035,7 @@
         <v>390</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="D344" s="1" t="n">
         <v>0.8884836</v>
@@ -22871,7 +23147,7 @@
         <v>392</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>532</v>
+        <v>454</v>
       </c>
       <c r="D348" s="1" t="n">
         <v>0.867561</v>
@@ -22983,7 +23259,7 @@
         <v>397</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="D352" s="1" t="n">
         <v>0.8549158</v>
@@ -23039,7 +23315,7 @@
         <v>397</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="D354" s="1" t="n">
         <v>0.9937986</v>
@@ -23095,7 +23371,7 @@
         <v>400</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="D356" s="1" t="n">
         <v>1.1687012</v>
@@ -23403,7 +23679,7 @@
         <v>413</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="D367" s="1" t="n">
         <v>0.7802448</v>
@@ -23431,7 +23707,7 @@
         <v>413</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="D368" s="1" t="n">
         <v>0.856432</v>
@@ -23459,7 +23735,7 @@
         <v>413</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="D369" s="1" t="n">
         <v>0.742178</v>
@@ -23487,7 +23763,7 @@
         <v>416</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="D370" s="1" t="n">
         <v>0.8480704</v>
@@ -23515,7 +23791,7 @@
         <v>416</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="D371" s="1" t="n">
         <v>0.8902724</v>
@@ -23599,7 +23875,7 @@
         <v>419</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="D374" s="1" t="n">
         <v>0.8859908</v>
@@ -23627,7 +23903,7 @@
         <v>419</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="D375" s="1" t="n">
         <v>0.7859908</v>
@@ -23683,7 +23959,7 @@
         <v>421</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="D377" s="1" t="n">
         <v>0.9712706</v>
@@ -23767,7 +24043,7 @@
         <v>424</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="D380" s="1" t="n">
         <v>0.9298226</v>
@@ -23963,7 +24239,7 @@
         <v>427</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="D387" s="1" t="n">
         <v>1.0997634</v>
@@ -24047,7 +24323,7 @@
         <v>430</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="D390" s="1" t="n">
         <v>0.8397898</v>
@@ -24215,7 +24491,7 @@
         <v>436</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="D396" s="1" t="n">
         <v>0.8838868</v>
@@ -24355,7 +24631,7 @@
         <v>443</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="D401" s="1" t="n">
         <v>1.1740952</v>
@@ -24467,7 +24743,7 @@
         <v>447</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="D405" s="1" t="n">
         <v>0.8564124</v>
@@ -24523,7 +24799,7 @@
         <v>449</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="D407" s="1" t="n">
         <v>1.019362</v>
@@ -24551,7 +24827,7 @@
         <v>449</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="D408" s="1" t="n">
         <v>0.9369246</v>
@@ -24570,6 +24846,258 @@
       </c>
       <c r="I408" s="1"/>
       <c r="J408" s="1"/>
+    </row>
+    <row r="409" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D409" s="1" t="n">
+        <v>0.9135412</v>
+      </c>
+      <c r="E409" s="1" t="n">
+        <v>1.6103846</v>
+      </c>
+      <c r="F409" s="1" t="n">
+        <v>1.1613294</v>
+      </c>
+      <c r="G409" s="1" t="n">
+        <v>1.8155954</v>
+      </c>
+      <c r="H409" s="1" t="n">
+        <v>1.2663712</v>
+      </c>
+      <c r="I409" s="1"/>
+      <c r="J409" s="1"/>
+    </row>
+    <row r="410" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D410" s="1" t="n">
+        <v>0.9403712</v>
+      </c>
+      <c r="E410" s="1" t="n">
+        <v>1.2680926</v>
+      </c>
+      <c r="F410" s="1" t="n">
+        <v>1.2099844</v>
+      </c>
+      <c r="G410" s="1" t="n">
+        <v>1.6367048</v>
+      </c>
+      <c r="H410" s="1" t="n">
+        <v>1.331764</v>
+      </c>
+      <c r="I410" s="1"/>
+      <c r="J410" s="1"/>
+    </row>
+    <row r="411" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D411" s="1" t="n">
+        <v>0.909365</v>
+      </c>
+      <c r="E411" s="1" t="n">
+        <v>1.0652534</v>
+      </c>
+      <c r="F411" s="1" t="n">
+        <v>0.9477462</v>
+      </c>
+      <c r="G411" s="1" t="n">
+        <v>1.5496674</v>
+      </c>
+      <c r="H411" s="1" t="n">
+        <v>1.1105866</v>
+      </c>
+      <c r="I411" s="1"/>
+      <c r="J411" s="1"/>
+    </row>
+    <row r="412" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D412" s="1" t="n">
+        <v>0.8692952</v>
+      </c>
+      <c r="E412" s="1" t="n">
+        <v>1.6664998</v>
+      </c>
+      <c r="F412" s="1" t="n">
+        <v>2.3406304</v>
+      </c>
+      <c r="G412" s="1" t="n">
+        <v>1.713585</v>
+      </c>
+      <c r="H412" s="1" t="n">
+        <v>1.174505</v>
+      </c>
+      <c r="I412" s="1"/>
+      <c r="J412" s="1"/>
+    </row>
+    <row r="413" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D413" s="1" t="n">
+        <v>0.953074</v>
+      </c>
+      <c r="E413" s="1" t="n">
+        <v>1.303205</v>
+      </c>
+      <c r="F413" s="1" t="n">
+        <v>0.9496896</v>
+      </c>
+      <c r="G413" s="1" t="n">
+        <v>1.842264</v>
+      </c>
+      <c r="H413" s="1" t="n">
+        <v>1.1831776</v>
+      </c>
+      <c r="I413" s="1"/>
+      <c r="J413" s="1"/>
+    </row>
+    <row r="414" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D414" s="1" t="n">
+        <v>1.077193</v>
+      </c>
+      <c r="E414" s="1" t="n">
+        <v>1.5643314</v>
+      </c>
+      <c r="F414" s="1" t="n">
+        <v>0.8710194</v>
+      </c>
+      <c r="G414" s="1" t="n">
+        <v>1.6136948</v>
+      </c>
+      <c r="H414" s="1" t="n">
+        <v>1.1428652</v>
+      </c>
+      <c r="I414" s="1"/>
+      <c r="J414" s="1"/>
+    </row>
+    <row r="415" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D415" s="1" t="n">
+        <v>0.892325</v>
+      </c>
+      <c r="E415" s="1" t="n">
+        <v>1.7490972</v>
+      </c>
+      <c r="F415" s="1" t="n">
+        <v>0.9523358</v>
+      </c>
+      <c r="G415" s="1" t="n">
+        <v>1.6682952</v>
+      </c>
+      <c r="H415" s="1" t="n">
+        <v>1.1753534</v>
+      </c>
+      <c r="I415" s="1"/>
+      <c r="J415" s="1"/>
+    </row>
+    <row r="416" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D416" s="1" t="n">
+        <v>0.9743262</v>
+      </c>
+      <c r="E416" s="1" t="n">
+        <v>1.2787844</v>
+      </c>
+      <c r="F416" s="1" t="n">
+        <v>0.8215872</v>
+      </c>
+      <c r="G416" s="1" t="n">
+        <v>1.39143</v>
+      </c>
+      <c r="H416" s="1" t="n">
+        <v>1.5711204</v>
+      </c>
+      <c r="I416" s="1"/>
+      <c r="J416" s="1"/>
+    </row>
+    <row r="417" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D417" s="1" t="n">
+        <v>0.8982754</v>
+      </c>
+      <c r="E417" s="1" t="n">
+        <v>1.5242326</v>
+      </c>
+      <c r="F417" s="1" t="n">
+        <v>1.1208228</v>
+      </c>
+      <c r="G417" s="1" t="n">
+        <v>1.6586306</v>
+      </c>
+      <c r="H417" s="1" t="n">
+        <v>1.2083182</v>
+      </c>
+      <c r="I417" s="1"/>
+      <c r="J417" s="1"/>
     </row>
     <row r="1048555" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048556" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -24611,8 +25139,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A385" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G404" activeCellId="0" sqref="G404"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A398" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A417" activeCellId="0" sqref="A417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24663,7 +25191,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0.7804054</v>
@@ -24689,7 +25217,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>0.7779802</v>
@@ -24715,7 +25243,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>0.7043458</v>
@@ -24741,7 +25269,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>0.7145706</v>
@@ -24871,7 +25399,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>0.7373706</v>
@@ -24923,7 +25451,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>0.7234852</v>
@@ -25027,7 +25555,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>0.3510038</v>
@@ -25209,7 +25737,7 @@
         <v>36</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>0.9795414</v>
@@ -25261,7 +25789,7 @@
         <v>36</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>2.3842444</v>
@@ -25287,7 +25815,7 @@
         <v>36</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>2.139728</v>
@@ -25417,7 +25945,7 @@
         <v>43</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>0.630812</v>
@@ -25547,7 +26075,7 @@
         <v>50</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>0.7043458</v>
@@ -25573,7 +26101,7 @@
         <v>50</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>0.7145706</v>
@@ -25599,7 +26127,7 @@
         <v>53</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>1.2584274</v>
@@ -25625,7 +26153,7 @@
         <v>53</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>1.3856258</v>
@@ -25755,7 +26283,7 @@
         <v>61</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>0.7883284</v>
@@ -25807,7 +26335,7 @@
         <v>61</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>0.6814198</v>
@@ -25937,7 +26465,7 @@
         <v>69</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="D51" s="1" t="n">
         <v>1.4049502</v>
@@ -25989,7 +26517,7 @@
         <v>73</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="D53" s="1" t="n">
         <v>0.9897652</v>
@@ -26067,7 +26595,7 @@
         <v>77</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="D56" s="1" t="n">
         <v>1.2353042</v>
@@ -26119,7 +26647,7 @@
         <v>77</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="D58" s="1" t="n">
         <v>1.2364662</v>
@@ -26171,7 +26699,7 @@
         <v>81</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="D60" s="1" t="n">
         <v>1.1438926</v>
@@ -26379,7 +26907,7 @@
         <v>92</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="D68" s="1" t="n">
         <v>1.6301784</v>
@@ -26431,7 +26959,7 @@
         <v>92</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="D70" s="1" t="n">
         <v>1.4442308</v>
@@ -26587,7 +27115,7 @@
         <v>100</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="D76" s="1" t="n">
         <v>1.1822766</v>
@@ -26665,7 +27193,7 @@
         <v>104</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="D79" s="1" t="n">
         <v>1.573159</v>
@@ -27003,7 +27531,7 @@
         <v>123</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="D92" s="1" t="n">
         <v>1.5482428</v>
@@ -27029,7 +27557,7 @@
         <v>123</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="D93" s="1" t="n">
         <v>1.8137892</v>
@@ -27133,7 +27661,7 @@
         <v>124</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="D97" s="1" t="n">
         <v>1.4182292</v>
@@ -27237,7 +27765,7 @@
         <v>131</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="D101" s="1" t="n">
         <v>1.2684794</v>
@@ -27393,7 +27921,7 @@
         <v>136</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="D107" s="1" t="n">
         <v>1.295247</v>
@@ -27419,7 +27947,7 @@
         <v>136</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="D108" s="1" t="n">
         <v>1.22489</v>
@@ -27445,7 +27973,7 @@
         <v>136</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="D109" s="1" t="n">
         <v>1.1823422</v>
@@ -27471,7 +27999,7 @@
         <v>139</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="D110" s="1" t="n">
         <v>1.1176918</v>
@@ -27575,7 +28103,7 @@
         <v>141</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="D114" s="1" t="n">
         <v>0.5937896</v>
@@ -27757,7 +28285,7 @@
         <v>149</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="D121" s="1" t="n">
         <v>0.5689302</v>
@@ -27887,7 +28415,7 @@
         <v>157</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="D126" s="1" t="n">
         <v>0.6197108</v>
@@ -28199,7 +28727,7 @@
         <v>166</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="D138" s="1" t="n">
         <v>0.3957292</v>
@@ -28329,7 +28857,7 @@
         <v>179</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="D143" s="1" t="n">
         <v>1.1999426</v>
@@ -28777,7 +29305,7 @@
         <v>193</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="D159" s="1" t="n">
         <v>0.295909</v>
@@ -29001,7 +29529,7 @@
         <v>204</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="D167" s="1" t="n">
         <v>0.4000132</v>
@@ -29141,7 +29669,7 @@
         <v>212</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="D172" s="1" t="n">
         <v>0.3234768</v>
@@ -29225,7 +29753,7 @@
         <v>212</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="D175" s="1" t="n">
         <v>0.3166722</v>
@@ -29281,7 +29809,7 @@
         <v>212</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D177" s="1" t="n">
         <v>0.3405566</v>
@@ -29393,7 +29921,7 @@
         <v>223</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="D181" s="1" t="n">
         <v>0.358663</v>
@@ -29477,7 +30005,7 @@
         <v>224</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="D184" s="1" t="n">
         <v>0.4261214</v>
@@ -29505,7 +30033,7 @@
         <v>227</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="D185" s="1" t="n">
         <v>0.3895084</v>
@@ -29589,7 +30117,7 @@
         <v>231</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="D188" s="1" t="n">
         <v>0.295778</v>
@@ -29617,7 +30145,7 @@
         <v>231</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="D189" s="1" t="n">
         <v>0.3548348</v>
@@ -29645,7 +30173,7 @@
         <v>231</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="D190" s="1" t="n">
         <v>0.313661</v>
@@ -29785,7 +30313,7 @@
         <v>238</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="D195" s="1" t="n">
         <v>0.374767</v>
@@ -29841,7 +30369,7 @@
         <v>242</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="D197" s="1" t="n">
         <v>0.3186188</v>
@@ -29869,7 +30397,7 @@
         <v>242</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>492</v>
+        <v>458</v>
       </c>
       <c r="D198" s="1" t="n">
         <v>0.389133</v>
@@ -29981,7 +30509,7 @@
         <v>245</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="D202" s="1" t="n">
         <v>0.313982</v>
@@ -30261,7 +30789,7 @@
         <v>259</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D212" s="1" t="n">
         <v>0.302686</v>
@@ -30317,7 +30845,7 @@
         <v>259</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="D214" s="1" t="n">
         <v>0.3648386</v>
@@ -30401,7 +30929,7 @@
         <v>263</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="D217" s="1" t="n">
         <v>0.4100988</v>
@@ -30457,7 +30985,7 @@
         <v>267</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="D219" s="1" t="n">
         <v>0.4394846</v>
@@ -30485,7 +31013,7 @@
         <v>267</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="D220" s="1" t="n">
         <v>0.406968</v>
@@ -30625,7 +31153,7 @@
         <v>272</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="D225" s="1" t="n">
         <v>0.9309204</v>
@@ -30709,7 +31237,7 @@
         <v>278</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="D228" s="1" t="n">
         <v>1.3197092</v>
@@ -30849,7 +31377,7 @@
         <v>281</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="D233" s="1" t="n">
         <v>1.93539</v>
@@ -30877,7 +31405,7 @@
         <v>284</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="D234" s="1" t="n">
         <v>1.2197114</v>
@@ -30905,7 +31433,7 @@
         <v>284</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="D235" s="1" t="n">
         <v>0.718877</v>
@@ -30933,7 +31461,7 @@
         <v>284</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="D236" s="1" t="n">
         <v>0.677923</v>
@@ -30961,7 +31489,7 @@
         <v>287</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="D237" s="1" t="n">
         <v>0.6190238</v>
@@ -30989,7 +31517,7 @@
         <v>287</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="D238" s="1" t="n">
         <v>0.72822</v>
@@ -31073,7 +31601,7 @@
         <v>290</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="D241" s="1" t="n">
         <v>1.2253808</v>
@@ -31129,7 +31657,7 @@
         <v>293</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="D243" s="1" t="n">
         <v>1.3338492</v>
@@ -31157,7 +31685,7 @@
         <v>293</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="D244" s="1" t="n">
         <v>1.139152</v>
@@ -31185,7 +31713,7 @@
         <v>293</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="D245" s="1" t="n">
         <v>1.3185088</v>
@@ -31381,7 +31909,7 @@
         <v>305</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="D252" s="1" t="n">
         <v>1.5462522</v>
@@ -31409,7 +31937,7 @@
         <v>305</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="D253" s="1" t="n">
         <v>1.1359782</v>
@@ -31437,7 +31965,7 @@
         <v>305</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="D254" s="1" t="n">
         <v>1.9068204</v>
@@ -31465,7 +31993,7 @@
         <v>309</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="D255" s="1" t="n">
         <v>0.7759672</v>
@@ -31493,7 +32021,7 @@
         <v>309</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="D256" s="1" t="n">
         <v>0.796901</v>
@@ -31521,7 +32049,7 @@
         <v>309</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="D257" s="1" t="n">
         <v>0.886213</v>
@@ -31577,7 +32105,7 @@
         <v>313</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="D259" s="1" t="n">
         <v>1.2655732</v>
@@ -31605,7 +32133,7 @@
         <v>313</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="D260" s="1" t="n">
         <v>1.418487</v>
@@ -31661,7 +32189,7 @@
         <v>315</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="D262" s="1" t="n">
         <v>0.7384096</v>
@@ -31801,7 +32329,7 @@
         <v>323</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="D267" s="1" t="n">
         <v>0.682399</v>
@@ -31997,7 +32525,7 @@
         <v>327</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="D274" s="1" t="n">
         <v>0.6325376</v>
@@ -32025,7 +32553,7 @@
         <v>327</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="D275" s="1" t="n">
         <v>0.7121288</v>
@@ -32165,7 +32693,7 @@
         <v>329</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="D280" s="1" t="n">
         <v>0.6527698</v>
@@ -32193,7 +32721,7 @@
         <v>329</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="D281" s="1" t="n">
         <v>0.7653444</v>
@@ -32221,7 +32749,7 @@
         <v>332</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="D282" s="1" t="n">
         <v>0.585329</v>
@@ -32277,7 +32805,7 @@
         <v>332</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="D284" s="1" t="n">
         <v>0.8150382</v>
@@ -32305,7 +32833,7 @@
         <v>336</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="D285" s="1" t="n">
         <v>0.971585</v>
@@ -32333,7 +32861,7 @@
         <v>336</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="D286" s="1" t="n">
         <v>0.7461152</v>
@@ -32361,7 +32889,7 @@
         <v>336</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="D287" s="1" t="n">
         <v>0.650945</v>
@@ -32501,7 +33029,7 @@
         <v>343</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="D292" s="1" t="n">
         <v>0.6690088</v>
@@ -32557,7 +33085,7 @@
         <v>346</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="D294" s="1" t="n">
         <v>0.5851698</v>
@@ -32613,7 +33141,7 @@
         <v>346</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="D296" s="1" t="n">
         <v>0.6530738</v>
@@ -32725,7 +33253,7 @@
         <v>349</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="D300" s="1" t="n">
         <v>0.7284484</v>
@@ -32753,7 +33281,7 @@
         <v>349</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="D301" s="1" t="n">
         <v>0.8258526</v>
@@ -32809,7 +33337,7 @@
         <v>352</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D303" s="1" t="n">
         <v>0.6179646</v>
@@ -32837,7 +33365,7 @@
         <v>352</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="D304" s="1" t="n">
         <v>0.6414728</v>
@@ -32921,7 +33449,7 @@
         <v>356</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="D307" s="1" t="n">
         <v>0.5738846</v>
@@ -32949,7 +33477,7 @@
         <v>356</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="D308" s="1" t="n">
         <v>0.7374152</v>
@@ -33061,7 +33589,7 @@
         <v>361</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="D312" s="1" t="n">
         <v>0.4729554</v>
@@ -33117,7 +33645,7 @@
         <v>361</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="D314" s="1" t="n">
         <v>0.4964624</v>
@@ -33145,7 +33673,7 @@
         <v>363</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="D315" s="1" t="n">
         <v>0.4964188</v>
@@ -33341,7 +33869,7 @@
         <v>371</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="D322" s="1" t="n">
         <v>0.442656</v>
@@ -33369,7 +33897,7 @@
         <v>371</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="D323" s="1" t="n">
         <v>0.566659</v>
@@ -33453,7 +33981,7 @@
         <v>372</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="D326" s="1" t="n">
         <v>0.5812864</v>
@@ -33565,7 +34093,7 @@
         <v>378</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="D330" s="1" t="n">
         <v>0.6586386</v>
@@ -33649,7 +34177,7 @@
         <v>380</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>608</v>
+        <v>551</v>
       </c>
       <c r="D333" s="1" t="n">
         <v>0.5722014</v>
@@ -33733,7 +34261,7 @@
         <v>384</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="D336" s="1" t="n">
         <v>0.4888858</v>
@@ -33817,7 +34345,7 @@
         <v>388</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="D339" s="1" t="n">
         <v>0.6414728</v>
@@ -33845,7 +34373,7 @@
         <v>388</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="D340" s="1" t="n">
         <v>0.6574688</v>
@@ -33873,7 +34401,7 @@
         <v>388</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="D341" s="1" t="n">
         <v>0.677923</v>
@@ -34069,7 +34597,7 @@
         <v>392</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>532</v>
+        <v>454</v>
       </c>
       <c r="D348" s="1" t="n">
         <v>0.4571946</v>
@@ -34181,7 +34709,7 @@
         <v>397</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="D352" s="1" t="n">
         <v>0.4574978</v>
@@ -34265,7 +34793,7 @@
         <v>400</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="D355" s="1" t="n">
         <v>0.487551</v>
@@ -34293,7 +34821,7 @@
         <v>400</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="D356" s="1" t="n">
         <v>0.477248</v>
@@ -34461,7 +34989,7 @@
         <v>405</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="D362" s="1" t="n">
         <v>0.6655096</v>
@@ -34517,7 +35045,7 @@
         <v>409</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="D364" s="1" t="n">
         <v>0.4052278</v>
@@ -34545,7 +35073,7 @@
         <v>409</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="D365" s="1" t="n">
         <v>0.5533558</v>
@@ -34573,7 +35101,7 @@
         <v>409</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="D366" s="1" t="n">
         <v>0.4890346</v>
@@ -34657,7 +35185,7 @@
         <v>413</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="D369" s="1" t="n">
         <v>0.3139382</v>
@@ -34685,7 +35213,7 @@
         <v>416</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="D370" s="1" t="n">
         <v>0.390865</v>
@@ -34713,7 +35241,7 @@
         <v>416</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="D371" s="1" t="n">
         <v>0.4438434</v>
@@ -34769,7 +35297,7 @@
         <v>419</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>617</v>
+        <v>456</v>
       </c>
       <c r="D373" s="1" t="n">
         <v>0.5090138</v>
@@ -34825,7 +35353,7 @@
         <v>419</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>618</v>
+        <v>550</v>
       </c>
       <c r="D375" s="1" t="n">
         <v>0.4660964</v>
@@ -34881,7 +35409,7 @@
         <v>421</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="D377" s="1" t="n">
         <v>0.516373</v>
@@ -35049,7 +35577,7 @@
         <v>425</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="D383" s="1" t="n">
         <v>0.491538</v>
@@ -35133,7 +35661,7 @@
         <v>427</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="D386" s="1" t="n">
         <v>0.8864982</v>
@@ -35161,7 +35689,7 @@
         <v>427</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="D387" s="1" t="n">
         <v>0.3870754</v>
@@ -35329,7 +35857,7 @@
         <v>434</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="D393" s="1" t="n">
         <v>0.5330274</v>
@@ -35441,7 +35969,7 @@
         <v>439</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D397" s="1" t="n">
         <v>0.5570532</v>
@@ -35525,7 +36053,7 @@
         <v>443</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="D400" s="1" t="n">
         <v>0.4808822</v>
@@ -35553,7 +36081,7 @@
         <v>443</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="D401" s="1" t="n">
         <v>0.516833</v>
@@ -35581,7 +36109,7 @@
         <v>443</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="D402" s="1" t="n">
         <v>0.4596934</v>
@@ -35721,7 +36249,7 @@
         <v>449</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="D407" s="1" t="n">
         <v>0.4115694</v>
@@ -35749,7 +36277,7 @@
         <v>449</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="D408" s="1" t="n">
         <v>0.44833</v>
@@ -35768,6 +36296,258 @@
       </c>
       <c r="I408" s="1"/>
       <c r="J408" s="1"/>
+    </row>
+    <row r="409" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D409" s="1" t="n">
+        <v>0.5214524</v>
+      </c>
+      <c r="E409" s="1" t="n">
+        <v>0.6416462</v>
+      </c>
+      <c r="F409" s="1" t="n">
+        <v>0.6258464</v>
+      </c>
+      <c r="G409" s="1" t="n">
+        <v>0.7633418</v>
+      </c>
+      <c r="H409" s="1" t="n">
+        <v>0.6971102</v>
+      </c>
+      <c r="I409" s="1"/>
+      <c r="J409" s="1"/>
+    </row>
+    <row r="410" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D410" s="1" t="n">
+        <v>0.5503418</v>
+      </c>
+      <c r="E410" s="1" t="n">
+        <v>0.622711</v>
+      </c>
+      <c r="F410" s="1" t="n">
+        <v>0.6406598</v>
+      </c>
+      <c r="G410" s="1" t="n">
+        <v>0.7155998</v>
+      </c>
+      <c r="H410" s="1" t="n">
+        <v>0.635638</v>
+      </c>
+      <c r="I410" s="1"/>
+      <c r="J410" s="1"/>
+    </row>
+    <row r="411" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D411" s="1" t="n">
+        <v>0.4710798</v>
+      </c>
+      <c r="E411" s="1" t="n">
+        <v>0.6054352</v>
+      </c>
+      <c r="F411" s="1" t="n">
+        <v>0.6141848</v>
+      </c>
+      <c r="G411" s="1" t="n">
+        <v>0.8173382</v>
+      </c>
+      <c r="H411" s="1" t="n">
+        <v>0.6443164</v>
+      </c>
+      <c r="I411" s="1"/>
+      <c r="J411" s="1"/>
+    </row>
+    <row r="412" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D412" s="1" t="n">
+        <v>0.4369076</v>
+      </c>
+      <c r="E412" s="1" t="n">
+        <v>0.5582468</v>
+      </c>
+      <c r="F412" s="1" t="n">
+        <v>0.6995192</v>
+      </c>
+      <c r="G412" s="1" t="n">
+        <v>1.2514612</v>
+      </c>
+      <c r="H412" s="1" t="n">
+        <v>0.8655922</v>
+      </c>
+      <c r="I412" s="1"/>
+      <c r="J412" s="1"/>
+    </row>
+    <row r="413" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D413" s="1" t="n">
+        <v>0.5227878</v>
+      </c>
+      <c r="E413" s="1" t="n">
+        <v>0.6726744</v>
+      </c>
+      <c r="F413" s="1" t="n">
+        <v>0.8321382</v>
+      </c>
+      <c r="G413" s="1" t="n">
+        <v>0.7422866</v>
+      </c>
+      <c r="H413" s="1" t="n">
+        <v>0.6481352</v>
+      </c>
+      <c r="I413" s="1"/>
+      <c r="J413" s="1"/>
+    </row>
+    <row r="414" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D414" s="1" t="n">
+        <v>0.5091398</v>
+      </c>
+      <c r="E414" s="1" t="n">
+        <v>0.5933734</v>
+      </c>
+      <c r="F414" s="1" t="n">
+        <v>0.967002</v>
+      </c>
+      <c r="G414" s="1" t="n">
+        <v>0.7627396</v>
+      </c>
+      <c r="H414" s="1" t="n">
+        <v>0.6832042</v>
+      </c>
+      <c r="I414" s="1"/>
+      <c r="J414" s="1"/>
+    </row>
+    <row r="415" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D415" s="1" t="n">
+        <v>0.5566836</v>
+      </c>
+      <c r="E415" s="1" t="n">
+        <v>0.6977118</v>
+      </c>
+      <c r="F415" s="1" t="n">
+        <v>0.6281754</v>
+      </c>
+      <c r="G415" s="1" t="n">
+        <v>0.7791234</v>
+      </c>
+      <c r="H415" s="1" t="n">
+        <v>0.6408932</v>
+      </c>
+      <c r="I415" s="1"/>
+      <c r="J415" s="1"/>
+    </row>
+    <row r="416" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D416" s="1" t="n">
+        <v>0.4935468</v>
+      </c>
+      <c r="E416" s="1" t="n">
+        <v>0.5450634</v>
+      </c>
+      <c r="F416" s="1" t="n">
+        <v>0.5549618</v>
+      </c>
+      <c r="G416" s="1" t="n">
+        <v>0.7172992</v>
+      </c>
+      <c r="H416" s="1" t="n">
+        <v>0.5827236</v>
+      </c>
+      <c r="I416" s="1"/>
+      <c r="J416" s="1"/>
+    </row>
+    <row r="417" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D417" s="1" t="n">
+        <v>0.3987938</v>
+      </c>
+      <c r="E417" s="1" t="n">
+        <v>0.510659</v>
+      </c>
+      <c r="F417" s="1" t="n">
+        <v>0.5414726</v>
+      </c>
+      <c r="G417" s="1" t="n">
+        <v>0.6592016</v>
+      </c>
+      <c r="H417" s="1" t="n">
+        <v>0.5533208</v>
+      </c>
+      <c r="I417" s="1"/>
+      <c r="J417" s="1"/>
     </row>
     <row r="1048556" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048557" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -35808,8 +36588,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A387" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D410" activeCellId="0" sqref="D410"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A401" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A417" activeCellId="0" sqref="A417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35861,7 +36641,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>3.4656902</v>
@@ -35887,7 +36667,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>4.0852622</v>
@@ -35913,7 +36693,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>2.9817282</v>
@@ -35939,7 +36719,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>3.2355116</v>
@@ -36043,7 +36823,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>3.5561424</v>
@@ -36095,7 +36875,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>3.8741284</v>
@@ -36121,7 +36901,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>3.5923944</v>
@@ -36225,7 +37005,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>4.2818632</v>
@@ -36355,7 +37135,7 @@
         <v>32</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>2.9089418</v>
@@ -36485,7 +37265,7 @@
         <v>36</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>3.822524</v>
@@ -36511,7 +37291,7 @@
         <v>36</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>3.2866498</v>
@@ -36537,7 +37317,7 @@
         <v>36</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>3.8178666</v>
@@ -36589,7 +37369,7 @@
         <v>43</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>3.0702744</v>
@@ -36745,7 +37525,7 @@
         <v>50</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>3.2355116</v>
@@ -36797,7 +37577,7 @@
         <v>53</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>4.4183598</v>
@@ -36953,7 +37733,7 @@
         <v>61</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>3.8775138</v>
@@ -37005,7 +37785,7 @@
         <v>61</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>3.8538836</v>
@@ -37135,7 +37915,7 @@
         <v>69</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="D51" s="1" t="n">
         <v>4.7661336</v>
@@ -37161,7 +37941,7 @@
         <v>69</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="D52" s="1" t="n">
         <v>4.1553188</v>
@@ -37187,7 +37967,7 @@
         <v>73</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="D53" s="1" t="n">
         <v>4.4161086</v>
@@ -37213,7 +37993,7 @@
         <v>73</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="D54" s="1" t="n">
         <v>3.9109934</v>
@@ -37265,7 +38045,7 @@
         <v>77</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="D56" s="1" t="n">
         <v>3.4861618</v>
@@ -37317,7 +38097,7 @@
         <v>77</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D58" s="1" t="n">
         <v>3.52287</v>
@@ -37577,7 +38357,7 @@
         <v>92</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="D68" s="1" t="n">
         <v>3.9888114</v>
@@ -37785,7 +38565,7 @@
         <v>100</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="D76" s="1" t="n">
         <v>4.5492628</v>
@@ -38227,7 +39007,7 @@
         <v>123</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="D93" s="1" t="n">
         <v>4.559301</v>
@@ -38331,7 +39111,7 @@
         <v>124</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="D97" s="1" t="n">
         <v>3.7013772</v>
@@ -38409,7 +39189,7 @@
         <v>128</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="D100" s="1" t="n">
         <v>4.1470936</v>
@@ -38435,7 +39215,7 @@
         <v>131</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="D101" s="1" t="n">
         <v>4.5941812</v>
@@ -38487,7 +39267,7 @@
         <v>131</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="D103" s="1" t="n">
         <v>4.2355866</v>
@@ -38591,7 +39371,7 @@
         <v>136</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="D107" s="1" t="n">
         <v>3.9397008</v>
@@ -38617,7 +39397,7 @@
         <v>136</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="D108" s="1" t="n">
         <v>3.8446282</v>
@@ -38643,7 +39423,7 @@
         <v>136</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="D109" s="1" t="n">
         <v>3.6811188</v>
@@ -38669,7 +39449,7 @@
         <v>139</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="D110" s="1" t="n">
         <v>4.0021732</v>
@@ -39085,7 +39865,7 @@
         <v>157</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="D126" s="1" t="n">
         <v>3.6994948</v>
@@ -39189,7 +39969,7 @@
         <v>161</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="D130" s="1" t="n">
         <v>4.1747286</v>
@@ -39215,7 +39995,7 @@
         <v>164</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="D131" s="1" t="n">
         <v>3.529065</v>
@@ -39527,7 +40307,7 @@
         <v>179</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="D143" s="1" t="n">
         <v>3.6613182</v>
@@ -39639,7 +40419,7 @@
         <v>181</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="D147" s="1" t="n">
         <v>4.9899384</v>
@@ -39891,7 +40671,7 @@
         <v>189</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="D156" s="1" t="n">
         <v>3.6757588</v>
@@ -39975,7 +40755,7 @@
         <v>193</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="D159" s="1" t="n">
         <v>3.1456856</v>
@@ -40087,7 +40867,7 @@
         <v>200</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="D163" s="1" t="n">
         <v>3.365378</v>
@@ -40199,7 +40979,7 @@
         <v>204</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="D167" s="1" t="n">
         <v>3.7039678</v>
@@ -40227,7 +41007,7 @@
         <v>204</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="D168" s="1" t="n">
         <v>3.7096014</v>
@@ -40255,7 +41035,7 @@
         <v>208</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="D169" s="1" t="n">
         <v>5.4967574</v>
@@ -40311,7 +41091,7 @@
         <v>208</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="D171" s="1" t="n">
         <v>4.669323</v>
@@ -40507,7 +41287,7 @@
         <v>212</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="D178" s="1" t="n">
         <v>3.0646552</v>
@@ -40591,7 +41371,7 @@
         <v>223</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="D181" s="1" t="n">
         <v>0.9643054</v>
@@ -40647,7 +41427,7 @@
         <v>224</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="D183" s="1" t="n">
         <v>0.915316</v>
@@ -40675,7 +41455,7 @@
         <v>224</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="D184" s="1" t="n">
         <v>1.0040066</v>
@@ -40815,7 +41595,7 @@
         <v>231</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="D189" s="1" t="n">
         <v>0.7432314</v>
@@ -40843,7 +41623,7 @@
         <v>231</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="D190" s="1" t="n">
         <v>0.7282506</v>
@@ -40983,7 +41763,7 @@
         <v>238</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="D195" s="1" t="n">
         <v>0.8169218</v>
@@ -41011,7 +41791,7 @@
         <v>238</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="D196" s="1" t="n">
         <v>1.073331</v>
@@ -41039,7 +41819,7 @@
         <v>242</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="D197" s="1" t="n">
         <v>3.6745186</v>
@@ -41067,7 +41847,7 @@
         <v>242</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>492</v>
+        <v>458</v>
       </c>
       <c r="D198" s="1" t="n">
         <v>3.6868922</v>
@@ -41151,7 +41931,7 @@
         <v>245</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="D201" s="1" t="n">
         <v>3.7509906</v>
@@ -41179,7 +41959,7 @@
         <v>245</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="D202" s="1" t="n">
         <v>3.6990118</v>
@@ -41263,7 +42043,7 @@
         <v>247</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="D205" s="1" t="n">
         <v>3.5056148</v>
@@ -41459,7 +42239,7 @@
         <v>259</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D212" s="1" t="n">
         <v>0.6447578</v>
@@ -41515,7 +42295,7 @@
         <v>259</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="D214" s="1" t="n">
         <v>0.9167192</v>
@@ -41683,7 +42463,7 @@
         <v>267</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="D220" s="1" t="n">
         <v>0.9251752</v>
@@ -41851,7 +42631,7 @@
         <v>274</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D226" s="1" t="n">
         <v>2.6990146</v>
@@ -41879,7 +42659,7 @@
         <v>274</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="D227" s="1" t="n">
         <v>2.7866846</v>
@@ -41935,7 +42715,7 @@
         <v>278</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="D229" s="1" t="n">
         <v>1.9206712</v>
@@ -42103,7 +42883,7 @@
         <v>284</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="D235" s="1" t="n">
         <v>1.8179748</v>
@@ -42131,7 +42911,7 @@
         <v>284</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="D236" s="1" t="n">
         <v>1.8229778</v>
@@ -42187,7 +42967,7 @@
         <v>287</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="D238" s="1" t="n">
         <v>0.9822748</v>
@@ -42215,7 +42995,7 @@
         <v>287</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="D239" s="1" t="n">
         <v>1.2047334</v>
@@ -42299,7 +43079,7 @@
         <v>290</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="D242" s="1" t="n">
         <v>1.595638</v>
@@ -42327,7 +43107,7 @@
         <v>293</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="D243" s="1" t="n">
         <v>1.550705</v>
@@ -42355,7 +43135,7 @@
         <v>293</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="D244" s="1" t="n">
         <v>1.733405</v>
@@ -42383,7 +43163,7 @@
         <v>293</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="D245" s="1" t="n">
         <v>1.762443</v>
@@ -42439,7 +43219,7 @@
         <v>297</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="D247" s="1" t="n">
         <v>1.9096182</v>
@@ -42467,7 +43247,7 @@
         <v>297</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="D248" s="1" t="n">
         <v>1.5183776</v>
@@ -42495,7 +43275,7 @@
         <v>301</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="D249" s="1" t="n">
         <v>1.9230312</v>
@@ -42523,7 +43303,7 @@
         <v>301</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="D250" s="1" t="n">
         <v>1.9616156</v>
@@ -42579,7 +43359,7 @@
         <v>305</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="D252" s="1" t="n">
         <v>1.6314788</v>
@@ -42607,7 +43387,7 @@
         <v>305</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="D253" s="1" t="n">
         <v>1.4673412</v>
@@ -42635,7 +43415,7 @@
         <v>305</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="D254" s="1" t="n">
         <v>1.6703708</v>
@@ -42663,7 +43443,7 @@
         <v>309</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="D255" s="1" t="n">
         <v>1.491883</v>
@@ -42691,7 +43471,7 @@
         <v>309</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="D256" s="1" t="n">
         <v>1.4376204</v>
@@ -42719,7 +43499,7 @@
         <v>309</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="D257" s="1" t="n">
         <v>1.3038182</v>
@@ -42747,7 +43527,7 @@
         <v>313</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="D258" s="1" t="n">
         <v>1.44942</v>
@@ -42775,7 +43555,7 @@
         <v>313</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="D259" s="1" t="n">
         <v>1.7961676</v>
@@ -42803,7 +43583,7 @@
         <v>313</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="D260" s="1" t="n">
         <v>1.76271</v>
@@ -42831,7 +43611,7 @@
         <v>315</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="D261" s="1" t="n">
         <v>1.7891326</v>
@@ -42859,7 +43639,7 @@
         <v>315</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="D262" s="1" t="n">
         <v>1.669088</v>
@@ -42887,7 +43667,7 @@
         <v>315</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="D263" s="1" t="n">
         <v>1.4909798</v>
@@ -43111,7 +43891,7 @@
         <v>325</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="D271" s="1" t="n">
         <v>1.5375802</v>
@@ -43167,7 +43947,7 @@
         <v>327</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="D273" s="1" t="n">
         <v>1.3638702</v>
@@ -43195,7 +43975,7 @@
         <v>327</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="D274" s="1" t="n">
         <v>1.263996</v>
@@ -43223,7 +44003,7 @@
         <v>327</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="D275" s="1" t="n">
         <v>1.2279214</v>
@@ -43363,7 +44143,7 @@
         <v>329</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="D280" s="1" t="n">
         <v>1.124852</v>
@@ -43419,7 +44199,7 @@
         <v>332</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="D282" s="1" t="n">
         <v>1.6275754</v>
@@ -43447,7 +44227,7 @@
         <v>332</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="D283" s="1" t="n">
         <v>1.5708768</v>
@@ -43475,7 +44255,7 @@
         <v>332</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="D284" s="1" t="n">
         <v>1.6431544</v>
@@ -43531,7 +44311,7 @@
         <v>336</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="D286" s="1" t="n">
         <v>1.4122034</v>
@@ -43559,7 +44339,7 @@
         <v>336</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="D287" s="1" t="n">
         <v>1.4755902</v>
@@ -43643,7 +44423,7 @@
         <v>340</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="D290" s="1" t="n">
         <v>1.3500846</v>
@@ -43671,7 +44451,7 @@
         <v>343</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="D291" s="1" t="n">
         <v>1.4293406</v>
@@ -43699,7 +44479,7 @@
         <v>343</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="D292" s="1" t="n">
         <v>1.4329594</v>
@@ -43727,7 +44507,7 @@
         <v>343</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>608</v>
+        <v>551</v>
       </c>
       <c r="D293" s="1" t="n">
         <v>1.450452</v>
@@ -43783,7 +44563,7 @@
         <v>346</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="D295" s="1" t="n">
         <v>1.3541134</v>
@@ -43811,7 +44591,7 @@
         <v>346</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="D296" s="1" t="n">
         <v>1.6232472</v>
@@ -43979,7 +44759,7 @@
         <v>349</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="D302" s="1" t="n">
         <v>1.4532946</v>
@@ -44035,7 +44815,7 @@
         <v>352</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="D304" s="1" t="n">
         <v>1.7953464</v>
@@ -44091,7 +44871,7 @@
         <v>356</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="D306" s="1" t="n">
         <v>1.389861</v>
@@ -44119,7 +44899,7 @@
         <v>356</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="D307" s="1" t="n">
         <v>1.2307954</v>
@@ -44147,7 +44927,7 @@
         <v>356</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="D308" s="1" t="n">
         <v>1.254881</v>
@@ -44427,7 +45207,7 @@
         <v>367</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="D318" s="1" t="n">
         <v>1.2248766</v>
@@ -44455,7 +45235,7 @@
         <v>367</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="D319" s="1" t="n">
         <v>1.2212258</v>
@@ -44483,7 +45263,7 @@
         <v>367</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="D320" s="1" t="n">
         <v>1.1989604</v>
@@ -44623,7 +45403,7 @@
         <v>372</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="D325" s="1" t="n">
         <v>1.0624674</v>
@@ -44651,7 +45431,7 @@
         <v>372</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="D326" s="1" t="n">
         <v>1.0858874</v>
@@ -44679,7 +45459,7 @@
         <v>374</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="D327" s="1" t="n">
         <v>1.3795824</v>
@@ -44707,7 +45487,7 @@
         <v>374</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="D328" s="1" t="n">
         <v>1.2367146</v>
@@ -44735,7 +45515,7 @@
         <v>374</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="D329" s="1" t="n">
         <v>1.2427274</v>
@@ -44791,7 +45571,7 @@
         <v>378</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="D331" s="1" t="n">
         <v>1.5469018</v>
@@ -44847,7 +45627,7 @@
         <v>380</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>608</v>
+        <v>551</v>
       </c>
       <c r="D333" s="1" t="n">
         <v>1.1511158</v>
@@ -44931,7 +45711,7 @@
         <v>384</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D336" s="1" t="n">
         <v>1.2621662</v>
@@ -44987,7 +45767,7 @@
         <v>384</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="D338" s="1" t="n">
         <v>1.2845608</v>
@@ -45043,7 +45823,7 @@
         <v>388</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="D340" s="1" t="n">
         <v>1.8179748</v>
@@ -45071,7 +45851,7 @@
         <v>388</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="D341" s="1" t="n">
         <v>1.8229778</v>
@@ -45155,22 +45935,22 @@
         <v>390</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D344" s="1" t="n">
-        <v>1.094811</v>
+        <v>1.433895</v>
       </c>
       <c r="E344" s="1" t="n">
-        <v>1.5690192</v>
+        <v>1.7777638</v>
       </c>
       <c r="F344" s="1" t="n">
-        <v>0.9708546</v>
+        <v>1.4044314</v>
       </c>
       <c r="G344" s="1" t="n">
-        <v>2.2128324</v>
+        <v>2.734795</v>
       </c>
       <c r="H344" s="1" t="n">
-        <v>1.3228134</v>
+        <v>1.5413656</v>
       </c>
       <c r="I344" s="1"/>
       <c r="J344" s="1"/>
@@ -45180,25 +45960,25 @@
         <v>343</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="D345" s="1" t="n">
-        <v>1.433895</v>
+        <v>1.2189028</v>
       </c>
       <c r="E345" s="1" t="n">
-        <v>1.7777638</v>
+        <v>2.4113682</v>
       </c>
       <c r="F345" s="1" t="n">
-        <v>1.4044314</v>
+        <v>2.4869526</v>
       </c>
       <c r="G345" s="1" t="n">
-        <v>2.734795</v>
+        <v>2.720744</v>
       </c>
       <c r="H345" s="1" t="n">
-        <v>1.5413656</v>
+        <v>1.4514522</v>
       </c>
       <c r="I345" s="1"/>
       <c r="J345" s="1"/>
@@ -45211,22 +45991,22 @@
         <v>392</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>394</v>
+        <v>454</v>
       </c>
       <c r="D346" s="1" t="n">
-        <v>1.2189028</v>
+        <v>1.9025118</v>
       </c>
       <c r="E346" s="1" t="n">
-        <v>2.4113682</v>
+        <v>1.7694342</v>
       </c>
       <c r="F346" s="1" t="n">
-        <v>2.4869526</v>
+        <v>1.4979214</v>
       </c>
       <c r="G346" s="1" t="n">
-        <v>2.720744</v>
+        <v>2.1941674</v>
       </c>
       <c r="H346" s="1" t="n">
-        <v>1.4514522</v>
+        <v>1.764758</v>
       </c>
       <c r="I346" s="1"/>
       <c r="J346" s="1"/>
@@ -45239,22 +46019,22 @@
         <v>392</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="D347" s="1" t="n">
-        <v>1.9025118</v>
+        <v>1.8527084</v>
       </c>
       <c r="E347" s="1" t="n">
-        <v>1.7694342</v>
+        <v>1.8604678</v>
       </c>
       <c r="F347" s="1" t="n">
-        <v>1.4979214</v>
+        <v>1.4656094</v>
       </c>
       <c r="G347" s="1" t="n">
-        <v>2.1941674</v>
+        <v>2.2043024</v>
       </c>
       <c r="H347" s="1" t="n">
-        <v>1.764758</v>
+        <v>1.474152</v>
       </c>
       <c r="I347" s="1"/>
       <c r="J347" s="1"/>
@@ -45264,25 +46044,25 @@
         <v>346</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>617</v>
+        <v>225</v>
       </c>
       <c r="D348" s="1" t="n">
-        <v>1.8527084</v>
+        <v>1.1074566</v>
       </c>
       <c r="E348" s="1" t="n">
-        <v>1.8604678</v>
+        <v>1.8943826</v>
       </c>
       <c r="F348" s="1" t="n">
-        <v>1.4656094</v>
+        <v>1.1167294</v>
       </c>
       <c r="G348" s="1" t="n">
-        <v>2.2043024</v>
+        <v>2.4294608</v>
       </c>
       <c r="H348" s="1" t="n">
-        <v>1.474152</v>
+        <v>1.382104</v>
       </c>
       <c r="I348" s="1"/>
       <c r="J348" s="1"/>
@@ -45295,22 +46075,22 @@
         <v>396</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="D349" s="1" t="n">
-        <v>1.1074566</v>
+        <v>1.0803504</v>
       </c>
       <c r="E349" s="1" t="n">
-        <v>1.8943826</v>
+        <v>1.4264342</v>
       </c>
       <c r="F349" s="1" t="n">
-        <v>1.1167294</v>
+        <v>1.1985182</v>
       </c>
       <c r="G349" s="1" t="n">
-        <v>2.4294608</v>
+        <v>2.153699</v>
       </c>
       <c r="H349" s="1" t="n">
-        <v>1.382104</v>
+        <v>1.2604338</v>
       </c>
       <c r="I349" s="1"/>
       <c r="J349" s="1"/>
@@ -45323,22 +46103,22 @@
         <v>396</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="D350" s="1" t="n">
-        <v>1.0803504</v>
+        <v>0.9352112</v>
       </c>
       <c r="E350" s="1" t="n">
-        <v>1.4264342</v>
+        <v>1.5018344</v>
       </c>
       <c r="F350" s="1" t="n">
-        <v>1.1985182</v>
+        <v>1.1170254</v>
       </c>
       <c r="G350" s="1" t="n">
-        <v>2.153699</v>
+        <v>1.8819306</v>
       </c>
       <c r="H350" s="1" t="n">
-        <v>1.2604338</v>
+        <v>1.7298044</v>
       </c>
       <c r="I350" s="1"/>
       <c r="J350" s="1"/>
@@ -45348,25 +46128,25 @@
         <v>349</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="D351" s="1" t="n">
-        <v>0.9352112</v>
+        <v>1.1386732</v>
       </c>
       <c r="E351" s="1" t="n">
-        <v>1.5018344</v>
+        <v>1.5746814</v>
       </c>
       <c r="F351" s="1" t="n">
-        <v>1.1170254</v>
+        <v>1.317308</v>
       </c>
       <c r="G351" s="1" t="n">
-        <v>1.8819306</v>
+        <v>1.946071</v>
       </c>
       <c r="H351" s="1" t="n">
-        <v>1.7298044</v>
+        <v>1.4484598</v>
       </c>
       <c r="I351" s="1"/>
       <c r="J351" s="1"/>
@@ -45379,22 +46159,22 @@
         <v>397</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>399</v>
+        <v>228</v>
       </c>
       <c r="D352" s="1" t="n">
-        <v>1.1386732</v>
+        <v>1.1992254</v>
       </c>
       <c r="E352" s="1" t="n">
-        <v>1.5746814</v>
+        <v>1.3468708</v>
       </c>
       <c r="F352" s="1" t="n">
-        <v>1.317308</v>
+        <v>1.4428082</v>
       </c>
       <c r="G352" s="1" t="n">
-        <v>1.946071</v>
+        <v>2.049923</v>
       </c>
       <c r="H352" s="1" t="n">
-        <v>1.4484598</v>
+        <v>1.428557</v>
       </c>
       <c r="I352" s="1"/>
       <c r="J352" s="1"/>
@@ -45407,22 +46187,22 @@
         <v>397</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>228</v>
+        <v>589</v>
       </c>
       <c r="D353" s="1" t="n">
-        <v>1.1992254</v>
+        <v>1.2738502</v>
       </c>
       <c r="E353" s="1" t="n">
-        <v>1.3468708</v>
+        <v>1.5886482</v>
       </c>
       <c r="F353" s="1" t="n">
-        <v>1.4428082</v>
+        <v>1.2576196</v>
       </c>
       <c r="G353" s="1" t="n">
-        <v>2.049923</v>
+        <v>2.120958</v>
       </c>
       <c r="H353" s="1" t="n">
-        <v>1.428557</v>
+        <v>1.341523</v>
       </c>
       <c r="I353" s="1"/>
       <c r="J353" s="1"/>
@@ -45432,25 +46212,25 @@
         <v>352</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>582</v>
+        <v>664</v>
       </c>
       <c r="D354" s="1" t="n">
-        <v>1.2738502</v>
+        <v>1.5006246</v>
       </c>
       <c r="E354" s="1" t="n">
-        <v>1.5886482</v>
+        <v>1.4870642</v>
       </c>
       <c r="F354" s="1" t="n">
-        <v>1.2576196</v>
+        <v>1.5232542</v>
       </c>
       <c r="G354" s="1" t="n">
-        <v>2.120958</v>
+        <v>2.071796</v>
       </c>
       <c r="H354" s="1" t="n">
-        <v>1.341523</v>
+        <v>1.4993744</v>
       </c>
       <c r="I354" s="1"/>
       <c r="J354" s="1"/>
@@ -45463,22 +46243,22 @@
         <v>400</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="D355" s="1" t="n">
-        <v>1.5006246</v>
+        <v>1.6885894</v>
       </c>
       <c r="E355" s="1" t="n">
-        <v>1.4870642</v>
+        <v>1.5923456</v>
       </c>
       <c r="F355" s="1" t="n">
-        <v>1.5232542</v>
+        <v>1.231418</v>
       </c>
       <c r="G355" s="1" t="n">
-        <v>2.071796</v>
+        <v>2.0804818</v>
       </c>
       <c r="H355" s="1" t="n">
-        <v>1.4993744</v>
+        <v>1.3673504</v>
       </c>
       <c r="I355" s="1"/>
       <c r="J355" s="1"/>
@@ -45491,22 +46271,22 @@
         <v>400</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="D356" s="1" t="n">
-        <v>1.6885894</v>
+        <v>1.1057422</v>
       </c>
       <c r="E356" s="1" t="n">
-        <v>1.5923456</v>
+        <v>1.7349136</v>
       </c>
       <c r="F356" s="1" t="n">
-        <v>1.231418</v>
+        <v>1.8326376</v>
       </c>
       <c r="G356" s="1" t="n">
-        <v>2.0804818</v>
+        <v>2.8170214</v>
       </c>
       <c r="H356" s="1" t="n">
-        <v>1.3673504</v>
+        <v>1.7550628</v>
       </c>
       <c r="I356" s="1"/>
       <c r="J356" s="1"/>
@@ -45516,25 +46296,25 @@
         <v>355</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>662</v>
+        <v>348</v>
       </c>
       <c r="D357" s="1" t="n">
-        <v>1.1057422</v>
+        <v>1.1650418</v>
       </c>
       <c r="E357" s="1" t="n">
-        <v>1.7349136</v>
+        <v>1.6112942</v>
       </c>
       <c r="F357" s="1" t="n">
-        <v>1.8326376</v>
+        <v>1.0797694</v>
       </c>
       <c r="G357" s="1" t="n">
-        <v>2.8170214</v>
+        <v>2.1441518</v>
       </c>
       <c r="H357" s="1" t="n">
-        <v>1.7550628</v>
+        <v>1.4206424</v>
       </c>
       <c r="I357" s="1"/>
       <c r="J357" s="1"/>
@@ -45547,22 +46327,22 @@
         <v>404</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>348</v>
+        <v>248</v>
       </c>
       <c r="D358" s="1" t="n">
-        <v>1.1650418</v>
+        <v>1.0287834</v>
       </c>
       <c r="E358" s="1" t="n">
-        <v>1.6112942</v>
+        <v>1.5015312</v>
       </c>
       <c r="F358" s="1" t="n">
-        <v>1.0797694</v>
+        <v>1.2023444</v>
       </c>
       <c r="G358" s="1" t="n">
-        <v>2.1441518</v>
+        <v>2.0189708</v>
       </c>
       <c r="H358" s="1" t="n">
-        <v>1.4206424</v>
+        <v>1.4659106</v>
       </c>
       <c r="I358" s="1"/>
       <c r="J358" s="1"/>
@@ -45575,22 +46355,22 @@
         <v>404</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D359" s="1" t="n">
-        <v>1.0287834</v>
+        <v>1.0370094</v>
       </c>
       <c r="E359" s="1" t="n">
-        <v>1.5015312</v>
+        <v>1.5734404</v>
       </c>
       <c r="F359" s="1" t="n">
-        <v>1.2023444</v>
+        <v>1.1590172</v>
       </c>
       <c r="G359" s="1" t="n">
-        <v>2.0189708</v>
+        <v>2.0819272</v>
       </c>
       <c r="H359" s="1" t="n">
-        <v>1.4659106</v>
+        <v>1.2153392</v>
       </c>
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
@@ -45600,25 +46380,25 @@
         <v>358</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D360" s="1" t="n">
-        <v>1.0370094</v>
+        <v>1.1619302</v>
       </c>
       <c r="E360" s="1" t="n">
-        <v>1.5734404</v>
+        <v>1.3973718</v>
       </c>
       <c r="F360" s="1" t="n">
-        <v>1.1590172</v>
+        <v>1.3232884</v>
       </c>
       <c r="G360" s="1" t="n">
-        <v>2.0819272</v>
+        <v>2.5072664</v>
       </c>
       <c r="H360" s="1" t="n">
-        <v>1.2153392</v>
+        <v>1.5031604</v>
       </c>
       <c r="I360" s="1"/>
       <c r="J360" s="1"/>
@@ -45631,22 +46411,22 @@
         <v>405</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>241</v>
+        <v>618</v>
       </c>
       <c r="D361" s="1" t="n">
-        <v>1.1619302</v>
+        <v>1.120924</v>
       </c>
       <c r="E361" s="1" t="n">
-        <v>1.3973718</v>
+        <v>1.7307776</v>
       </c>
       <c r="F361" s="1" t="n">
-        <v>1.3232884</v>
+        <v>1.1832768</v>
       </c>
       <c r="G361" s="1" t="n">
-        <v>2.5072664</v>
+        <v>2.1819386</v>
       </c>
       <c r="H361" s="1" t="n">
-        <v>1.5031604</v>
+        <v>1.550745</v>
       </c>
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
@@ -45659,22 +46439,22 @@
         <v>405</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>612</v>
+        <v>316</v>
       </c>
       <c r="D362" s="1" t="n">
-        <v>1.120924</v>
+        <v>1.1963474</v>
       </c>
       <c r="E362" s="1" t="n">
-        <v>1.7307776</v>
+        <v>1.617757</v>
       </c>
       <c r="F362" s="1" t="n">
-        <v>1.1832768</v>
+        <v>1.1287288</v>
       </c>
       <c r="G362" s="1" t="n">
-        <v>2.1819386</v>
+        <v>2.0157536</v>
       </c>
       <c r="H362" s="1" t="n">
-        <v>1.550745</v>
+        <v>1.3026474</v>
       </c>
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
@@ -45684,25 +46464,25 @@
         <v>361</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>316</v>
+        <v>667</v>
       </c>
       <c r="D363" s="1" t="n">
-        <v>1.1963474</v>
+        <v>0.9027554</v>
       </c>
       <c r="E363" s="1" t="n">
-        <v>1.617757</v>
+        <v>1.7229768</v>
       </c>
       <c r="F363" s="1" t="n">
-        <v>1.1287288</v>
+        <v>1.055406</v>
       </c>
       <c r="G363" s="1" t="n">
-        <v>2.0157536</v>
+        <v>2.5961854</v>
       </c>
       <c r="H363" s="1" t="n">
-        <v>1.3026474</v>
+        <v>1.4096252</v>
       </c>
       <c r="I363" s="1"/>
       <c r="J363" s="1"/>
@@ -45715,22 +46495,22 @@
         <v>409</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>663</v>
+        <v>451</v>
       </c>
       <c r="D364" s="1" t="n">
-        <v>0.9027554</v>
+        <v>1.2770454</v>
       </c>
       <c r="E364" s="1" t="n">
-        <v>1.7229768</v>
+        <v>1.4561324</v>
       </c>
       <c r="F364" s="1" t="n">
-        <v>1.055406</v>
+        <v>1.5802622</v>
       </c>
       <c r="G364" s="1" t="n">
-        <v>2.5961854</v>
+        <v>2.5824766</v>
       </c>
       <c r="H364" s="1" t="n">
-        <v>1.4096252</v>
+        <v>1.3976158</v>
       </c>
       <c r="I364" s="1"/>
       <c r="J364" s="1"/>
@@ -45743,22 +46523,22 @@
         <v>409</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>451</v>
+        <v>548</v>
       </c>
       <c r="D365" s="1" t="n">
-        <v>1.2770454</v>
+        <v>1.1653586</v>
       </c>
       <c r="E365" s="1" t="n">
-        <v>1.4561324</v>
+        <v>1.3981698</v>
       </c>
       <c r="F365" s="1" t="n">
-        <v>1.5802622</v>
+        <v>1.2663126</v>
       </c>
       <c r="G365" s="1" t="n">
-        <v>2.5824766</v>
+        <v>2.1669184</v>
       </c>
       <c r="H365" s="1" t="n">
-        <v>1.3976158</v>
+        <v>1.2597338</v>
       </c>
       <c r="I365" s="1"/>
       <c r="J365" s="1"/>
@@ -45768,25 +46548,25 @@
         <v>364</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>543</v>
+        <v>67</v>
       </c>
       <c r="D366" s="1" t="n">
-        <v>1.1653586</v>
+        <v>1.107224</v>
       </c>
       <c r="E366" s="1" t="n">
-        <v>1.3981698</v>
+        <v>1.8594324</v>
       </c>
       <c r="F366" s="1" t="n">
-        <v>1.2663126</v>
+        <v>0.9810058</v>
       </c>
       <c r="G366" s="1" t="n">
-        <v>2.1669184</v>
+        <v>2.186584</v>
       </c>
       <c r="H366" s="1" t="n">
-        <v>1.2597338</v>
+        <v>1.2754528</v>
       </c>
       <c r="I366" s="1"/>
       <c r="J366" s="1"/>
@@ -45799,22 +46579,22 @@
         <v>413</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="D367" s="1" t="n">
-        <v>1.107224</v>
+        <v>1.06549</v>
       </c>
       <c r="E367" s="1" t="n">
-        <v>1.8594324</v>
+        <v>1.945039</v>
       </c>
       <c r="F367" s="1" t="n">
-        <v>0.9810058</v>
+        <v>1.1114584</v>
       </c>
       <c r="G367" s="1" t="n">
-        <v>2.186584</v>
+        <v>2.650027</v>
       </c>
       <c r="H367" s="1" t="n">
-        <v>1.2754528</v>
+        <v>1.3832382</v>
       </c>
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
@@ -45827,22 +46607,22 @@
         <v>413</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D368" s="1" t="n">
-        <v>1.06549</v>
+        <v>1.1250786</v>
       </c>
       <c r="E368" s="1" t="n">
-        <v>1.945039</v>
+        <v>1.9979272</v>
       </c>
       <c r="F368" s="1" t="n">
-        <v>1.1114584</v>
+        <v>1.004082</v>
       </c>
       <c r="G368" s="1" t="n">
-        <v>2.650027</v>
+        <v>2.744407</v>
       </c>
       <c r="H368" s="1" t="n">
-        <v>1.3832382</v>
+        <v>1.7333974</v>
       </c>
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
@@ -45852,25 +46632,25 @@
         <v>367</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>103</v>
+        <v>556</v>
       </c>
       <c r="D369" s="1" t="n">
-        <v>1.1250786</v>
+        <v>1.1774286</v>
       </c>
       <c r="E369" s="1" t="n">
-        <v>1.9979272</v>
+        <v>1.8115246</v>
       </c>
       <c r="F369" s="1" t="n">
-        <v>1.004082</v>
+        <v>1.1128654</v>
       </c>
       <c r="G369" s="1" t="n">
-        <v>2.744407</v>
+        <v>2.6176236</v>
       </c>
       <c r="H369" s="1" t="n">
-        <v>1.7333974</v>
+        <v>1.2618136</v>
       </c>
       <c r="I369" s="1"/>
       <c r="J369" s="1"/>
@@ -45883,22 +46663,22 @@
         <v>416</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>549</v>
+        <v>331</v>
       </c>
       <c r="D370" s="1" t="n">
-        <v>1.1774286</v>
+        <v>1.1295986</v>
       </c>
       <c r="E370" s="1" t="n">
-        <v>1.8115246</v>
+        <v>1.3550044</v>
       </c>
       <c r="F370" s="1" t="n">
-        <v>1.1128654</v>
+        <v>1.087876</v>
       </c>
       <c r="G370" s="1" t="n">
-        <v>2.6176236</v>
+        <v>2.8833854</v>
       </c>
       <c r="H370" s="1" t="n">
-        <v>1.2618136</v>
+        <v>1.196089</v>
       </c>
       <c r="I370" s="1"/>
       <c r="J370" s="1"/>
@@ -45911,22 +46691,22 @@
         <v>416</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="D371" s="1" t="n">
-        <v>1.1295986</v>
+        <v>0.8930508</v>
       </c>
       <c r="E371" s="1" t="n">
-        <v>1.3550044</v>
+        <v>1.7306274</v>
       </c>
       <c r="F371" s="1" t="n">
-        <v>1.087876</v>
+        <v>1.331603</v>
       </c>
       <c r="G371" s="1" t="n">
-        <v>2.8833854</v>
+        <v>2.3647696</v>
       </c>
       <c r="H371" s="1" t="n">
-        <v>1.196089</v>
+        <v>1.3611754</v>
       </c>
       <c r="I371" s="1"/>
       <c r="J371" s="1"/>
@@ -45936,25 +46716,25 @@
         <v>370</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>261</v>
+        <v>668</v>
       </c>
       <c r="D372" s="1" t="n">
-        <v>0.8930508</v>
+        <v>1.1326118</v>
       </c>
       <c r="E372" s="1" t="n">
-        <v>1.7306274</v>
+        <v>1.7466014</v>
       </c>
       <c r="F372" s="1" t="n">
-        <v>1.331603</v>
+        <v>1.2887674</v>
       </c>
       <c r="G372" s="1" t="n">
-        <v>2.3647696</v>
+        <v>2.7674424</v>
       </c>
       <c r="H372" s="1" t="n">
-        <v>1.3611754</v>
+        <v>1.4180374</v>
       </c>
       <c r="I372" s="1"/>
       <c r="J372" s="1"/>
@@ -45967,22 +46747,22 @@
         <v>419</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="D373" s="1" t="n">
-        <v>1.1326118</v>
+        <v>1.1076196</v>
       </c>
       <c r="E373" s="1" t="n">
-        <v>1.7466014</v>
+        <v>1.6037068</v>
       </c>
       <c r="F373" s="1" t="n">
-        <v>1.2887674</v>
+        <v>1.3258406</v>
       </c>
       <c r="G373" s="1" t="n">
-        <v>2.7674424</v>
+        <v>2.356455</v>
       </c>
       <c r="H373" s="1" t="n">
-        <v>1.4180374</v>
+        <v>1.4982868</v>
       </c>
       <c r="I373" s="1"/>
       <c r="J373" s="1"/>
@@ -45995,22 +46775,22 @@
         <v>419</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>665</v>
+        <v>132</v>
       </c>
       <c r="D374" s="1" t="n">
-        <v>1.1076196</v>
+        <v>1.0795946</v>
       </c>
       <c r="E374" s="1" t="n">
-        <v>1.6037068</v>
+        <v>1.9478976</v>
       </c>
       <c r="F374" s="1" t="n">
-        <v>1.3258406</v>
+        <v>1.3156308</v>
       </c>
       <c r="G374" s="1" t="n">
-        <v>2.356455</v>
+        <v>2.5165262</v>
       </c>
       <c r="H374" s="1" t="n">
-        <v>1.4982868</v>
+        <v>1.4698868</v>
       </c>
       <c r="I374" s="1"/>
       <c r="J374" s="1"/>
@@ -46020,25 +46800,25 @@
         <v>373</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>132</v>
+        <v>282</v>
       </c>
       <c r="D375" s="1" t="n">
-        <v>1.0795946</v>
+        <v>0.9044052</v>
       </c>
       <c r="E375" s="1" t="n">
-        <v>1.9478976</v>
+        <v>1.7040214</v>
       </c>
       <c r="F375" s="1" t="n">
-        <v>1.3156308</v>
+        <v>1.3444732</v>
       </c>
       <c r="G375" s="1" t="n">
-        <v>2.5165262</v>
+        <v>2.269014</v>
       </c>
       <c r="H375" s="1" t="n">
-        <v>1.4698868</v>
+        <v>1.8269946</v>
       </c>
       <c r="I375" s="1"/>
       <c r="J375" s="1"/>
@@ -46051,22 +46831,22 @@
         <v>421</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>282</v>
+        <v>93</v>
       </c>
       <c r="D376" s="1" t="n">
-        <v>0.9044052</v>
+        <v>1.0871724</v>
       </c>
       <c r="E376" s="1" t="n">
-        <v>1.7040214</v>
+        <v>1.7133956</v>
       </c>
       <c r="F376" s="1" t="n">
-        <v>1.3444732</v>
+        <v>2.3992794</v>
       </c>
       <c r="G376" s="1" t="n">
-        <v>2.269014</v>
+        <v>2.964509</v>
       </c>
       <c r="H376" s="1" t="n">
-        <v>1.8269946</v>
+        <v>1.496318</v>
       </c>
       <c r="I376" s="1"/>
       <c r="J376" s="1"/>
@@ -46079,22 +46859,22 @@
         <v>421</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>93</v>
+        <v>475</v>
       </c>
       <c r="D377" s="1" t="n">
-        <v>1.0871724</v>
+        <v>1.6755382</v>
       </c>
       <c r="E377" s="1" t="n">
-        <v>1.7133956</v>
+        <v>1.6281452</v>
       </c>
       <c r="F377" s="1" t="n">
-        <v>2.3992794</v>
+        <v>1.4018252</v>
       </c>
       <c r="G377" s="1" t="n">
-        <v>2.964509</v>
+        <v>2.7508194</v>
       </c>
       <c r="H377" s="1" t="n">
-        <v>1.496318</v>
+        <v>1.4798124</v>
       </c>
       <c r="I377" s="1"/>
       <c r="J377" s="1"/>
@@ -46104,25 +46884,25 @@
         <v>376</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>468</v>
+        <v>25</v>
       </c>
       <c r="D378" s="1" t="n">
-        <v>1.6755382</v>
+        <v>1.242645</v>
       </c>
       <c r="E378" s="1" t="n">
-        <v>1.6281452</v>
+        <v>1.8738312</v>
       </c>
       <c r="F378" s="1" t="n">
-        <v>1.4018252</v>
+        <v>1.2802552</v>
       </c>
       <c r="G378" s="1" t="n">
-        <v>2.7508194</v>
+        <v>2.2643498</v>
       </c>
       <c r="H378" s="1" t="n">
-        <v>1.4798124</v>
+        <v>1.4024508</v>
       </c>
       <c r="I378" s="1"/>
       <c r="J378" s="1"/>
@@ -46135,22 +46915,22 @@
         <v>424</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D379" s="1" t="n">
-        <v>1.242645</v>
+        <v>1.2141256</v>
       </c>
       <c r="E379" s="1" t="n">
-        <v>1.8738312</v>
+        <v>1.485455</v>
       </c>
       <c r="F379" s="1" t="n">
-        <v>1.2802552</v>
+        <v>1.1472068</v>
       </c>
       <c r="G379" s="1" t="n">
-        <v>2.2643498</v>
+        <v>2.7642598</v>
       </c>
       <c r="H379" s="1" t="n">
-        <v>1.4024508</v>
+        <v>1.4647164</v>
       </c>
       <c r="I379" s="1"/>
       <c r="J379" s="1"/>
@@ -46163,22 +46943,22 @@
         <v>424</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>17</v>
+        <v>513</v>
       </c>
       <c r="D380" s="1" t="n">
-        <v>1.2141256</v>
+        <v>1.036822</v>
       </c>
       <c r="E380" s="1" t="n">
-        <v>1.485455</v>
+        <v>1.3574266</v>
       </c>
       <c r="F380" s="1" t="n">
-        <v>1.1472068</v>
+        <v>1.2251732</v>
       </c>
       <c r="G380" s="1" t="n">
-        <v>2.7642598</v>
+        <v>2.5466718</v>
       </c>
       <c r="H380" s="1" t="n">
-        <v>1.4647164</v>
+        <v>1.2600178</v>
       </c>
       <c r="I380" s="1"/>
       <c r="J380" s="1"/>
@@ -46188,25 +46968,25 @@
         <v>379</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>507</v>
+        <v>49</v>
       </c>
       <c r="D381" s="1" t="n">
-        <v>1.036822</v>
+        <v>1.0065634</v>
       </c>
       <c r="E381" s="1" t="n">
-        <v>1.3574266</v>
+        <v>1.9598886</v>
       </c>
       <c r="F381" s="1" t="n">
-        <v>1.2251732</v>
+        <v>1.318347</v>
       </c>
       <c r="G381" s="1" t="n">
-        <v>2.5466718</v>
+        <v>2.2835612</v>
       </c>
       <c r="H381" s="1" t="n">
-        <v>1.2600178</v>
+        <v>1.5257388</v>
       </c>
       <c r="I381" s="1"/>
       <c r="J381" s="1"/>
@@ -46219,22 +46999,22 @@
         <v>425</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="D382" s="1" t="n">
-        <v>1.0065634</v>
+        <v>1.0451614</v>
       </c>
       <c r="E382" s="1" t="n">
-        <v>1.9598886</v>
+        <v>1.7330596</v>
       </c>
       <c r="F382" s="1" t="n">
-        <v>1.318347</v>
+        <v>1.3430998</v>
       </c>
       <c r="G382" s="1" t="n">
-        <v>2.2835612</v>
+        <v>2.9201406</v>
       </c>
       <c r="H382" s="1" t="n">
-        <v>1.5257388</v>
+        <v>1.4238176</v>
       </c>
       <c r="I382" s="1"/>
       <c r="J382" s="1"/>
@@ -46247,22 +47027,22 @@
         <v>425</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>75</v>
+        <v>239</v>
       </c>
       <c r="D383" s="1" t="n">
-        <v>1.0451614</v>
+        <v>0.9828564</v>
       </c>
       <c r="E383" s="1" t="n">
-        <v>1.7330596</v>
+        <v>1.624923</v>
       </c>
       <c r="F383" s="1" t="n">
-        <v>1.3430998</v>
+        <v>1.2839048</v>
       </c>
       <c r="G383" s="1" t="n">
-        <v>2.9201406</v>
+        <v>2.3016146</v>
       </c>
       <c r="H383" s="1" t="n">
-        <v>1.4238176</v>
+        <v>1.4023974</v>
       </c>
       <c r="I383" s="1"/>
       <c r="J383" s="1"/>
@@ -46272,25 +47052,25 @@
         <v>382</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="D384" s="1" t="n">
-        <v>0.9828564</v>
+        <v>1.097061</v>
       </c>
       <c r="E384" s="1" t="n">
-        <v>1.624923</v>
+        <v>1.4032806</v>
       </c>
       <c r="F384" s="1" t="n">
-        <v>1.2839048</v>
+        <v>1.1813984</v>
       </c>
       <c r="G384" s="1" t="n">
-        <v>2.3016146</v>
+        <v>3.7375416</v>
       </c>
       <c r="H384" s="1" t="n">
-        <v>1.4023974</v>
+        <v>1.526577</v>
       </c>
       <c r="I384" s="1"/>
       <c r="J384" s="1"/>
@@ -46303,22 +47083,22 @@
         <v>427</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D385" s="1" t="n">
-        <v>1.097061</v>
+        <v>1.1941074</v>
       </c>
       <c r="E385" s="1" t="n">
-        <v>1.4032806</v>
+        <v>1.4975884</v>
       </c>
       <c r="F385" s="1" t="n">
-        <v>1.1813984</v>
+        <v>1.222577</v>
       </c>
       <c r="G385" s="1" t="n">
-        <v>3.7375416</v>
+        <v>2.9212306</v>
       </c>
       <c r="H385" s="1" t="n">
-        <v>1.526577</v>
+        <v>1.468363</v>
       </c>
       <c r="I385" s="1"/>
       <c r="J385" s="1"/>
@@ -46331,22 +47111,22 @@
         <v>427</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>277</v>
+        <v>624</v>
       </c>
       <c r="D386" s="1" t="n">
-        <v>1.1941074</v>
+        <v>1.1872258</v>
       </c>
       <c r="E386" s="1" t="n">
-        <v>1.4975884</v>
+        <v>1.491185</v>
       </c>
       <c r="F386" s="1" t="n">
-        <v>1.222577</v>
+        <v>1.5740596</v>
       </c>
       <c r="G386" s="1" t="n">
-        <v>2.9212306</v>
+        <v>2.907558</v>
       </c>
       <c r="H386" s="1" t="n">
-        <v>1.468363</v>
+        <v>1.4582796</v>
       </c>
       <c r="I386" s="1"/>
       <c r="J386" s="1"/>
@@ -46356,25 +47136,25 @@
         <v>385</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>620</v>
+        <v>431</v>
       </c>
       <c r="D387" s="1" t="n">
-        <v>1.1872258</v>
+        <v>0.988808</v>
       </c>
       <c r="E387" s="1" t="n">
-        <v>1.491185</v>
+        <v>1.649168</v>
       </c>
       <c r="F387" s="1" t="n">
-        <v>1.5740596</v>
+        <v>1.0308436</v>
       </c>
       <c r="G387" s="1" t="n">
-        <v>2.907558</v>
+        <v>2.7539918</v>
       </c>
       <c r="H387" s="1" t="n">
-        <v>1.4582796</v>
+        <v>1.4880292</v>
       </c>
       <c r="I387" s="1"/>
       <c r="J387" s="1"/>
@@ -46387,22 +47167,22 @@
         <v>430</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D388" s="1" t="n">
-        <v>0.988808</v>
+        <v>0.9754994</v>
       </c>
       <c r="E388" s="1" t="n">
-        <v>1.649168</v>
+        <v>1.6338788</v>
       </c>
       <c r="F388" s="1" t="n">
-        <v>1.0308436</v>
+        <v>1.1981058</v>
       </c>
       <c r="G388" s="1" t="n">
-        <v>2.7539918</v>
+        <v>2.8563094</v>
       </c>
       <c r="H388" s="1" t="n">
-        <v>1.4880292</v>
+        <v>1.3638856</v>
       </c>
       <c r="I388" s="1"/>
       <c r="J388" s="1"/>
@@ -46415,22 +47195,22 @@
         <v>430</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>432</v>
+        <v>546</v>
       </c>
       <c r="D389" s="1" t="n">
-        <v>0.9754994</v>
+        <v>1.1161838</v>
       </c>
       <c r="E389" s="1" t="n">
-        <v>1.6338788</v>
+        <v>1.349455</v>
       </c>
       <c r="F389" s="1" t="n">
-        <v>1.1981058</v>
+        <v>0.9241092</v>
       </c>
       <c r="G389" s="1" t="n">
-        <v>2.8563094</v>
+        <v>2.7923588</v>
       </c>
       <c r="H389" s="1" t="n">
-        <v>1.3638856</v>
+        <v>1.3538136</v>
       </c>
       <c r="I389" s="1"/>
       <c r="J389" s="1"/>
@@ -46440,25 +47220,25 @@
         <v>388</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>541</v>
+        <v>250</v>
       </c>
       <c r="D390" s="1" t="n">
-        <v>1.1161838</v>
+        <v>1.5664812</v>
       </c>
       <c r="E390" s="1" t="n">
-        <v>1.349455</v>
+        <v>1.1155286</v>
       </c>
       <c r="F390" s="1" t="n">
-        <v>0.9241092</v>
+        <v>1.0075878</v>
       </c>
       <c r="G390" s="1" t="n">
-        <v>2.7923588</v>
+        <v>2.839229</v>
       </c>
       <c r="H390" s="1" t="n">
-        <v>1.3538136</v>
+        <v>1.2334138</v>
       </c>
       <c r="I390" s="1"/>
       <c r="J390" s="1"/>
@@ -46471,22 +47251,22 @@
         <v>434</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>250</v>
+        <v>625</v>
       </c>
       <c r="D391" s="1" t="n">
-        <v>1.5664812</v>
+        <v>1.7090838</v>
       </c>
       <c r="E391" s="1" t="n">
-        <v>1.1155286</v>
+        <v>1.7044022</v>
       </c>
       <c r="F391" s="1" t="n">
-        <v>1.0075878</v>
+        <v>1.0161268</v>
       </c>
       <c r="G391" s="1" t="n">
-        <v>2.839229</v>
+        <v>2.8992628</v>
       </c>
       <c r="H391" s="1" t="n">
-        <v>1.2334138</v>
+        <v>1.4269714</v>
       </c>
       <c r="I391" s="1"/>
       <c r="J391" s="1"/>
@@ -46499,22 +47279,22 @@
         <v>434</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>621</v>
+        <v>266</v>
       </c>
       <c r="D392" s="1" t="n">
-        <v>1.7090838</v>
+        <v>1.13573</v>
       </c>
       <c r="E392" s="1" t="n">
-        <v>1.7044022</v>
+        <v>1.5866328</v>
       </c>
       <c r="F392" s="1" t="n">
-        <v>1.0161268</v>
+        <v>0.2751574</v>
       </c>
       <c r="G392" s="1" t="n">
-        <v>2.8992628</v>
+        <v>2.9215016</v>
       </c>
       <c r="H392" s="1" t="n">
-        <v>1.4269714</v>
+        <v>1.6537046</v>
       </c>
       <c r="I392" s="1"/>
       <c r="J392" s="1"/>
@@ -46524,25 +47304,25 @@
         <v>391</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>266</v>
+        <v>17</v>
       </c>
       <c r="D393" s="1" t="n">
-        <v>1.13573</v>
+        <v>1.2125058</v>
       </c>
       <c r="E393" s="1" t="n">
-        <v>1.5866328</v>
+        <v>1.8431638</v>
       </c>
       <c r="F393" s="1" t="n">
-        <v>0.2751574</v>
+        <v>1.3417624</v>
       </c>
       <c r="G393" s="1" t="n">
-        <v>2.9215016</v>
+        <v>2.6247426</v>
       </c>
       <c r="H393" s="1" t="n">
-        <v>1.6537046</v>
+        <v>1.5724384</v>
       </c>
       <c r="I393" s="1"/>
       <c r="J393" s="1"/>
@@ -46555,22 +47335,22 @@
         <v>436</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>17</v>
+        <v>426</v>
       </c>
       <c r="D394" s="1" t="n">
-        <v>1.2125058</v>
+        <v>1.690293</v>
       </c>
       <c r="E394" s="1" t="n">
-        <v>1.8431638</v>
+        <v>1.606819</v>
       </c>
       <c r="F394" s="1" t="n">
-        <v>1.3417624</v>
+        <v>1.4056926</v>
       </c>
       <c r="G394" s="1" t="n">
-        <v>2.6247426</v>
+        <v>2.4618664</v>
       </c>
       <c r="H394" s="1" t="n">
-        <v>1.5724384</v>
+        <v>1.59343</v>
       </c>
       <c r="I394" s="1"/>
       <c r="J394" s="1"/>
@@ -46583,22 +47363,22 @@
         <v>436</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>426</v>
+        <v>612</v>
       </c>
       <c r="D395" s="1" t="n">
-        <v>1.690293</v>
+        <v>1.7735518</v>
       </c>
       <c r="E395" s="1" t="n">
-        <v>1.606819</v>
+        <v>1.4687324</v>
       </c>
       <c r="F395" s="1" t="n">
-        <v>1.4056926</v>
+        <v>1.3072296</v>
       </c>
       <c r="G395" s="1" t="n">
-        <v>2.4618664</v>
+        <v>2.8045032</v>
       </c>
       <c r="H395" s="1" t="n">
-        <v>1.59343</v>
+        <v>1.2705534</v>
       </c>
       <c r="I395" s="1"/>
       <c r="J395" s="1"/>
@@ -46608,25 +47388,25 @@
         <v>394</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>605</v>
+        <v>441</v>
       </c>
       <c r="D396" s="1" t="n">
-        <v>1.7735518</v>
+        <v>1.2968398</v>
       </c>
       <c r="E396" s="1" t="n">
-        <v>1.4687324</v>
+        <v>1.881476</v>
       </c>
       <c r="F396" s="1" t="n">
-        <v>1.3072296</v>
+        <v>2.2255802</v>
       </c>
       <c r="G396" s="1" t="n">
-        <v>2.8045032</v>
+        <v>3.286525</v>
       </c>
       <c r="H396" s="1" t="n">
-        <v>1.2705534</v>
+        <v>1.508021</v>
       </c>
       <c r="I396" s="1"/>
       <c r="J396" s="1"/>
@@ -46639,22 +47419,22 @@
         <v>439</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>441</v>
+        <v>587</v>
       </c>
       <c r="D397" s="1" t="n">
-        <v>1.2968398</v>
+        <v>0.9638318</v>
       </c>
       <c r="E397" s="1" t="n">
-        <v>1.881476</v>
+        <v>1.5474558</v>
       </c>
       <c r="F397" s="1" t="n">
-        <v>2.2255802</v>
+        <v>1.3772944</v>
       </c>
       <c r="G397" s="1" t="n">
-        <v>3.286525</v>
+        <v>3.0290086</v>
       </c>
       <c r="H397" s="1" t="n">
-        <v>1.508021</v>
+        <v>1.4997124</v>
       </c>
       <c r="I397" s="1"/>
       <c r="J397" s="1"/>
@@ -46667,22 +47447,22 @@
         <v>439</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>580</v>
+        <v>670</v>
       </c>
       <c r="D398" s="1" t="n">
-        <v>0.9638318</v>
+        <v>1.1675278</v>
       </c>
       <c r="E398" s="1" t="n">
-        <v>1.5474558</v>
+        <v>1.501242</v>
       </c>
       <c r="F398" s="1" t="n">
-        <v>1.3772944</v>
+        <v>1.3273706</v>
       </c>
       <c r="G398" s="1" t="n">
-        <v>3.0290086</v>
+        <v>3.0452364</v>
       </c>
       <c r="H398" s="1" t="n">
-        <v>1.4997124</v>
+        <v>1.4477418</v>
       </c>
       <c r="I398" s="1"/>
       <c r="J398" s="1"/>
@@ -46692,25 +47472,25 @@
         <v>397</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>666</v>
+        <v>498</v>
       </c>
       <c r="D399" s="1" t="n">
-        <v>1.1675278</v>
+        <v>1.1484848</v>
       </c>
       <c r="E399" s="1" t="n">
-        <v>1.501242</v>
+        <v>1.5151128</v>
       </c>
       <c r="F399" s="1" t="n">
-        <v>1.3273706</v>
+        <v>1.2983368</v>
       </c>
       <c r="G399" s="1" t="n">
-        <v>3.0452364</v>
+        <v>2.9277676</v>
       </c>
       <c r="H399" s="1" t="n">
-        <v>1.4477418</v>
+        <v>1.287226</v>
       </c>
       <c r="I399" s="1"/>
       <c r="J399" s="1"/>
@@ -46723,22 +47503,22 @@
         <v>443</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>491</v>
+        <v>627</v>
       </c>
       <c r="D400" s="1" t="n">
-        <v>1.1484848</v>
+        <v>1.0874262</v>
       </c>
       <c r="E400" s="1" t="n">
-        <v>1.5151128</v>
+        <v>1.5503876</v>
       </c>
       <c r="F400" s="1" t="n">
-        <v>1.2983368</v>
+        <v>1.2340908</v>
       </c>
       <c r="G400" s="1" t="n">
-        <v>2.9277676</v>
+        <v>2.8991968</v>
       </c>
       <c r="H400" s="1" t="n">
-        <v>1.287226</v>
+        <v>1.4183052</v>
       </c>
       <c r="I400" s="1"/>
       <c r="J400" s="1"/>
@@ -46751,22 +47531,22 @@
         <v>443</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>623</v>
+        <v>243</v>
       </c>
       <c r="D401" s="1" t="n">
-        <v>1.0874262</v>
+        <v>0.9686292</v>
       </c>
       <c r="E401" s="1" t="n">
-        <v>1.5503876</v>
+        <v>1.6968406</v>
       </c>
       <c r="F401" s="1" t="n">
-        <v>1.2340908</v>
+        <v>1.1835304</v>
       </c>
       <c r="G401" s="1" t="n">
-        <v>2.8991968</v>
+        <v>2.8380308</v>
       </c>
       <c r="H401" s="1" t="n">
-        <v>1.4183052</v>
+        <v>1.4185692</v>
       </c>
       <c r="I401" s="1"/>
       <c r="J401" s="1"/>
@@ -46776,25 +47556,25 @@
         <v>400</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>243</v>
+        <v>448</v>
       </c>
       <c r="D402" s="1" t="n">
-        <v>0.9686292</v>
+        <v>1.0448616</v>
       </c>
       <c r="E402" s="1" t="n">
-        <v>1.6968406</v>
+        <v>1.5609278</v>
       </c>
       <c r="F402" s="1" t="n">
-        <v>1.1835304</v>
+        <v>1.4526032</v>
       </c>
       <c r="G402" s="1" t="n">
-        <v>2.8380308</v>
+        <v>3.1750274</v>
       </c>
       <c r="H402" s="1" t="n">
-        <v>1.4185692</v>
+        <v>1.5206372</v>
       </c>
       <c r="I402" s="1"/>
       <c r="J402" s="1"/>
@@ -46807,22 +47587,22 @@
         <v>447</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>448</v>
+        <v>406</v>
       </c>
       <c r="D403" s="1" t="n">
-        <v>1.0448616</v>
+        <v>1.0431852</v>
       </c>
       <c r="E403" s="1" t="n">
-        <v>1.5609278</v>
+        <v>1.559216</v>
       </c>
       <c r="F403" s="1" t="n">
-        <v>1.4526032</v>
+        <v>1.4458456</v>
       </c>
       <c r="G403" s="1" t="n">
-        <v>3.1750274</v>
+        <v>2.376431</v>
       </c>
       <c r="H403" s="1" t="n">
-        <v>1.5206372</v>
+        <v>1.361697</v>
       </c>
       <c r="I403" s="1"/>
       <c r="J403" s="1"/>
@@ -46835,22 +47615,22 @@
         <v>447</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>406</v>
+        <v>516</v>
       </c>
       <c r="D404" s="1" t="n">
-        <v>1.0431852</v>
+        <v>0.9799074</v>
       </c>
       <c r="E404" s="1" t="n">
-        <v>1.559216</v>
+        <v>1.5304962</v>
       </c>
       <c r="F404" s="1" t="n">
-        <v>1.4458456</v>
+        <v>1.2052272</v>
       </c>
       <c r="G404" s="1" t="n">
-        <v>2.376431</v>
+        <v>2.8483996</v>
       </c>
       <c r="H404" s="1" t="n">
-        <v>1.361697</v>
+        <v>1.3819668</v>
       </c>
       <c r="I404" s="1"/>
       <c r="J404" s="1"/>
@@ -46863,7 +47643,7 @@
         <v>447</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="D405" s="1" t="n">
         <v>0.9799074</v>
@@ -46891,7 +47671,7 @@
         <v>449</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="D406" s="1" t="n">
         <v>1.1093122</v>
@@ -46919,7 +47699,7 @@
         <v>449</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="D407" s="1" t="n">
         <v>1.2642522</v>
@@ -46967,6 +47747,259 @@
       <c r="I408" s="1"/>
       <c r="J408" s="1"/>
     </row>
+    <row r="409" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D409" s="1" t="n">
+        <v>1.2282218</v>
+      </c>
+      <c r="E409" s="1" t="n">
+        <v>1.952449</v>
+      </c>
+      <c r="F409" s="1" t="n">
+        <v>1.3078728</v>
+      </c>
+      <c r="G409" s="1" t="n">
+        <v>3.4089498</v>
+      </c>
+      <c r="H409" s="1" t="n">
+        <v>1.3413826</v>
+      </c>
+      <c r="I409" s="1"/>
+      <c r="J409" s="1"/>
+    </row>
+    <row r="410" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D410" s="1" t="n">
+        <v>1.6267684</v>
+      </c>
+      <c r="E410" s="1" t="n">
+        <v>1.7663234</v>
+      </c>
+      <c r="F410" s="1" t="n">
+        <v>1.3747394</v>
+      </c>
+      <c r="G410" s="1" t="n">
+        <v>2.9435302</v>
+      </c>
+      <c r="H410" s="1" t="n">
+        <v>1.5594198</v>
+      </c>
+      <c r="I410" s="1"/>
+      <c r="J410" s="1"/>
+    </row>
+    <row r="411" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D411" s="1" t="n">
+        <v>1.3559452</v>
+      </c>
+      <c r="E411" s="1" t="n">
+        <v>2.0575792</v>
+      </c>
+      <c r="F411" s="1" t="n">
+        <v>1.3860682</v>
+      </c>
+      <c r="G411" s="1" t="n">
+        <v>3.0266706</v>
+      </c>
+      <c r="H411" s="1" t="n">
+        <v>1.5317068</v>
+      </c>
+      <c r="I411" s="1"/>
+      <c r="J411" s="1"/>
+    </row>
+    <row r="412" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D412" s="1" t="n">
+        <v>1.1651596</v>
+      </c>
+      <c r="E412" s="1" t="n">
+        <v>1.6603018</v>
+      </c>
+      <c r="F412" s="1" t="n">
+        <v>1.2635648</v>
+      </c>
+      <c r="G412" s="1" t="n">
+        <v>3.0884194</v>
+      </c>
+      <c r="H412" s="1" t="n">
+        <v>1.5417028</v>
+      </c>
+      <c r="I412" s="1"/>
+      <c r="J412" s="1"/>
+    </row>
+    <row r="413" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D413" s="1" t="n">
+        <v>1.3323756</v>
+      </c>
+      <c r="E413" s="1" t="n">
+        <v>1.6536264</v>
+      </c>
+      <c r="F413" s="1" t="n">
+        <v>1.377811</v>
+      </c>
+      <c r="G413" s="1" t="n">
+        <v>3.0638614</v>
+      </c>
+      <c r="H413" s="1" t="n">
+        <v>1.4800372</v>
+      </c>
+      <c r="I413" s="1"/>
+      <c r="J413" s="1"/>
+    </row>
+    <row r="414" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D414" s="1" t="n">
+        <v>1.2757406</v>
+      </c>
+      <c r="E414" s="1" t="n">
+        <v>1.6270288</v>
+      </c>
+      <c r="F414" s="1" t="n">
+        <v>1.2549938</v>
+      </c>
+      <c r="G414" s="1" t="n">
+        <v>3.2537282</v>
+      </c>
+      <c r="H414" s="1" t="n">
+        <v>1.5202392</v>
+      </c>
+      <c r="I414" s="1"/>
+      <c r="J414" s="1"/>
+    </row>
+    <row r="415" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D415" s="1" t="n">
+        <v>0.9960956</v>
+      </c>
+      <c r="E415" s="1" t="n">
+        <v>1.9379924</v>
+      </c>
+      <c r="F415" s="1" t="n">
+        <v>1.2795522</v>
+      </c>
+      <c r="G415" s="1" t="n">
+        <v>3.015061</v>
+      </c>
+      <c r="H415" s="1" t="n">
+        <v>1.4368428</v>
+      </c>
+      <c r="I415" s="1"/>
+      <c r="J415" s="1"/>
+    </row>
+    <row r="416" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D416" s="1" t="n">
+        <v>1.1375304</v>
+      </c>
+      <c r="E416" s="1" t="n">
+        <v>1.4141774</v>
+      </c>
+      <c r="F416" s="1" t="n">
+        <v>1.3465676</v>
+      </c>
+      <c r="G416" s="1" t="n">
+        <v>3.1738732</v>
+      </c>
+      <c r="H416" s="1" t="n">
+        <v>1.5728696</v>
+      </c>
+      <c r="I416" s="1"/>
+      <c r="J416" s="1"/>
+    </row>
+    <row r="417" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D417" s="1" t="n">
+        <v>1.1445646</v>
+      </c>
+      <c r="E417" s="1" t="n">
+        <v>1.5607876</v>
+      </c>
+      <c r="F417" s="1" t="n">
+        <v>1.3319498</v>
+      </c>
+      <c r="G417" s="1" t="n">
+        <v>2.8604682</v>
+      </c>
+      <c r="H417" s="1" t="n">
+        <v>1.4439796</v>
+      </c>
+      <c r="I417" s="1"/>
+      <c r="J417" s="1"/>
+    </row>
+    <row r="1048557" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048558" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048559" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048560" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
